--- a/health-care-congress-president-opposed-20170326/health-care-congress-president-opposed-20170326.xlsx
+++ b/health-care-congress-president-opposed-20170326/health-care-congress-president-opposed-20170326.xlsx
@@ -38,10 +38,13 @@
     <t>subhed</t>
   </si>
   <si>
+    <t>Percentage of Americans who were &lt;strong&gt;opposed&lt;/strong&gt;, by congressional district.</t>
+  </si>
+  <si>
     <t>0.2017</t>
   </si>
   <si>
-    <t>Percentage of Americans who were &lt;strong&gt;opposed&lt;/strong&gt;, by congressional district.</t>
+    <t>footnote</t>
   </si>
   <si>
     <t>Abbeville County, S.C.</t>
@@ -53,6 +56,12 @@
     <t>Acadia Parish, La.</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>YouGov (&lt;a href="http://d25d2506sfb94s.cloudfront.net/cumulus_uploads/document/afgf7c40wf/econTabReport.pdf"&gt;poll data&lt;/a&gt;, via &lt;a href="https://projects.fivethirtyeight.com/mid-levels/ahca-districts/index.html"&gt;FiveThirtyEight&lt;/a&gt;; Daily Kos Elections (&lt;a href="https://docs.google.com/spreadsheets/d/1VfkHtzBTP5gf4jAu8tcVQgsBJ1IDvXEHjuMqYlOgYbA/edit#gid=0"&gt;Trump vote by district&lt;/a&gt;)</t>
+  </si>
+  <si>
     <t>0.4429</t>
   </si>
   <si>
@@ -74,6 +83,12 @@
     <t>0.073</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>Adair County, Iowa</t>
   </si>
   <si>
@@ -134,9 +149,6 @@
     <t>0.1013</t>
   </si>
   <si>
-    <t>footnote</t>
-  </si>
-  <si>
     <t>Adams County, Pa.</t>
   </si>
   <si>
@@ -161,9 +173,6 @@
     <t>0.2497</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>Adams County, Ohio</t>
   </si>
   <si>
@@ -185,9 +194,6 @@
     <t>Aitkin County, Minn.</t>
   </si>
   <si>
-    <t>YouGov (&lt;a href="http://d25d2506sfb94s.cloudfront.net/cumulus_uploads/document/afgf7c40wf/econTabReport.pdf"&gt;poll data&lt;/a&gt;, via &lt;a href="https://projects.fivethirtyeight.com/mid-levels/ahca-districts/index.html"&gt;FiveThirtyEight&lt;/a&gt;; Daily Kos Elections (&lt;a href="https://docs.google.com/spreadsheets/d/1VfkHtzBTP5gf4jAu8tcVQgsBJ1IDvXEHjuMqYlOgYbA/edit#gid=0"&gt;Trump vote by district&lt;/a&gt;)</t>
-  </si>
-  <si>
     <t>0.0582</t>
   </si>
   <si>
@@ -212,16 +218,10 @@
     <t>Alamosa County, Colo.</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>0.0375</t>
   </si>
   <si>
     <t>Albany County, N.Y.</t>
-  </si>
-  <si>
-    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
   </si>
   <si>
     <t>0.04</t>
@@ -11878,47 +11878,42 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11929,15 +11924,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12015,8 +12013,8 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>9</v>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -12045,7 +12043,7 @@
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
@@ -12075,10 +12073,10 @@
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -12107,10 +12105,10 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -12536,6 +12534,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12584,315 +12585,315 @@
       <c r="A2" s="8">
         <v>45001.0</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>8</v>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8">
         <v>22001.0</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8">
         <v>51001.0</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8">
         <v>16001.0</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8">
         <v>40001.0</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8">
         <v>19001.0</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
+      <c r="B7" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8">
         <v>29001.0</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>21</v>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8">
         <v>21001.0</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>23</v>
+      <c r="B9" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8">
         <v>38001.0</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>25</v>
+      <c r="B10" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8">
         <v>53001.0</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>27</v>
+      <c r="B11" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8">
         <v>31001.0</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>29</v>
+      <c r="B12" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8">
         <v>55001.0</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>31</v>
+      <c r="B13" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8">
         <v>16003.0</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>33</v>
+      <c r="B14" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8">
         <v>8001.0</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>35</v>
+      <c r="B15" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8">
         <v>28001.0</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>37</v>
+      <c r="B16" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8">
         <v>42001.0</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>39</v>
+      <c r="B17" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8">
         <v>17001.0</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>42</v>
+      <c r="B18" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8">
         <v>19003.0</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>44</v>
+      <c r="B19" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8">
         <v>18001.0</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>46</v>
+      <c r="B20" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8">
         <v>39001.0</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>48</v>
+      <c r="B21" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8">
         <v>50001.0</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>51</v>
+      <c r="B22" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8">
         <v>45003.0</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>53</v>
+      <c r="B23" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8">
         <v>27001.0</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>55</v>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8">
         <v>12001.0</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>58</v>
+      <c r="B25" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8">
         <v>37001.0</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>60</v>
+      <c r="B26" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8">
         <v>6001.0</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>62</v>
+      <c r="B27" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8">
         <v>8003.0</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>64</v>
+      <c r="B28" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8">
         <v>36001.0</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>67</v>
+      <c r="B29" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8">
         <v>56001.0</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -12903,7 +12904,7 @@
       <c r="A31" s="8">
         <v>51003.0</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -12914,7 +12915,7 @@
       <c r="A32" s="8">
         <v>26001.0</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -12925,7 +12926,7 @@
       <c r="A33" s="8">
         <v>28003.0</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -12936,7 +12937,7 @@
       <c r="A34" s="8">
         <v>2013.0</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -12947,7 +12948,7 @@
       <c r="A35" s="8">
         <v>2016.0</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -12958,7 +12959,7 @@
       <c r="A36" s="8">
         <v>17003.0</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -12969,7 +12970,7 @@
       <c r="A37" s="8">
         <v>37003.0</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -12980,7 +12981,7 @@
       <c r="A38" s="8">
         <v>51510.0</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -12991,7 +12992,7 @@
       <c r="A39" s="8">
         <v>40003.0</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -13002,7 +13003,7 @@
       <c r="A40" s="8">
         <v>26003.0</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -13013,7 +13014,7 @@
       <c r="A41" s="8">
         <v>19005.0</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -13024,7 +13025,7 @@
       <c r="A42" s="8">
         <v>26005.0</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -13035,7 +13036,7 @@
       <c r="A43" s="8">
         <v>36003.0</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -13046,7 +13047,7 @@
       <c r="A44" s="8">
         <v>24001.0</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -13057,7 +13058,7 @@
       <c r="A45" s="8">
         <v>51005.0</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -13068,7 +13069,7 @@
       <c r="A46" s="8">
         <v>37005.0</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -13079,7 +13080,7 @@
       <c r="A47" s="8">
         <v>42003.0</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -13090,7 +13091,7 @@
       <c r="A48" s="8">
         <v>39003.0</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -13101,7 +13102,7 @@
       <c r="A49" s="8">
         <v>20001.0</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="10" t="s">
         <v>108</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -13112,7 +13113,7 @@
       <c r="A50" s="8">
         <v>22003.0</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -13123,7 +13124,7 @@
       <c r="A51" s="8">
         <v>18003.0</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -13134,7 +13135,7 @@
       <c r="A52" s="8">
         <v>21003.0</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -13145,7 +13146,7 @@
       <c r="A53" s="8">
         <v>45005.0</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -13156,7 +13157,7 @@
       <c r="A54" s="8">
         <v>26007.0</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -13167,7 +13168,7 @@
       <c r="A55" s="8">
         <v>6003.0</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -13178,7 +13179,7 @@
       <c r="A56" s="8">
         <v>6005.0</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -13189,7 +13190,7 @@
       <c r="A57" s="8">
         <v>51007.0</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -13200,7 +13201,7 @@
       <c r="A58" s="8">
         <v>51009.0</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -13211,7 +13212,7 @@
       <c r="A59" s="8">
         <v>28005.0</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -13222,7 +13223,7 @@
       <c r="A60" s="8">
         <v>2020.0</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -13233,7 +13234,7 @@
       <c r="A61" s="8">
         <v>48001.0</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -13244,7 +13245,7 @@
       <c r="A62" s="8">
         <v>20003.0</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -13255,7 +13256,7 @@
       <c r="A63" s="8">
         <v>45007.0</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -13266,7 +13267,7 @@
       <c r="A64" s="8">
         <v>21005.0</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -13277,7 +13278,7 @@
       <c r="A65" s="8">
         <v>47001.0</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -13288,7 +13289,7 @@
       <c r="A66" s="8">
         <v>29003.0</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -13299,7 +13300,7 @@
       <c r="A67" s="8">
         <v>48003.0</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -13310,7 +13311,7 @@
       <c r="A68" s="8">
         <v>23001.0</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -13321,7 +13322,7 @@
       <c r="A69" s="8">
         <v>48005.0</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -13332,7 +13333,7 @@
       <c r="A70" s="8">
         <v>24003.0</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -13343,7 +13344,7 @@
       <c r="A71" s="8">
         <v>27003.0</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -13354,7 +13355,7 @@
       <c r="A72" s="8">
         <v>37007.0</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -13365,7 +13366,7 @@
       <c r="A73" s="8">
         <v>31003.0</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="10" t="s">
         <v>156</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -13376,7 +13377,7 @@
       <c r="A74" s="8">
         <v>26009.0</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="10" t="s">
         <v>158</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -13387,7 +13388,7 @@
       <c r="A75" s="8">
         <v>4001.0</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="10" t="s">
         <v>160</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -13398,7 +13399,7 @@
       <c r="A76" s="8">
         <v>19007.0</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="10" t="s">
         <v>162</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -13409,7 +13410,7 @@
       <c r="A77" s="8">
         <v>13001.0</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="10" t="s">
         <v>164</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -13420,7 +13421,7 @@
       <c r="A78" s="8">
         <v>51011.0</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="10" t="s">
         <v>166</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -13431,7 +13432,7 @@
       <c r="A79" s="8">
         <v>48007.0</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -13442,7 +13443,7 @@
       <c r="A80" s="8">
         <v>8005.0</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -13453,7 +13454,7 @@
       <c r="A81" s="8">
         <v>48009.0</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -13464,7 +13465,7 @@
       <c r="A82" s="8">
         <v>8007.0</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="10" t="s">
         <v>174</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -13475,7 +13476,7 @@
       <c r="A83" s="8">
         <v>26011.0</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="10" t="s">
         <v>176</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -13486,7 +13487,7 @@
       <c r="A84" s="8">
         <v>5001.0</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="10" t="s">
         <v>178</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -13497,7 +13498,7 @@
       <c r="A85" s="8">
         <v>51013.0</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -13508,7 +13509,7 @@
       <c r="A86" s="8">
         <v>48011.0</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -13519,7 +13520,7 @@
       <c r="A87" s="8">
         <v>42005.0</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="10" t="s">
         <v>184</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -13530,7 +13531,7 @@
       <c r="A88" s="8">
         <v>23003.0</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="10" t="s">
         <v>186</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -13541,7 +13542,7 @@
       <c r="A89" s="8">
         <v>31005.0</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="10" t="s">
         <v>188</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -13552,7 +13553,7 @@
       <c r="A90" s="8">
         <v>22005.0</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="10" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -13563,7 +13564,7 @@
       <c r="A91" s="8">
         <v>37009.0</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="10" t="s">
         <v>192</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -13574,7 +13575,7 @@
       <c r="A92" s="8">
         <v>55003.0</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="10" t="s">
         <v>194</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -13585,7 +13586,7 @@
       <c r="A93" s="8">
         <v>39005.0</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -13596,7 +13597,7 @@
       <c r="A94" s="8">
         <v>5003.0</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -13607,7 +13608,7 @@
       <c r="A95" s="8">
         <v>39007.0</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="10" t="s">
         <v>200</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -13618,7 +13619,7 @@
       <c r="A96" s="8">
         <v>53003.0</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="10" t="s">
         <v>202</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -13629,7 +13630,7 @@
       <c r="A97" s="8">
         <v>22007.0</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="10" t="s">
         <v>204</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -13640,7 +13641,7 @@
       <c r="A98" s="8">
         <v>48013.0</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="10" t="s">
         <v>206</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -13651,7 +13652,7 @@
       <c r="A99" s="8">
         <v>20005.0</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="10" t="s">
         <v>208</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -13662,7 +13663,7 @@
       <c r="A100" s="8">
         <v>29005.0</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="10" t="s">
         <v>210</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -13673,7 +13674,7 @@
       <c r="A101" s="8">
         <v>39009.0</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="10" t="s">
         <v>212</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -13684,7 +13685,7 @@
       <c r="A102" s="8">
         <v>13003.0</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="10" t="s">
         <v>214</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -13695,7 +13696,7 @@
       <c r="A103" s="8">
         <v>34001.0</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="10" t="s">
         <v>216</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -13706,7 +13707,7 @@
       <c r="A104" s="8">
         <v>40005.0</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="10" t="s">
         <v>218</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -13717,7 +13718,7 @@
       <c r="A105" s="8">
         <v>28007.0</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="10" t="s">
         <v>220</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -13728,7 +13729,7 @@
       <c r="A106" s="8">
         <v>29007.0</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="10" t="s">
         <v>222</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -13739,7 +13740,7 @@
       <c r="A107" s="8">
         <v>19009.0</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="10" t="s">
         <v>224</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -13750,7 +13751,7 @@
       <c r="A108" s="8">
         <v>39011.0</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="10" t="s">
         <v>226</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -13761,7 +13762,7 @@
       <c r="A109" s="8">
         <v>51015.0</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="10" t="s">
         <v>228</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -13772,7 +13773,7 @@
       <c r="A110" s="8">
         <v>46003.0</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="10" t="s">
         <v>230</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -13783,7 +13784,7 @@
       <c r="A111" s="8">
         <v>48015.0</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -13794,7 +13795,7 @@
       <c r="A112" s="8">
         <v>1001.0</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -13805,7 +13806,7 @@
       <c r="A113" s="8">
         <v>37011.0</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="10" t="s">
         <v>236</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -13816,7 +13817,7 @@
       <c r="A114" s="8">
         <v>22009.0</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="10" t="s">
         <v>238</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -13827,7 +13828,7 @@
       <c r="A115" s="8">
         <v>8009.0</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="10" t="s">
         <v>240</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -13838,7 +13839,7 @@
       <c r="A116" s="8">
         <v>13005.0</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -13849,7 +13850,7 @@
       <c r="A117" s="8">
         <v>48017.0</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -13860,7 +13861,7 @@
       <c r="A118" s="8">
         <v>13007.0</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -13871,7 +13872,7 @@
       <c r="A119" s="8">
         <v>41001.0</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="10" t="s">
         <v>246</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -13882,7 +13883,7 @@
       <c r="A120" s="8">
         <v>12003.0</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="10" t="s">
         <v>248</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -13893,7 +13894,7 @@
       <c r="A121" s="8">
         <v>13009.0</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="10" t="s">
         <v>250</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -13904,7 +13905,7 @@
       <c r="A122" s="8">
         <v>1003.0</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="10" t="s">
         <v>252</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -13915,7 +13916,7 @@
       <c r="A123" s="8">
         <v>21007.0</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="10" t="s">
         <v>254</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -13926,7 +13927,7 @@
       <c r="A124" s="8">
         <v>24005.0</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="10" t="s">
         <v>256</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -13937,7 +13938,7 @@
       <c r="A125" s="8">
         <v>24510.0</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="10" t="s">
         <v>258</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -13948,7 +13949,7 @@
       <c r="A126" s="8">
         <v>45009.0</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="10" t="s">
         <v>260</v>
       </c>
       <c r="C126" s="4" t="s">
@@ -13959,7 +13960,7 @@
       <c r="A127" s="8">
         <v>48019.0</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="10" t="s">
         <v>262</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -13970,7 +13971,7 @@
       <c r="A128" s="8">
         <v>13011.0</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="10" t="s">
         <v>264</v>
       </c>
       <c r="C128" s="4" t="s">
@@ -13981,7 +13982,7 @@
       <c r="A129" s="8">
         <v>31007.0</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C129" s="4" t="s">
@@ -13992,7 +13993,7 @@
       <c r="A130" s="8">
         <v>16005.0</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="10" t="s">
         <v>268</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -14003,7 +14004,7 @@
       <c r="A131" s="8">
         <v>26013.0</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -14014,7 +14015,7 @@
       <c r="A132" s="8">
         <v>20007.0</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -14025,7 +14026,7 @@
       <c r="A133" s="8">
         <v>1005.0</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="10" t="s">
         <v>273</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -14036,7 +14037,7 @@
       <c r="A134" s="8">
         <v>54001.0</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="10" t="s">
         <v>275</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -14047,7 +14048,7 @@
       <c r="A135" s="8">
         <v>38003.0</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="10" t="s">
         <v>277</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -14058,7 +14059,7 @@
       <c r="A136" s="8">
         <v>25001.0</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="10" t="s">
         <v>279</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -14069,7 +14070,7 @@
       <c r="A137" s="8">
         <v>45011.0</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="10" t="s">
         <v>281</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -14080,7 +14081,7 @@
       <c r="A138" s="8">
         <v>21009.0</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="10" t="s">
         <v>283</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -14091,7 +14092,7 @@
       <c r="A139" s="8">
         <v>55005.0</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="10" t="s">
         <v>176</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -14102,7 +14103,7 @@
       <c r="A140" s="8">
         <v>13013.0</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="10" t="s">
         <v>286</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -14113,7 +14114,7 @@
       <c r="A141" s="8">
         <v>26015.0</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="10" t="s">
         <v>288</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -14124,7 +14125,7 @@
       <c r="A142" s="8">
         <v>29009.0</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="10" t="s">
         <v>290</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -14135,7 +14136,7 @@
       <c r="A143" s="8">
         <v>18005.0</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="10" t="s">
         <v>292</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -14146,7 +14147,7 @@
       <c r="A144" s="8">
         <v>20009.0</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="10" t="s">
         <v>294</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -14157,7 +14158,7 @@
       <c r="A145" s="8">
         <v>29011.0</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="10" t="s">
         <v>296</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -14168,7 +14169,7 @@
       <c r="A146" s="8">
         <v>13015.0</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="10" t="s">
         <v>298</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -14179,7 +14180,7 @@
       <c r="A147" s="8">
         <v>48021.0</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="10" t="s">
         <v>300</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -14190,7 +14191,7 @@
       <c r="A148" s="8">
         <v>29013.0</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="10" t="s">
         <v>302</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -14201,7 +14202,7 @@
       <c r="A149" s="8">
         <v>21011.0</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="10" t="s">
         <v>304</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -14212,7 +14213,7 @@
       <c r="A150" s="8">
         <v>51017.0</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="10" t="s">
         <v>306</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -14223,7 +14224,7 @@
       <c r="A151" s="8">
         <v>5005.0</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="10" t="s">
         <v>308</v>
       </c>
       <c r="C151" s="4" t="s">
@@ -14234,7 +14235,7 @@
       <c r="A152" s="8">
         <v>26017.0</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="10" t="s">
         <v>310</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -14245,7 +14246,7 @@
       <c r="A153" s="8">
         <v>12005.0</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="10" t="s">
         <v>312</v>
       </c>
       <c r="C153" s="4" t="s">
@@ -14256,7 +14257,7 @@
       <c r="A154" s="8">
         <v>55007.0</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="10" t="s">
         <v>314</v>
       </c>
       <c r="C154" s="4" t="s">
@@ -14267,7 +14268,7 @@
       <c r="A155" s="8">
         <v>48023.0</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="10" t="s">
         <v>316</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -14278,7 +14279,7 @@
       <c r="A156" s="8">
         <v>46005.0</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="10" t="s">
         <v>318</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -14289,7 +14290,7 @@
       <c r="A157" s="8">
         <v>16007.0</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="10" t="s">
         <v>320</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -14300,7 +14301,7 @@
       <c r="A158" s="8">
         <v>45013.0</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="10" t="s">
         <v>322</v>
       </c>
       <c r="C158" s="4" t="s">
@@ -14311,7 +14312,7 @@
       <c r="A159" s="8">
         <v>37013.0</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="10" t="s">
         <v>324</v>
       </c>
       <c r="C159" s="4" t="s">
@@ -14322,7 +14323,7 @@
       <c r="A160" s="8">
         <v>22011.0</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="10" t="s">
         <v>326</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -14333,7 +14334,7 @@
       <c r="A161" s="8">
         <v>49001.0</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="10" t="s">
         <v>328</v>
       </c>
       <c r="C161" s="4" t="s">
@@ -14344,7 +14345,7 @@
       <c r="A162" s="8">
         <v>42007.0</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="10" t="s">
         <v>330</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -14355,7 +14356,7 @@
       <c r="A163" s="8">
         <v>40007.0</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="10" t="s">
         <v>332</v>
       </c>
       <c r="C163" s="4" t="s">
@@ -14366,7 +14367,7 @@
       <c r="A164" s="8">
         <v>30001.0</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="10" t="s">
         <v>334</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -14377,7 +14378,7 @@
       <c r="A165" s="8">
         <v>27005.0</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="10" t="s">
         <v>336</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -14388,7 +14389,7 @@
       <c r="A166" s="8">
         <v>40009.0</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="10" t="s">
         <v>338</v>
       </c>
       <c r="C166" s="4" t="s">
@@ -14399,7 +14400,7 @@
       <c r="A167" s="8">
         <v>42009.0</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="10" t="s">
         <v>340</v>
       </c>
       <c r="C167" s="4" t="s">
@@ -14410,7 +14411,7 @@
       <c r="A168" s="8">
         <v>51019.0</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="10" t="s">
         <v>342</v>
       </c>
       <c r="C168" s="4" t="s">
@@ -14421,7 +14422,7 @@
       <c r="A169" s="8">
         <v>47003.0</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="10" t="s">
         <v>344</v>
       </c>
       <c r="C169" s="4" t="s">
@@ -14432,7 +14433,7 @@
       <c r="A170" s="8">
         <v>48025.0</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="10" t="s">
         <v>346</v>
       </c>
       <c r="C170" s="4" t="s">
@@ -14443,7 +14444,7 @@
       <c r="A171" s="8">
         <v>33001.0</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="10" t="s">
         <v>316</v>
       </c>
       <c r="C171" s="4" t="s">
@@ -14454,7 +14455,7 @@
       <c r="A172" s="8">
         <v>48027.0</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="10" t="s">
         <v>349</v>
       </c>
       <c r="C172" s="4" t="s">
@@ -14465,7 +14466,7 @@
       <c r="A173" s="8">
         <v>21013.0</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="10" t="s">
         <v>351</v>
       </c>
       <c r="C173" s="4" t="s">
@@ -14476,7 +14477,7 @@
       <c r="A174" s="8">
         <v>39013.0</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="10" t="s">
         <v>353</v>
       </c>
       <c r="C174" s="4" t="s">
@@ -14487,7 +14488,7 @@
       <c r="A175" s="8">
         <v>27007.0</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="10" t="s">
         <v>355</v>
       </c>
       <c r="C175" s="4" t="s">
@@ -14498,7 +14499,7 @@
       <c r="A176" s="8">
         <v>13017.0</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="10" t="s">
         <v>357</v>
       </c>
       <c r="C176" s="4" t="s">
@@ -14509,7 +14510,7 @@
       <c r="A177" s="8">
         <v>16009.0</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="10" t="s">
         <v>359</v>
       </c>
       <c r="C177" s="4" t="s">
@@ -14520,7 +14521,7 @@
       <c r="A178" s="8">
         <v>46007.0</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="10" t="s">
         <v>361</v>
       </c>
       <c r="C178" s="4" t="s">
@@ -14531,7 +14532,7 @@
       <c r="A179" s="8">
         <v>50003.0</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="10" t="s">
         <v>363</v>
       </c>
       <c r="C179" s="4" t="s">
@@ -14542,7 +14543,7 @@
       <c r="A180" s="8">
         <v>38005.0</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="10" t="s">
         <v>365</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -14553,7 +14554,7 @@
       <c r="A181" s="8">
         <v>8011.0</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="10" t="s">
         <v>367</v>
       </c>
       <c r="C181" s="4" t="s">
@@ -14564,8 +14565,8 @@
       <c r="A182" s="8">
         <v>41003.0</v>
       </c>
-      <c r="B182" s="9" t="s">
-        <v>64</v>
+      <c r="B182" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>369</v>
@@ -14575,7 +14576,7 @@
       <c r="A183" s="8">
         <v>27009.0</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="10" t="s">
         <v>361</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -14586,7 +14587,7 @@
       <c r="A184" s="8">
         <v>5007.0</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -14597,7 +14598,7 @@
       <c r="A185" s="8">
         <v>53005.0</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="10" t="s">
         <v>373</v>
       </c>
       <c r="C185" s="4" t="s">
@@ -14608,7 +14609,7 @@
       <c r="A186" s="8">
         <v>19011.0</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="10" t="s">
         <v>375</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -14619,7 +14620,7 @@
       <c r="A187" s="8">
         <v>18007.0</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -14630,7 +14631,7 @@
       <c r="A188" s="8">
         <v>29015.0</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C188" s="4" t="s">
@@ -14641,7 +14642,7 @@
       <c r="A189" s="8">
         <v>28009.0</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="10" t="s">
         <v>380</v>
       </c>
       <c r="C189" s="4" t="s">
@@ -14652,7 +14653,7 @@
       <c r="A190" s="8">
         <v>47005.0</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="10" t="s">
         <v>382</v>
       </c>
       <c r="C190" s="4" t="s">
@@ -14663,7 +14664,7 @@
       <c r="A191" s="8">
         <v>26019.0</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="10" t="s">
         <v>384</v>
       </c>
       <c r="C191" s="4" t="s">
@@ -14674,7 +14675,7 @@
       <c r="A192" s="8">
         <v>34003.0</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="10" t="s">
         <v>386</v>
       </c>
       <c r="C192" s="4" t="s">
@@ -14685,7 +14686,7 @@
       <c r="A193" s="8">
         <v>54003.0</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="10" t="s">
         <v>388</v>
       </c>
       <c r="C193" s="4" t="s">
@@ -14696,7 +14697,7 @@
       <c r="A194" s="8">
         <v>45015.0</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C194" s="4" t="s">
@@ -14707,7 +14708,7 @@
       <c r="A195" s="8">
         <v>42011.0</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C195" s="4" t="s">
@@ -14718,7 +14719,7 @@
       <c r="A196" s="8">
         <v>25003.0</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C196" s="4" t="s">
@@ -14729,8 +14730,8 @@
       <c r="A197" s="8">
         <v>35001.0</v>
       </c>
-      <c r="B197" s="9" t="s">
-        <v>64</v>
+      <c r="B197" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>395</v>
@@ -14740,7 +14741,7 @@
       <c r="A198" s="8">
         <v>26021.0</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="10" t="s">
         <v>396</v>
       </c>
       <c r="C198" s="4" t="s">
@@ -14751,7 +14752,7 @@
       <c r="A199" s="8">
         <v>13019.0</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C199" s="4" t="s">
@@ -14762,7 +14763,7 @@
       <c r="A200" s="8">
         <v>37015.0</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="10" t="s">
         <v>400</v>
       </c>
       <c r="C200" s="4" t="s">
@@ -14773,7 +14774,7 @@
       <c r="A201" s="8">
         <v>2050.0</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="10" t="s">
         <v>402</v>
       </c>
       <c r="C201" s="4" t="s">
@@ -14784,7 +14785,7 @@
       <c r="A202" s="8">
         <v>48029.0</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="10" t="s">
         <v>404</v>
       </c>
       <c r="C202" s="4" t="s">
@@ -14795,7 +14796,7 @@
       <c r="A203" s="8">
         <v>13021.0</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="10" t="s">
         <v>406</v>
       </c>
       <c r="C203" s="4" t="s">
@@ -14806,7 +14807,7 @@
       <c r="A204" s="8">
         <v>1007.0</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="10" t="s">
         <v>408</v>
       </c>
       <c r="C204" s="4" t="s">
@@ -14817,7 +14818,7 @@
       <c r="A205" s="8">
         <v>22013.0</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="10" t="s">
         <v>410</v>
       </c>
       <c r="C205" s="4" t="s">
@@ -14828,7 +14829,7 @@
       <c r="A206" s="8">
         <v>56003.0</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="10" t="s">
         <v>412</v>
       </c>
       <c r="C206" s="4" t="s">
@@ -14839,7 +14840,7 @@
       <c r="A207" s="8">
         <v>30003.0</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="10" t="s">
         <v>414</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -14850,7 +14851,7 @@
       <c r="A208" s="8">
         <v>27011.0</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="10" t="s">
         <v>416</v>
       </c>
       <c r="C208" s="4" t="s">
@@ -14861,7 +14862,7 @@
       <c r="A209" s="8">
         <v>38007.0</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="10" t="s">
         <v>418</v>
       </c>
       <c r="C209" s="4" t="s">
@@ -14872,7 +14873,7 @@
       <c r="A210" s="8">
         <v>16011.0</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="10" t="s">
         <v>420</v>
       </c>
       <c r="C210" s="4" t="s">
@@ -14883,7 +14884,7 @@
       <c r="A211" s="8">
         <v>19013.0</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="10" t="s">
         <v>422</v>
       </c>
       <c r="C211" s="4" t="s">
@@ -14894,7 +14895,7 @@
       <c r="A212" s="8">
         <v>18009.0</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="10" t="s">
         <v>424</v>
       </c>
       <c r="C212" s="4" t="s">
@@ -14905,7 +14906,7 @@
       <c r="A213" s="8">
         <v>37017.0</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="10" t="s">
         <v>426</v>
       </c>
       <c r="C213" s="4" t="s">
@@ -14916,7 +14917,7 @@
       <c r="A214" s="8">
         <v>31009.0</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="10" t="s">
         <v>428</v>
       </c>
       <c r="C214" s="4" t="s">
@@ -14927,7 +14928,7 @@
       <c r="A215" s="8">
         <v>16013.0</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="10" t="s">
         <v>430</v>
       </c>
       <c r="C215" s="4" t="s">
@@ -14938,7 +14939,7 @@
       <c r="A216" s="8">
         <v>40011.0</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="10" t="s">
         <v>432</v>
       </c>
       <c r="C216" s="4" t="s">
@@ -14949,7 +14950,7 @@
       <c r="A217" s="8">
         <v>30005.0</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="10" t="s">
         <v>434</v>
       </c>
       <c r="C217" s="4" t="s">
@@ -14960,7 +14961,7 @@
       <c r="A218" s="8">
         <v>42013.0</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="10" t="s">
         <v>436</v>
       </c>
       <c r="C218" s="4" t="s">
@@ -14971,7 +14972,7 @@
       <c r="A219" s="8">
         <v>48031.0</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="10" t="s">
         <v>438</v>
       </c>
       <c r="C219" s="4" t="s">
@@ -14982,7 +14983,7 @@
       <c r="A220" s="8">
         <v>51021.0</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="10" t="s">
         <v>440</v>
       </c>
       <c r="C220" s="4" t="s">
@@ -14993,7 +14994,7 @@
       <c r="A221" s="8">
         <v>13023.0</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="10" t="s">
         <v>442</v>
       </c>
       <c r="C221" s="4" t="s">
@@ -15004,7 +15005,7 @@
       <c r="A222" s="8">
         <v>47007.0</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="10" t="s">
         <v>444</v>
       </c>
       <c r="C222" s="4" t="s">
@@ -15015,7 +15016,7 @@
       <c r="A223" s="8">
         <v>1009.0</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="10" t="s">
         <v>446</v>
       </c>
       <c r="C223" s="4" t="s">
@@ -15026,7 +15027,7 @@
       <c r="A224" s="8">
         <v>47009.0</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="10" t="s">
         <v>448</v>
       </c>
       <c r="C224" s="4" t="s">
@@ -15037,7 +15038,7 @@
       <c r="A225" s="8">
         <v>27013.0</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="10" t="s">
         <v>450</v>
       </c>
       <c r="C225" s="4" t="s">
@@ -15048,7 +15049,7 @@
       <c r="A226" s="8">
         <v>16015.0</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="10" t="s">
         <v>452</v>
       </c>
       <c r="C226" s="4" t="s">
@@ -15059,7 +15060,7 @@
       <c r="A227" s="8">
         <v>28011.0</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="10" t="s">
         <v>454</v>
       </c>
       <c r="C227" s="4" t="s">
@@ -15070,7 +15071,7 @@
       <c r="A228" s="8">
         <v>29017.0</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="10" t="s">
         <v>456</v>
       </c>
       <c r="C228" s="4" t="s">
@@ -15081,7 +15082,7 @@
       <c r="A229" s="8">
         <v>46009.0</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="10" t="s">
         <v>458</v>
       </c>
       <c r="C229" s="4" t="s">
@@ -15092,7 +15093,7 @@
       <c r="A230" s="8">
         <v>17005.0</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="10" t="s">
         <v>460</v>
       </c>
       <c r="C230" s="4" t="s">
@@ -15103,7 +15104,7 @@
       <c r="A231" s="8">
         <v>16017.0</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="10" t="s">
         <v>462</v>
       </c>
       <c r="C231" s="4" t="s">
@@ -15114,7 +15115,7 @@
       <c r="A232" s="8">
         <v>16019.0</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="10" t="s">
         <v>464</v>
       </c>
       <c r="C232" s="4" t="s">
@@ -15125,7 +15126,7 @@
       <c r="A233" s="8">
         <v>31011.0</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="10" t="s">
         <v>466</v>
       </c>
       <c r="C233" s="4" t="s">
@@ -15136,7 +15137,7 @@
       <c r="A234" s="8">
         <v>17007.0</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="10" t="s">
         <v>468</v>
       </c>
       <c r="C234" s="4" t="s">
@@ -15147,7 +15148,7 @@
       <c r="A235" s="8">
         <v>19015.0</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="10" t="s">
         <v>470</v>
       </c>
       <c r="C235" s="4" t="s">
@@ -15158,7 +15159,7 @@
       <c r="A236" s="8">
         <v>29019.0</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="10" t="s">
         <v>472</v>
       </c>
       <c r="C236" s="4" t="s">
@@ -15169,7 +15170,7 @@
       <c r="A237" s="8">
         <v>21015.0</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="10" t="s">
         <v>474</v>
       </c>
       <c r="C237" s="4" t="s">
@@ -15180,7 +15181,7 @@
       <c r="A238" s="8">
         <v>18011.0</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C238" s="4" t="s">
@@ -15191,7 +15192,7 @@
       <c r="A239" s="8">
         <v>54005.0</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="10" t="s">
         <v>477</v>
       </c>
       <c r="C239" s="4" t="s">
@@ -15202,7 +15203,7 @@
       <c r="A240" s="8">
         <v>5009.0</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="10" t="s">
         <v>479</v>
       </c>
       <c r="C240" s="4" t="s">
@@ -15213,7 +15214,7 @@
       <c r="A241" s="8">
         <v>48033.0</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B241" s="10" t="s">
         <v>481</v>
       </c>
       <c r="C241" s="4" t="s">
@@ -15224,7 +15225,7 @@
       <c r="A242" s="8">
         <v>48035.0</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="10" t="s">
         <v>483</v>
       </c>
       <c r="C242" s="4" t="s">
@@ -15235,7 +15236,7 @@
       <c r="A243" s="8">
         <v>22015.0</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B243" s="10" t="s">
         <v>485</v>
       </c>
       <c r="C243" s="4" t="s">
@@ -15246,7 +15247,7 @@
       <c r="A244" s="8">
         <v>51023.0</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B244" s="10" t="s">
         <v>487</v>
       </c>
       <c r="C244" s="4" t="s">
@@ -15257,7 +15258,7 @@
       <c r="A245" s="8">
         <v>38009.0</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="10" t="s">
         <v>489</v>
       </c>
       <c r="C245" s="4" t="s">
@@ -15268,7 +15269,7 @@
       <c r="A246" s="8">
         <v>8013.0</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="B246" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C246" s="4" t="s">
@@ -15279,7 +15280,7 @@
       <c r="A247" s="8">
         <v>16021.0</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="10" t="s">
         <v>492</v>
       </c>
       <c r="C247" s="4" t="s">
@@ -15290,7 +15291,7 @@
       <c r="A248" s="8">
         <v>20011.0</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="10" t="s">
         <v>494</v>
       </c>
       <c r="C248" s="4" t="s">
@@ -15301,7 +15302,7 @@
       <c r="A249" s="8">
         <v>21017.0</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="B249" s="10" t="s">
         <v>496</v>
       </c>
       <c r="C249" s="4" t="s">
@@ -15312,7 +15313,7 @@
       <c r="A250" s="8">
         <v>48037.0</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="10" t="s">
         <v>498</v>
       </c>
       <c r="C250" s="4" t="s">
@@ -15323,7 +15324,7 @@
       <c r="A251" s="8">
         <v>38011.0</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="B251" s="10" t="s">
         <v>500</v>
       </c>
       <c r="C251" s="4" t="s">
@@ -15334,7 +15335,7 @@
       <c r="A252" s="8">
         <v>31013.0</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="B252" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C252" s="4" t="s">
@@ -15345,7 +15346,7 @@
       <c r="A253" s="8">
         <v>49003.0</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B253" s="10" t="s">
         <v>504</v>
       </c>
       <c r="C253" s="4" t="s">
@@ -15356,7 +15357,7 @@
       <c r="A254" s="8">
         <v>31015.0</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="10" t="s">
         <v>506</v>
       </c>
       <c r="C254" s="4" t="s">
@@ -15367,7 +15368,7 @@
       <c r="A255" s="8">
         <v>21019.0</v>
       </c>
-      <c r="B255" s="9" t="s">
+      <c r="B255" s="10" t="s">
         <v>508</v>
       </c>
       <c r="C255" s="4" t="s">
@@ -15378,7 +15379,7 @@
       <c r="A256" s="8">
         <v>21021.0</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="10" t="s">
         <v>510</v>
       </c>
       <c r="C256" s="4" t="s">
@@ -15389,7 +15390,7 @@
       <c r="A257" s="8">
         <v>21023.0</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="B257" s="10" t="s">
         <v>512</v>
       </c>
       <c r="C257" s="4" t="s">
@@ -15400,7 +15401,7 @@
       <c r="A258" s="8">
         <v>42015.0</v>
       </c>
-      <c r="B258" s="9" t="s">
+      <c r="B258" s="10" t="s">
         <v>514</v>
       </c>
       <c r="C258" s="4" t="s">
@@ -15411,7 +15412,7 @@
       <c r="A259" s="8">
         <v>12007.0</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="B259" s="10" t="s">
         <v>308</v>
       </c>
       <c r="C259" s="4" t="s">
@@ -15422,7 +15423,7 @@
       <c r="A260" s="8">
         <v>5011.0</v>
       </c>
-      <c r="B260" s="9" t="s">
+      <c r="B260" s="10" t="s">
         <v>517</v>
       </c>
       <c r="C260" s="4" t="s">
@@ -15433,7 +15434,7 @@
       <c r="A261" s="8">
         <v>47011.0</v>
       </c>
-      <c r="B261" s="9" t="s">
+      <c r="B261" s="10" t="s">
         <v>519</v>
       </c>
       <c r="C261" s="4" t="s">
@@ -15444,7 +15445,7 @@
       <c r="A262" s="8">
         <v>26023.0</v>
       </c>
-      <c r="B262" s="9" t="s">
+      <c r="B262" s="10" t="s">
         <v>521</v>
       </c>
       <c r="C262" s="4" t="s">
@@ -15455,7 +15456,7 @@
       <c r="A263" s="8">
         <v>13025.0</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="B263" s="10" t="s">
         <v>523</v>
       </c>
       <c r="C263" s="4" t="s">
@@ -15466,7 +15467,7 @@
       <c r="A264" s="8">
         <v>54007.0</v>
       </c>
-      <c r="B264" s="9" t="s">
+      <c r="B264" s="10" t="s">
         <v>525</v>
       </c>
       <c r="C264" s="4" t="s">
@@ -15477,7 +15478,7 @@
       <c r="A265" s="8">
         <v>48039.0</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="B265" s="10" t="s">
         <v>527</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -15488,7 +15489,7 @@
       <c r="A266" s="8">
         <v>48041.0</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="B266" s="10" t="s">
         <v>529</v>
       </c>
       <c r="C266" s="4" t="s">
@@ -15499,7 +15500,7 @@
       <c r="A267" s="8">
         <v>21025.0</v>
       </c>
-      <c r="B267" s="9" t="s">
+      <c r="B267" s="10" t="s">
         <v>531</v>
       </c>
       <c r="C267" s="4" t="s">
@@ -15510,7 +15511,7 @@
       <c r="A268" s="8">
         <v>21027.0</v>
       </c>
-      <c r="B268" s="9" t="s">
+      <c r="B268" s="10" t="s">
         <v>533</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -15521,7 +15522,7 @@
       <c r="A269" s="8">
         <v>19017.0</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="B269" s="10" t="s">
         <v>535</v>
       </c>
       <c r="C269" s="4" t="s">
@@ -15532,7 +15533,7 @@
       <c r="A270" s="8">
         <v>12009.0</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B270" s="10" t="s">
         <v>525</v>
       </c>
       <c r="C270" s="4" t="s">
@@ -15543,7 +15544,7 @@
       <c r="A271" s="8">
         <v>48043.0</v>
       </c>
-      <c r="B271" s="9" t="s">
+      <c r="B271" s="10" t="s">
         <v>538</v>
       </c>
       <c r="C271" s="4" t="s">
@@ -15554,7 +15555,7 @@
       <c r="A272" s="8">
         <v>48045.0</v>
       </c>
-      <c r="B272" s="9" t="s">
+      <c r="B272" s="10" t="s">
         <v>540</v>
       </c>
       <c r="C272" s="4" t="s">
@@ -15565,7 +15566,7 @@
       <c r="A273" s="8">
         <v>25005.0</v>
       </c>
-      <c r="B273" s="9" t="s">
+      <c r="B273" s="10" t="s">
         <v>542</v>
       </c>
       <c r="C273" s="4" t="s">
@@ -15576,7 +15577,7 @@
       <c r="A274" s="8">
         <v>44001.0</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="B274" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C274" s="4" t="s">
@@ -15587,7 +15588,7 @@
       <c r="A275" s="8">
         <v>2060.0</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="B275" s="10" t="s">
         <v>545</v>
       </c>
       <c r="C275" s="4" t="s">
@@ -15598,7 +15599,7 @@
       <c r="A276" s="8">
         <v>51520.0</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="B276" s="10" t="s">
         <v>547</v>
       </c>
       <c r="C276" s="4" t="s">
@@ -15609,7 +15610,7 @@
       <c r="A277" s="8">
         <v>30007.0</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="B277" s="10" t="s">
         <v>549</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -15620,7 +15621,7 @@
       <c r="A278" s="8">
         <v>36005.0</v>
       </c>
-      <c r="B278" s="9" t="s">
+      <c r="B278" s="10" t="s">
         <v>551</v>
       </c>
       <c r="C278" s="4" t="s">
@@ -15631,7 +15632,7 @@
       <c r="A279" s="8">
         <v>54009.0</v>
       </c>
-      <c r="B279" s="9" t="s">
+      <c r="B279" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C279" s="4" t="s">
@@ -15642,7 +15643,7 @@
       <c r="A280" s="8">
         <v>46011.0</v>
       </c>
-      <c r="B280" s="9" t="s">
+      <c r="B280" s="10" t="s">
         <v>554</v>
       </c>
       <c r="C280" s="4" t="s">
@@ -15653,7 +15654,7 @@
       <c r="A281" s="8">
         <v>48047.0</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="B281" s="10" t="s">
         <v>556</v>
       </c>
       <c r="C281" s="4" t="s">
@@ -15664,7 +15665,7 @@
       <c r="A282" s="8">
         <v>13027.0</v>
       </c>
-      <c r="B282" s="9" t="s">
+      <c r="B282" s="10" t="s">
         <v>558</v>
       </c>
       <c r="C282" s="4" t="s">
@@ -15675,7 +15676,7 @@
       <c r="A283" s="8">
         <v>36007.0</v>
       </c>
-      <c r="B283" s="9" t="s">
+      <c r="B283" s="10" t="s">
         <v>560</v>
       </c>
       <c r="C283" s="4" t="s">
@@ -15686,7 +15687,7 @@
       <c r="A284" s="8">
         <v>8014.0</v>
       </c>
-      <c r="B284" s="9" t="s">
+      <c r="B284" s="10" t="s">
         <v>562</v>
       </c>
       <c r="C284" s="4" t="s">
@@ -15697,7 +15698,7 @@
       <c r="A285" s="8">
         <v>12011.0</v>
       </c>
-      <c r="B285" s="9" t="s">
+      <c r="B285" s="10" t="s">
         <v>436</v>
       </c>
       <c r="C285" s="4" t="s">
@@ -15708,7 +15709,7 @@
       <c r="A286" s="8">
         <v>46013.0</v>
       </c>
-      <c r="B286" s="9" t="s">
+      <c r="B286" s="10" t="s">
         <v>565</v>
       </c>
       <c r="C286" s="4" t="s">
@@ -15719,7 +15720,7 @@
       <c r="A287" s="8">
         <v>27015.0</v>
       </c>
-      <c r="B287" s="9" t="s">
+      <c r="B287" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C287" s="4" t="s">
@@ -15730,7 +15731,7 @@
       <c r="A288" s="8">
         <v>55009.0</v>
       </c>
-      <c r="B288" s="9" t="s">
+      <c r="B288" s="10" t="s">
         <v>568</v>
       </c>
       <c r="C288" s="4" t="s">
@@ -15741,7 +15742,7 @@
       <c r="A289" s="8">
         <v>20013.0</v>
       </c>
-      <c r="B289" s="9" t="s">
+      <c r="B289" s="10" t="s">
         <v>570</v>
       </c>
       <c r="C289" s="4" t="s">
@@ -15752,7 +15753,7 @@
       <c r="A290" s="8">
         <v>31017.0</v>
       </c>
-      <c r="B290" s="9" t="s">
+      <c r="B290" s="10" t="s">
         <v>572</v>
       </c>
       <c r="C290" s="4" t="s">
@@ -15763,7 +15764,7 @@
       <c r="A291" s="8">
         <v>48049.0</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="B291" s="10" t="s">
         <v>574</v>
       </c>
       <c r="C291" s="4" t="s">
@@ -15774,7 +15775,7 @@
       <c r="A292" s="8">
         <v>17009.0</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="B292" s="10" t="s">
         <v>576</v>
       </c>
       <c r="C292" s="4" t="s">
@@ -15785,7 +15786,7 @@
       <c r="A293" s="8">
         <v>39015.0</v>
       </c>
-      <c r="B293" s="9" t="s">
+      <c r="B293" s="10" t="s">
         <v>578</v>
       </c>
       <c r="C293" s="4" t="s">
@@ -15796,7 +15797,7 @@
       <c r="A294" s="8">
         <v>18013.0</v>
       </c>
-      <c r="B294" s="9" t="s">
+      <c r="B294" s="10" t="s">
         <v>580</v>
       </c>
       <c r="C294" s="4" t="s">
@@ -15807,7 +15808,7 @@
       <c r="A295" s="8">
         <v>46015.0</v>
       </c>
-      <c r="B295" s="9" t="s">
+      <c r="B295" s="10" t="s">
         <v>582</v>
       </c>
       <c r="C295" s="4" t="s">
@@ -15818,7 +15819,7 @@
       <c r="A296" s="8">
         <v>51025.0</v>
       </c>
-      <c r="B296" s="9" t="s">
+      <c r="B296" s="10" t="s">
         <v>584</v>
       </c>
       <c r="C296" s="4" t="s">
@@ -15829,7 +15830,7 @@
       <c r="A297" s="8">
         <v>37019.0</v>
       </c>
-      <c r="B297" s="9" t="s">
+      <c r="B297" s="10" t="s">
         <v>586</v>
       </c>
       <c r="C297" s="4" t="s">
@@ -15840,7 +15841,7 @@
       <c r="A298" s="8">
         <v>40013.0</v>
       </c>
-      <c r="B298" s="9" t="s">
+      <c r="B298" s="10" t="s">
         <v>588</v>
       </c>
       <c r="C298" s="4" t="s">
@@ -15851,7 +15852,7 @@
       <c r="A299" s="8">
         <v>13029.0</v>
       </c>
-      <c r="B299" s="9" t="s">
+      <c r="B299" s="10" t="s">
         <v>590</v>
       </c>
       <c r="C299" s="4" t="s">
@@ -15862,7 +15863,7 @@
       <c r="A300" s="8">
         <v>19019.0</v>
       </c>
-      <c r="B300" s="9" t="s">
+      <c r="B300" s="10" t="s">
         <v>592</v>
       </c>
       <c r="C300" s="4" t="s">
@@ -15873,7 +15874,7 @@
       <c r="A301" s="8">
         <v>29021.0</v>
       </c>
-      <c r="B301" s="9" t="s">
+      <c r="B301" s="10" t="s">
         <v>547</v>
       </c>
       <c r="C301" s="4" t="s">
@@ -15884,7 +15885,7 @@
       <c r="A302" s="8">
         <v>51027.0</v>
       </c>
-      <c r="B302" s="9" t="s">
+      <c r="B302" s="10" t="s">
         <v>595</v>
       </c>
       <c r="C302" s="4" t="s">
@@ -15895,7 +15896,7 @@
       <c r="A303" s="8">
         <v>51029.0</v>
       </c>
-      <c r="B303" s="9" t="s">
+      <c r="B303" s="10" t="s">
         <v>597</v>
       </c>
       <c r="C303" s="4" t="s">
@@ -15906,7 +15907,7 @@
       <c r="A304" s="8">
         <v>42017.0</v>
       </c>
-      <c r="B304" s="9" t="s">
+      <c r="B304" s="10" t="s">
         <v>599</v>
       </c>
       <c r="C304" s="4" t="s">
@@ -15917,7 +15918,7 @@
       <c r="A305" s="8">
         <v>19021.0</v>
       </c>
-      <c r="B305" s="9" t="s">
+      <c r="B305" s="10" t="s">
         <v>601</v>
       </c>
       <c r="C305" s="4" t="s">
@@ -15928,7 +15929,7 @@
       <c r="A306" s="8">
         <v>51530.0</v>
       </c>
-      <c r="B306" s="9" t="s">
+      <c r="B306" s="10" t="s">
         <v>603</v>
       </c>
       <c r="C306" s="4" t="s">
@@ -15939,7 +15940,7 @@
       <c r="A307" s="8">
         <v>46017.0</v>
       </c>
-      <c r="B307" s="9" t="s">
+      <c r="B307" s="10" t="s">
         <v>605</v>
       </c>
       <c r="C307" s="4" t="s">
@@ -15950,7 +15951,7 @@
       <c r="A308" s="8">
         <v>31019.0</v>
       </c>
-      <c r="B308" s="9" t="s">
+      <c r="B308" s="10" t="s">
         <v>607</v>
       </c>
       <c r="C308" s="4" t="s">
@@ -15961,7 +15962,7 @@
       <c r="A309" s="8">
         <v>55011.0</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="B309" s="10" t="s">
         <v>609</v>
       </c>
       <c r="C309" s="4" t="s">
@@ -15972,7 +15973,7 @@
       <c r="A310" s="8">
         <v>21029.0</v>
       </c>
-      <c r="B310" s="9" t="s">
+      <c r="B310" s="10" t="s">
         <v>611</v>
       </c>
       <c r="C310" s="4" t="s">
@@ -15983,7 +15984,7 @@
       <c r="A311" s="8">
         <v>13031.0</v>
       </c>
-      <c r="B311" s="9" t="s">
+      <c r="B311" s="10" t="s">
         <v>613</v>
       </c>
       <c r="C311" s="4" t="s">
@@ -15994,7 +15995,7 @@
       <c r="A312" s="8">
         <v>1011.0</v>
       </c>
-      <c r="B312" s="9" t="s">
+      <c r="B312" s="10" t="s">
         <v>615</v>
       </c>
       <c r="C312" s="4" t="s">
@@ -16005,7 +16006,7 @@
       <c r="A313" s="8">
         <v>37021.0</v>
       </c>
-      <c r="B313" s="9" t="s">
+      <c r="B313" s="10" t="s">
         <v>617</v>
       </c>
       <c r="C313" s="4" t="s">
@@ -16016,7 +16017,7 @@
       <c r="A314" s="8">
         <v>17011.0</v>
       </c>
-      <c r="B314" s="9" t="s">
+      <c r="B314" s="10" t="s">
         <v>472</v>
       </c>
       <c r="C314" s="4" t="s">
@@ -16027,7 +16028,7 @@
       <c r="A315" s="8">
         <v>38013.0</v>
       </c>
-      <c r="B315" s="9" t="s">
+      <c r="B315" s="10" t="s">
         <v>620</v>
       </c>
       <c r="C315" s="4" t="s">
@@ -16038,7 +16039,7 @@
       <c r="A316" s="8">
         <v>13033.0</v>
       </c>
-      <c r="B316" s="9" t="s">
+      <c r="B316" s="10" t="s">
         <v>622</v>
       </c>
       <c r="C316" s="4" t="s">
@@ -16049,7 +16050,7 @@
       <c r="A317" s="8">
         <v>37023.0</v>
       </c>
-      <c r="B317" s="9" t="s">
+      <c r="B317" s="10" t="s">
         <v>624</v>
       </c>
       <c r="C317" s="4" t="s">
@@ -16060,7 +16061,7 @@
       <c r="A318" s="8">
         <v>38015.0</v>
       </c>
-      <c r="B318" s="9" t="s">
+      <c r="B318" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C318" s="4" t="s">
@@ -16071,7 +16072,7 @@
       <c r="A319" s="8">
         <v>48051.0</v>
       </c>
-      <c r="B319" s="9" t="s">
+      <c r="B319" s="10" t="s">
         <v>627</v>
       </c>
       <c r="C319" s="4" t="s">
@@ -16082,7 +16083,7 @@
       <c r="A320" s="8">
         <v>34005.0</v>
       </c>
-      <c r="B320" s="9" t="s">
+      <c r="B320" s="10" t="s">
         <v>629</v>
       </c>
       <c r="C320" s="4" t="s">
@@ -16093,7 +16094,7 @@
       <c r="A321" s="8">
         <v>48053.0</v>
       </c>
-      <c r="B321" s="9" t="s">
+      <c r="B321" s="10" t="s">
         <v>631</v>
       </c>
       <c r="C321" s="4" t="s">
@@ -16104,7 +16105,7 @@
       <c r="A322" s="8">
         <v>55013.0</v>
       </c>
-      <c r="B322" s="9" t="s">
+      <c r="B322" s="10" t="s">
         <v>633</v>
       </c>
       <c r="C322" s="4" t="s">
@@ -16115,7 +16116,7 @@
       <c r="A323" s="8">
         <v>31021.0</v>
       </c>
-      <c r="B323" s="9" t="s">
+      <c r="B323" s="10" t="s">
         <v>635</v>
       </c>
       <c r="C323" s="4" t="s">
@@ -16126,7 +16127,7 @@
       <c r="A324" s="8">
         <v>31023.0</v>
       </c>
-      <c r="B324" s="9" t="s">
+      <c r="B324" s="10" t="s">
         <v>637</v>
       </c>
       <c r="C324" s="4" t="s">
@@ -16137,7 +16138,7 @@
       <c r="A325" s="8">
         <v>42019.0</v>
       </c>
-      <c r="B325" s="9" t="s">
+      <c r="B325" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C325" s="4" t="s">
@@ -16148,7 +16149,7 @@
       <c r="A326" s="8">
         <v>19023.0</v>
       </c>
-      <c r="B326" s="9" t="s">
+      <c r="B326" s="10" t="s">
         <v>640</v>
       </c>
       <c r="C326" s="4" t="s">
@@ -16159,7 +16160,7 @@
       <c r="A327" s="8">
         <v>39017.0</v>
       </c>
-      <c r="B327" s="9" t="s">
+      <c r="B327" s="10" t="s">
         <v>642</v>
       </c>
       <c r="C327" s="4" t="s">
@@ -16170,7 +16171,7 @@
       <c r="A328" s="8">
         <v>1013.0</v>
       </c>
-      <c r="B328" s="9" t="s">
+      <c r="B328" s="10" t="s">
         <v>644</v>
       </c>
       <c r="C328" s="4" t="s">
@@ -16181,7 +16182,7 @@
       <c r="A329" s="8">
         <v>20015.0</v>
       </c>
-      <c r="B329" s="9" t="s">
+      <c r="B329" s="10" t="s">
         <v>646</v>
       </c>
       <c r="C329" s="4" t="s">
@@ -16192,7 +16193,7 @@
       <c r="A330" s="8">
         <v>29023.0</v>
       </c>
-      <c r="B330" s="9" t="s">
+      <c r="B330" s="10" t="s">
         <v>648</v>
       </c>
       <c r="C330" s="4" t="s">
@@ -16203,7 +16204,7 @@
       <c r="A331" s="8">
         <v>21031.0</v>
       </c>
-      <c r="B331" s="9" t="s">
+      <c r="B331" s="10" t="s">
         <v>650</v>
       </c>
       <c r="C331" s="4" t="s">
@@ -16214,7 +16215,7 @@
       <c r="A332" s="8">
         <v>46019.0</v>
       </c>
-      <c r="B332" s="9" t="s">
+      <c r="B332" s="10" t="s">
         <v>652</v>
       </c>
       <c r="C332" s="4" t="s">
@@ -16225,7 +16226,7 @@
       <c r="A333" s="8">
         <v>6007.0</v>
       </c>
-      <c r="B333" s="9" t="s">
+      <c r="B333" s="10" t="s">
         <v>654</v>
       </c>
       <c r="C333" s="4" t="s">
@@ -16236,7 +16237,7 @@
       <c r="A334" s="8">
         <v>16023.0</v>
       </c>
-      <c r="B334" s="9" t="s">
+      <c r="B334" s="10" t="s">
         <v>236</v>
       </c>
       <c r="C334" s="4" t="s">
@@ -16247,7 +16248,7 @@
       <c r="A335" s="8">
         <v>13035.0</v>
       </c>
-      <c r="B335" s="9" t="s">
+      <c r="B335" s="10" t="s">
         <v>657</v>
       </c>
       <c r="C335" s="4" t="s">
@@ -16258,7 +16259,7 @@
       <c r="A336" s="8">
         <v>37025.0</v>
       </c>
-      <c r="B336" s="9" t="s">
+      <c r="B336" s="10" t="s">
         <v>659</v>
       </c>
       <c r="C336" s="4" t="s">
@@ -16269,7 +16270,7 @@
       <c r="A337" s="8">
         <v>54011.0</v>
       </c>
-      <c r="B337" s="9" t="s">
+      <c r="B337" s="10" t="s">
         <v>661</v>
       </c>
       <c r="C337" s="4" t="s">
@@ -16280,7 +16281,7 @@
       <c r="A338" s="8">
         <v>49005.0</v>
       </c>
-      <c r="B338" s="9" t="s">
+      <c r="B338" s="10" t="s">
         <v>663</v>
       </c>
       <c r="C338" s="4" t="s">
@@ -16291,7 +16292,7 @@
       <c r="A339" s="8">
         <v>22017.0</v>
       </c>
-      <c r="B339" s="9" t="s">
+      <c r="B339" s="10" t="s">
         <v>665</v>
       </c>
       <c r="C339" s="4" t="s">
@@ -16302,7 +16303,7 @@
       <c r="A340" s="8">
         <v>40015.0</v>
       </c>
-      <c r="B340" s="9" t="s">
+      <c r="B340" s="10" t="s">
         <v>667</v>
       </c>
       <c r="C340" s="4" t="s">
@@ -16313,7 +16314,7 @@
       <c r="A341" s="8">
         <v>6009.0</v>
       </c>
-      <c r="B341" s="9" t="s">
+      <c r="B341" s="10" t="s">
         <v>669</v>
       </c>
       <c r="C341" s="4" t="s">
@@ -16324,7 +16325,7 @@
       <c r="A342" s="8">
         <v>22019.0</v>
       </c>
-      <c r="B342" s="9" t="s">
+      <c r="B342" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C342" s="4" t="s">
@@ -16335,7 +16336,7 @@
       <c r="A343" s="8">
         <v>48055.0</v>
       </c>
-      <c r="B343" s="9" t="s">
+      <c r="B343" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C343" s="4" t="s">
@@ -16346,7 +16347,7 @@
       <c r="A344" s="8">
         <v>29025.0</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B344" s="10" t="s">
         <v>673</v>
       </c>
       <c r="C344" s="4" t="s">
@@ -16357,7 +16358,7 @@
       <c r="A345" s="8">
         <v>37027.0</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="B345" s="10" t="s">
         <v>675</v>
       </c>
       <c r="C345" s="4" t="s">
@@ -16368,7 +16369,7 @@
       <c r="A346" s="8">
         <v>21033.0</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B346" s="10" t="s">
         <v>677</v>
       </c>
       <c r="C346" s="4" t="s">
@@ -16379,7 +16380,7 @@
       <c r="A347" s="8">
         <v>22021.0</v>
       </c>
-      <c r="B347" s="9" t="s">
+      <c r="B347" s="10" t="s">
         <v>679</v>
       </c>
       <c r="C347" s="4" t="s">
@@ -16390,7 +16391,7 @@
       <c r="A348" s="8">
         <v>50005.0</v>
       </c>
-      <c r="B348" s="9" t="s">
+      <c r="B348" s="10" t="s">
         <v>460</v>
       </c>
       <c r="C348" s="4" t="s">
@@ -16401,7 +16402,7 @@
       <c r="A349" s="8">
         <v>48057.0</v>
       </c>
-      <c r="B349" s="9" t="s">
+      <c r="B349" s="10" t="s">
         <v>682</v>
       </c>
       <c r="C349" s="4" t="s">
@@ -16412,7 +16413,7 @@
       <c r="A350" s="8">
         <v>19025.0</v>
       </c>
-      <c r="B350" s="9" t="s">
+      <c r="B350" s="10" t="s">
         <v>684</v>
       </c>
       <c r="C350" s="4" t="s">
@@ -16423,7 +16424,7 @@
       <c r="A351" s="8">
         <v>17013.0</v>
       </c>
-      <c r="B351" s="9" t="s">
+      <c r="B351" s="10" t="s">
         <v>686</v>
       </c>
       <c r="C351" s="4" t="s">
@@ -16434,7 +16435,7 @@
       <c r="A352" s="8">
         <v>26025.0</v>
       </c>
-      <c r="B352" s="9" t="s">
+      <c r="B352" s="10" t="s">
         <v>688</v>
       </c>
       <c r="C352" s="4" t="s">
@@ -16445,7 +16446,7 @@
       <c r="A353" s="8">
         <v>5013.0</v>
       </c>
-      <c r="B353" s="9" t="s">
+      <c r="B353" s="10" t="s">
         <v>690</v>
       </c>
       <c r="C353" s="4" t="s">
@@ -16456,7 +16457,7 @@
       <c r="A354" s="8">
         <v>45017.0</v>
       </c>
-      <c r="B354" s="9" t="s">
+      <c r="B354" s="10" t="s">
         <v>692</v>
       </c>
       <c r="C354" s="4" t="s">
@@ -16467,7 +16468,7 @@
       <c r="A355" s="8">
         <v>54013.0</v>
       </c>
-      <c r="B355" s="9" t="s">
+      <c r="B355" s="10" t="s">
         <v>694</v>
       </c>
       <c r="C355" s="4" t="s">
@@ -16478,7 +16479,7 @@
       <c r="A356" s="8">
         <v>28013.0</v>
       </c>
-      <c r="B356" s="9" t="s">
+      <c r="B356" s="10" t="s">
         <v>696</v>
       </c>
       <c r="C356" s="4" t="s">
@@ -16489,7 +16490,7 @@
       <c r="A357" s="8">
         <v>13037.0</v>
       </c>
-      <c r="B357" s="9" t="s">
+      <c r="B357" s="10" t="s">
         <v>698</v>
       </c>
       <c r="C357" s="4" t="s">
@@ -16500,7 +16501,7 @@
       <c r="A358" s="8">
         <v>12013.0</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B358" s="10" t="s">
         <v>700</v>
       </c>
       <c r="C358" s="4" t="s">
@@ -16511,7 +16512,7 @@
       <c r="A359" s="8">
         <v>1015.0</v>
       </c>
-      <c r="B359" s="9" t="s">
+      <c r="B359" s="10" t="s">
         <v>702</v>
       </c>
       <c r="C359" s="4" t="s">
@@ -16522,7 +16523,7 @@
       <c r="A360" s="8">
         <v>48059.0</v>
       </c>
-      <c r="B360" s="9" t="s">
+      <c r="B360" s="10" t="s">
         <v>704</v>
       </c>
       <c r="C360" s="4" t="s">
@@ -16533,7 +16534,7 @@
       <c r="A361" s="8">
         <v>29027.0</v>
       </c>
-      <c r="B361" s="9" t="s">
+      <c r="B361" s="10" t="s">
         <v>706</v>
       </c>
       <c r="C361" s="4" t="s">
@@ -16544,7 +16545,7 @@
       <c r="A362" s="8">
         <v>21035.0</v>
       </c>
-      <c r="B362" s="9" t="s">
+      <c r="B362" s="10" t="s">
         <v>708</v>
       </c>
       <c r="C362" s="4" t="s">
@@ -16555,7 +16556,7 @@
       <c r="A363" s="8">
         <v>55015.0</v>
       </c>
-      <c r="B363" s="9" t="s">
+      <c r="B363" s="10" t="s">
         <v>710</v>
       </c>
       <c r="C363" s="4" t="s">
@@ -16566,7 +16567,7 @@
       <c r="A364" s="8">
         <v>24009.0</v>
       </c>
-      <c r="B364" s="9" t="s">
+      <c r="B364" s="10" t="s">
         <v>712</v>
       </c>
       <c r="C364" s="4" t="s">
@@ -16577,7 +16578,7 @@
       <c r="A365" s="8">
         <v>16025.0</v>
       </c>
-      <c r="B365" s="9" t="s">
+      <c r="B365" s="10" t="s">
         <v>714</v>
       </c>
       <c r="C365" s="4" t="s">
@@ -16588,7 +16589,7 @@
       <c r="A366" s="8">
         <v>42021.0</v>
       </c>
-      <c r="B366" s="9" t="s">
+      <c r="B366" s="10" t="s">
         <v>716</v>
       </c>
       <c r="C366" s="4" t="s">
@@ -16599,7 +16600,7 @@
       <c r="A367" s="8">
         <v>34007.0</v>
       </c>
-      <c r="B367" s="9" t="s">
+      <c r="B367" s="10" t="s">
         <v>549</v>
       </c>
       <c r="C367" s="4" t="s">
@@ -16610,7 +16611,7 @@
       <c r="A368" s="8">
         <v>29029.0</v>
       </c>
-      <c r="B368" s="9" t="s">
+      <c r="B368" s="10" t="s">
         <v>719</v>
       </c>
       <c r="C368" s="4" t="s">
@@ -16621,7 +16622,7 @@
       <c r="A369" s="8">
         <v>13039.0</v>
       </c>
-      <c r="B369" s="9" t="s">
+      <c r="B369" s="10" t="s">
         <v>721</v>
       </c>
       <c r="C369" s="4" t="s">
@@ -16632,7 +16633,7 @@
       <c r="A370" s="8">
         <v>37029.0</v>
       </c>
-      <c r="B370" s="9" t="s">
+      <c r="B370" s="10" t="s">
         <v>723</v>
       </c>
       <c r="C370" s="4" t="s">
@@ -16643,7 +16644,7 @@
       <c r="A371" s="8">
         <v>48061.0</v>
       </c>
-      <c r="B371" s="9" t="s">
+      <c r="B371" s="10" t="s">
         <v>725</v>
       </c>
       <c r="C371" s="4" t="s">
@@ -16654,7 +16655,7 @@
       <c r="A372" s="8">
         <v>42023.0</v>
       </c>
-      <c r="B372" s="9" t="s">
+      <c r="B372" s="10" t="s">
         <v>727</v>
       </c>
       <c r="C372" s="4" t="s">
@@ -16665,7 +16666,7 @@
       <c r="A373" s="8">
         <v>22023.0</v>
       </c>
-      <c r="B373" s="9" t="s">
+      <c r="B373" s="10" t="s">
         <v>729</v>
       </c>
       <c r="C373" s="4" t="s">
@@ -16676,7 +16677,7 @@
       <c r="A374" s="8">
         <v>48063.0</v>
       </c>
-      <c r="B374" s="9" t="s">
+      <c r="B374" s="10" t="s">
         <v>731</v>
       </c>
       <c r="C374" s="4" t="s">
@@ -16687,7 +16688,7 @@
       <c r="A375" s="8">
         <v>46021.0</v>
       </c>
-      <c r="B375" s="9" t="s">
+      <c r="B375" s="10" t="s">
         <v>733</v>
       </c>
       <c r="C375" s="4" t="s">
@@ -16698,7 +16699,7 @@
       <c r="A376" s="8">
         <v>56005.0</v>
       </c>
-      <c r="B376" s="9" t="s">
+      <c r="B376" s="10" t="s">
         <v>735</v>
       </c>
       <c r="C376" s="4" t="s">
@@ -16709,7 +16710,7 @@
       <c r="A377" s="8">
         <v>21037.0</v>
       </c>
-      <c r="B377" s="9" t="s">
+      <c r="B377" s="10" t="s">
         <v>737</v>
       </c>
       <c r="C377" s="4" t="s">
@@ -16720,7 +16721,7 @@
       <c r="A378" s="8">
         <v>51031.0</v>
       </c>
-      <c r="B378" s="9" t="s">
+      <c r="B378" s="10" t="s">
         <v>739</v>
       </c>
       <c r="C378" s="4" t="s">
@@ -16731,7 +16732,7 @@
       <c r="A379" s="8">
         <v>47013.0</v>
       </c>
-      <c r="B379" s="9" t="s">
+      <c r="B379" s="10" t="s">
         <v>741</v>
       </c>
       <c r="C379" s="4" t="s">
@@ -16742,7 +16743,7 @@
       <c r="A380" s="8">
         <v>40017.0</v>
       </c>
-      <c r="B380" s="9" t="s">
+      <c r="B380" s="10" t="s">
         <v>743</v>
       </c>
       <c r="C380" s="4" t="s">
@@ -16753,7 +16754,7 @@
       <c r="A381" s="8">
         <v>13043.0</v>
       </c>
-      <c r="B381" s="9" t="s">
+      <c r="B381" s="10" t="s">
         <v>745</v>
       </c>
       <c r="C381" s="4" t="s">
@@ -16764,7 +16765,7 @@
       <c r="A382" s="8">
         <v>47015.0</v>
       </c>
-      <c r="B382" s="9" t="s">
+      <c r="B382" s="10" t="s">
         <v>747</v>
       </c>
       <c r="C382" s="4" t="s">
@@ -16775,7 +16776,7 @@
       <c r="A383" s="8">
         <v>16027.0</v>
       </c>
-      <c r="B383" s="9" t="s">
+      <c r="B383" s="10" t="s">
         <v>749</v>
       </c>
       <c r="C383" s="4" t="s">
@@ -16786,7 +16787,7 @@
       <c r="A384" s="8">
         <v>29031.0</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B384" s="10" t="s">
         <v>751</v>
       </c>
       <c r="C384" s="4" t="s">
@@ -16797,7 +16798,7 @@
       <c r="A385" s="8">
         <v>34009.0</v>
       </c>
-      <c r="B385" s="9" t="s">
+      <c r="B385" s="10" t="s">
         <v>753</v>
       </c>
       <c r="C385" s="4" t="s">
@@ -16808,7 +16809,7 @@
       <c r="A386" s="8">
         <v>49007.0</v>
       </c>
-      <c r="B386" s="9" t="s">
+      <c r="B386" s="10" t="s">
         <v>755</v>
       </c>
       <c r="C386" s="4" t="s">
@@ -16819,7 +16820,7 @@
       <c r="A387" s="8">
         <v>42025.0</v>
       </c>
-      <c r="B387" s="9" t="s">
+      <c r="B387" s="10" t="s">
         <v>757</v>
       </c>
       <c r="C387" s="4" t="s">
@@ -16830,7 +16831,7 @@
       <c r="A388" s="8">
         <v>56007.0</v>
       </c>
-      <c r="B388" s="9" t="s">
+      <c r="B388" s="10" t="s">
         <v>224</v>
       </c>
       <c r="C388" s="4" t="s">
@@ -16841,7 +16842,7 @@
       <c r="A389" s="8">
         <v>30009.0</v>
       </c>
-      <c r="B389" s="9" t="s">
+      <c r="B389" s="10" t="s">
         <v>760</v>
       </c>
       <c r="C389" s="4" t="s">
@@ -16852,7 +16853,7 @@
       <c r="A390" s="8">
         <v>16029.0</v>
       </c>
-      <c r="B390" s="9" t="s">
+      <c r="B390" s="10" t="s">
         <v>353</v>
       </c>
       <c r="C390" s="4" t="s">
@@ -16863,7 +16864,7 @@
       <c r="A391" s="8">
         <v>21039.0</v>
       </c>
-      <c r="B391" s="9" t="s">
+      <c r="B391" s="10" t="s">
         <v>763</v>
       </c>
       <c r="C391" s="4" t="s">
@@ -16874,7 +16875,7 @@
       <c r="A392" s="8">
         <v>27017.0</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B392" s="10" t="s">
         <v>765</v>
       </c>
       <c r="C392" s="4" t="s">
@@ -16885,7 +16886,7 @@
       <c r="A393" s="8">
         <v>24011.0</v>
       </c>
-      <c r="B393" s="9" t="s">
+      <c r="B393" s="10" t="s">
         <v>767</v>
       </c>
       <c r="C393" s="4" t="s">
@@ -16896,7 +16897,7 @@
       <c r="A394" s="8">
         <v>51033.0</v>
       </c>
-      <c r="B394" s="9" t="s">
+      <c r="B394" s="10" t="s">
         <v>751</v>
       </c>
       <c r="C394" s="4" t="s">
@@ -16907,7 +16908,7 @@
       <c r="A395" s="8">
         <v>33003.0</v>
       </c>
-      <c r="B395" s="9" t="s">
+      <c r="B395" s="10" t="s">
         <v>770</v>
       </c>
       <c r="C395" s="4" t="s">
@@ -16918,7 +16919,7 @@
       <c r="A396" s="8">
         <v>19027.0</v>
       </c>
-      <c r="B396" s="9" t="s">
+      <c r="B396" s="10" t="s">
         <v>434</v>
       </c>
       <c r="C396" s="4" t="s">
@@ -16929,7 +16930,7 @@
       <c r="A397" s="8">
         <v>5015.0</v>
       </c>
-      <c r="B397" s="9" t="s">
+      <c r="B397" s="10" t="s">
         <v>773</v>
       </c>
       <c r="C397" s="4" t="s">
@@ -16940,7 +16941,7 @@
       <c r="A398" s="8">
         <v>24013.0</v>
       </c>
-      <c r="B398" s="9" t="s">
+      <c r="B398" s="10" t="s">
         <v>775</v>
       </c>
       <c r="C398" s="4" t="s">
@@ -16951,7 +16952,7 @@
       <c r="A399" s="8">
         <v>29033.0</v>
       </c>
-      <c r="B399" s="9" t="s">
+      <c r="B399" s="10" t="s">
         <v>777</v>
       </c>
       <c r="C399" s="4" t="s">
@@ -16962,7 +16963,7 @@
       <c r="A400" s="8">
         <v>17015.0</v>
       </c>
-      <c r="B400" s="9" t="s">
+      <c r="B400" s="10" t="s">
         <v>779</v>
       </c>
       <c r="C400" s="4" t="s">
@@ -16973,7 +16974,7 @@
       <c r="A401" s="8">
         <v>18015.0</v>
       </c>
-      <c r="B401" s="9" t="s">
+      <c r="B401" s="10" t="s">
         <v>781</v>
       </c>
       <c r="C401" s="4" t="s">
@@ -16984,7 +16985,7 @@
       <c r="A402" s="8">
         <v>39019.0</v>
       </c>
-      <c r="B402" s="9" t="s">
+      <c r="B402" s="10" t="s">
         <v>783</v>
       </c>
       <c r="C402" s="4" t="s">
@@ -16995,7 +16996,7 @@
       <c r="A403" s="8">
         <v>51035.0</v>
       </c>
-      <c r="B403" s="9" t="s">
+      <c r="B403" s="10" t="s">
         <v>785</v>
       </c>
       <c r="C403" s="4" t="s">
@@ -17006,7 +17007,7 @@
       <c r="A404" s="8">
         <v>47017.0</v>
       </c>
-      <c r="B404" s="9" t="s">
+      <c r="B404" s="10" t="s">
         <v>787</v>
       </c>
       <c r="C404" s="4" t="s">
@@ -17017,7 +17018,7 @@
       <c r="A405" s="8">
         <v>28015.0</v>
       </c>
-      <c r="B405" s="9" t="s">
+      <c r="B405" s="10" t="s">
         <v>789</v>
       </c>
       <c r="C405" s="4" t="s">
@@ -17028,7 +17029,7 @@
       <c r="A406" s="8">
         <v>13045.0</v>
       </c>
-      <c r="B406" s="9" t="s">
+      <c r="B406" s="10" t="s">
         <v>791</v>
       </c>
       <c r="C406" s="4" t="s">
@@ -17039,7 +17040,7 @@
       <c r="A407" s="8">
         <v>21041.0</v>
       </c>
-      <c r="B407" s="9" t="s">
+      <c r="B407" s="10" t="s">
         <v>793</v>
       </c>
       <c r="C407" s="4" t="s">
@@ -17050,7 +17051,7 @@
       <c r="A408" s="8">
         <v>48065.0</v>
       </c>
-      <c r="B408" s="9" t="s">
+      <c r="B408" s="10" t="s">
         <v>795</v>
       </c>
       <c r="C408" s="4" t="s">
@@ -17061,7 +17062,7 @@
       <c r="A409" s="8">
         <v>32510.0</v>
       </c>
-      <c r="B409" s="9" t="s">
+      <c r="B409" s="10" t="s">
         <v>797</v>
       </c>
       <c r="C409" s="4" t="s">
@@ -17072,7 +17073,7 @@
       <c r="A410" s="8">
         <v>30011.0</v>
       </c>
-      <c r="B410" s="9" t="s">
+      <c r="B410" s="10" t="s">
         <v>799</v>
       </c>
       <c r="C410" s="4" t="s">
@@ -17083,7 +17084,7 @@
       <c r="A411" s="8">
         <v>21043.0</v>
       </c>
-      <c r="B411" s="9" t="s">
+      <c r="B411" s="10" t="s">
         <v>801</v>
       </c>
       <c r="C411" s="4" t="s">
@@ -17094,7 +17095,7 @@
       <c r="A412" s="8">
         <v>47019.0</v>
       </c>
-      <c r="B412" s="9" t="s">
+      <c r="B412" s="10" t="s">
         <v>803</v>
       </c>
       <c r="C412" s="4" t="s">
@@ -17105,7 +17106,7 @@
       <c r="A413" s="8">
         <v>29035.0</v>
       </c>
-      <c r="B413" s="9" t="s">
+      <c r="B413" s="10" t="s">
         <v>805</v>
       </c>
       <c r="C413" s="4" t="s">
@@ -17116,7 +17117,7 @@
       <c r="A414" s="8">
         <v>40019.0</v>
       </c>
-      <c r="B414" s="9" t="s">
+      <c r="B414" s="10" t="s">
         <v>807</v>
       </c>
       <c r="C414" s="4" t="s">
@@ -17127,7 +17128,7 @@
       <c r="A415" s="8">
         <v>37031.0</v>
       </c>
-      <c r="B415" s="9" t="s">
+      <c r="B415" s="10" t="s">
         <v>809</v>
       </c>
       <c r="C415" s="4" t="s">
@@ -17138,7 +17139,7 @@
       <c r="A416" s="8">
         <v>27019.0</v>
       </c>
-      <c r="B416" s="9" t="s">
+      <c r="B416" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C416" s="4" t="s">
@@ -17149,7 +17150,7 @@
       <c r="A417" s="8">
         <v>30013.0</v>
       </c>
-      <c r="B417" s="9" t="s">
+      <c r="B417" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C417" s="4" t="s">
@@ -17160,7 +17161,7 @@
       <c r="A418" s="8">
         <v>21045.0</v>
       </c>
-      <c r="B418" s="9" t="s">
+      <c r="B418" s="10" t="s">
         <v>814</v>
       </c>
       <c r="C418" s="4" t="s">
@@ -17171,7 +17172,7 @@
       <c r="A419" s="8">
         <v>38017.0</v>
       </c>
-      <c r="B419" s="9" t="s">
+      <c r="B419" s="10" t="s">
         <v>816</v>
       </c>
       <c r="C419" s="4" t="s">
@@ -17182,7 +17183,7 @@
       <c r="A420" s="8">
         <v>27021.0</v>
       </c>
-      <c r="B420" s="9" t="s">
+      <c r="B420" s="10" t="s">
         <v>818</v>
       </c>
       <c r="C420" s="4" t="s">
@@ -17193,7 +17194,7 @@
       <c r="A421" s="8">
         <v>31025.0</v>
       </c>
-      <c r="B421" s="9" t="s">
+      <c r="B421" s="10" t="s">
         <v>820</v>
       </c>
       <c r="C421" s="4" t="s">
@@ -17204,7 +17205,7 @@
       <c r="A422" s="8">
         <v>19029.0</v>
       </c>
-      <c r="B422" s="9" t="s">
+      <c r="B422" s="10" t="s">
         <v>822</v>
       </c>
       <c r="C422" s="4" t="s">
@@ -17215,7 +17216,7 @@
       <c r="A423" s="8">
         <v>26027.0</v>
       </c>
-      <c r="B423" s="9" t="s">
+      <c r="B423" s="10" t="s">
         <v>824</v>
       </c>
       <c r="C423" s="4" t="s">
@@ -17226,7 +17227,7 @@
       <c r="A424" s="8">
         <v>29037.0</v>
       </c>
-      <c r="B424" s="9" t="s">
+      <c r="B424" s="10" t="s">
         <v>826</v>
       </c>
       <c r="C424" s="4" t="s">
@@ -17237,7 +17238,7 @@
       <c r="A425" s="8">
         <v>17017.0</v>
       </c>
-      <c r="B425" s="9" t="s">
+      <c r="B425" s="10" t="s">
         <v>828</v>
       </c>
       <c r="C425" s="4" t="s">
@@ -17248,7 +17249,7 @@
       <c r="A426" s="8">
         <v>18017.0</v>
       </c>
-      <c r="B426" s="9" t="s">
+      <c r="B426" s="10" t="s">
         <v>830</v>
       </c>
       <c r="C426" s="4" t="s">
@@ -17259,7 +17260,7 @@
       <c r="A427" s="8">
         <v>48067.0</v>
       </c>
-      <c r="B427" s="9" t="s">
+      <c r="B427" s="10" t="s">
         <v>832</v>
       </c>
       <c r="C427" s="4" t="s">
@@ -17270,7 +17271,7 @@
       <c r="A428" s="8">
         <v>16031.0</v>
       </c>
-      <c r="B428" s="9" t="s">
+      <c r="B428" s="10" t="s">
         <v>834</v>
       </c>
       <c r="C428" s="4" t="s">
@@ -17281,8 +17282,8 @@
       <c r="A429" s="8">
         <v>48069.0</v>
       </c>
-      <c r="B429" s="9" t="s">
-        <v>29</v>
+      <c r="B429" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>836</v>
@@ -17292,7 +17293,7 @@
       <c r="A430" s="8">
         <v>37033.0</v>
       </c>
-      <c r="B430" s="9" t="s">
+      <c r="B430" s="10" t="s">
         <v>837</v>
       </c>
       <c r="C430" s="4" t="s">
@@ -17303,7 +17304,7 @@
       <c r="A431" s="8">
         <v>22025.0</v>
       </c>
-      <c r="B431" s="9" t="s">
+      <c r="B431" s="10" t="s">
         <v>839</v>
       </c>
       <c r="C431" s="4" t="s">
@@ -17314,7 +17315,7 @@
       <c r="A432" s="8">
         <v>37035.0</v>
       </c>
-      <c r="B432" s="9" t="s">
+      <c r="B432" s="10" t="s">
         <v>841</v>
       </c>
       <c r="C432" s="4" t="s">
@@ -17325,7 +17326,7 @@
       <c r="A433" s="8">
         <v>13047.0</v>
       </c>
-      <c r="B433" s="9" t="s">
+      <c r="B433" s="10" t="s">
         <v>843</v>
       </c>
       <c r="C433" s="4" t="s">
@@ -17336,7 +17337,7 @@
       <c r="A434" s="8">
         <v>35003.0</v>
       </c>
-      <c r="B434" s="9" t="s">
+      <c r="B434" s="10" t="s">
         <v>845</v>
       </c>
       <c r="C434" s="4" t="s">
@@ -17347,7 +17348,7 @@
       <c r="A435" s="8">
         <v>36009.0</v>
       </c>
-      <c r="B435" s="9" t="s">
+      <c r="B435" s="10" t="s">
         <v>607</v>
       </c>
       <c r="C435" s="4" t="s">
@@ -17358,7 +17359,7 @@
       <c r="A436" s="8">
         <v>38019.0</v>
       </c>
-      <c r="B436" s="9" t="s">
+      <c r="B436" s="10" t="s">
         <v>848</v>
       </c>
       <c r="C436" s="4" t="s">
@@ -17369,7 +17370,7 @@
       <c r="A437" s="8">
         <v>36011.0</v>
       </c>
-      <c r="B437" s="9" t="s">
+      <c r="B437" s="10" t="s">
         <v>850</v>
       </c>
       <c r="C437" s="4" t="s">
@@ -17380,7 +17381,7 @@
       <c r="A438" s="8">
         <v>24015.0</v>
       </c>
-      <c r="B438" s="9" t="s">
+      <c r="B438" s="10" t="s">
         <v>852</v>
       </c>
       <c r="C438" s="4" t="s">
@@ -17391,7 +17392,7 @@
       <c r="A439" s="8">
         <v>31027.0</v>
       </c>
-      <c r="B439" s="9" t="s">
+      <c r="B439" s="10" t="s">
         <v>615</v>
       </c>
       <c r="C439" s="4" t="s">
@@ -17402,7 +17403,7 @@
       <c r="A440" s="8">
         <v>19031.0</v>
       </c>
-      <c r="B440" s="9" t="s">
+      <c r="B440" s="10" t="s">
         <v>852</v>
       </c>
       <c r="C440" s="4" t="s">
@@ -17413,7 +17414,7 @@
       <c r="A441" s="8">
         <v>29039.0</v>
       </c>
-      <c r="B441" s="9" t="s">
+      <c r="B441" s="10" t="s">
         <v>856</v>
       </c>
       <c r="C441" s="4" t="s">
@@ -17424,7 +17425,7 @@
       <c r="A442" s="8">
         <v>42027.0</v>
       </c>
-      <c r="B442" s="9" t="s">
+      <c r="B442" s="10" t="s">
         <v>858</v>
       </c>
       <c r="C442" s="4" t="s">
@@ -17435,7 +17436,7 @@
       <c r="A443" s="8">
         <v>19033.0</v>
       </c>
-      <c r="B443" s="9" t="s">
+      <c r="B443" s="10" t="s">
         <v>757</v>
       </c>
       <c r="C443" s="4" t="s">
@@ -17446,7 +17447,7 @@
       <c r="A444" s="8">
         <v>8015.0</v>
       </c>
-      <c r="B444" s="9" t="s">
+      <c r="B444" s="10" t="s">
         <v>861</v>
       </c>
       <c r="C444" s="4" t="s">
@@ -17457,7 +17458,7 @@
       <c r="A445" s="8">
         <v>48071.0</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="B445" s="10" t="s">
         <v>863</v>
       </c>
       <c r="C445" s="4" t="s">
@@ -17468,7 +17469,7 @@
       <c r="A446" s="8">
         <v>1017.0</v>
       </c>
-      <c r="B446" s="9" t="s">
+      <c r="B446" s="10" t="s">
         <v>865</v>
       </c>
       <c r="C446" s="4" t="s">
@@ -17479,7 +17480,7 @@
       <c r="A447" s="8">
         <v>39021.0</v>
       </c>
-      <c r="B447" s="9" t="s">
+      <c r="B447" s="10" t="s">
         <v>867</v>
       </c>
       <c r="C447" s="4" t="s">
@@ -17490,7 +17491,7 @@
       <c r="A448" s="8">
         <v>17019.0</v>
       </c>
-      <c r="B448" s="9" t="s">
+      <c r="B448" s="10" t="s">
         <v>869</v>
       </c>
       <c r="C448" s="4" t="s">
@@ -17501,7 +17502,7 @@
       <c r="A449" s="8">
         <v>29041.0</v>
       </c>
-      <c r="B449" s="9" t="s">
+      <c r="B449" s="10" t="s">
         <v>871</v>
       </c>
       <c r="C449" s="4" t="s">
@@ -17512,7 +17513,7 @@
       <c r="A450" s="8">
         <v>24017.0</v>
       </c>
-      <c r="B450" s="9" t="s">
+      <c r="B450" s="10" t="s">
         <v>686</v>
       </c>
       <c r="C450" s="4" t="s">
@@ -17523,7 +17524,7 @@
       <c r="A451" s="8">
         <v>51036.0</v>
       </c>
-      <c r="B451" s="9" t="s">
+      <c r="B451" s="10" t="s">
         <v>874</v>
       </c>
       <c r="C451" s="4" t="s">
@@ -17534,7 +17535,7 @@
       <c r="A452" s="8">
         <v>46023.0</v>
       </c>
-      <c r="B452" s="9" t="s">
+      <c r="B452" s="10" t="s">
         <v>876</v>
       </c>
       <c r="C452" s="4" t="s">
@@ -17545,7 +17546,7 @@
       <c r="A453" s="8">
         <v>45019.0</v>
       </c>
-      <c r="B453" s="9" t="s">
+      <c r="B453" s="10" t="s">
         <v>878</v>
       </c>
       <c r="C453" s="4" t="s">
@@ -17556,7 +17557,7 @@
       <c r="A454" s="8">
         <v>26029.0</v>
       </c>
-      <c r="B454" s="9" t="s">
+      <c r="B454" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C454" s="4" t="s">
@@ -17567,7 +17568,7 @@
       <c r="A455" s="8">
         <v>12015.0</v>
       </c>
-      <c r="B455" s="9" t="s">
+      <c r="B455" s="10" t="s">
         <v>881</v>
       </c>
       <c r="C455" s="4" t="s">
@@ -17578,7 +17579,7 @@
       <c r="A456" s="8">
         <v>51037.0</v>
       </c>
-      <c r="B456" s="9" t="s">
+      <c r="B456" s="10" t="s">
         <v>883</v>
       </c>
       <c r="C456" s="4" t="s">
@@ -17589,7 +17590,7 @@
       <c r="A457" s="8">
         <v>51540.0</v>
       </c>
-      <c r="B457" s="9" t="s">
+      <c r="B457" s="10" t="s">
         <v>885</v>
       </c>
       <c r="C457" s="4" t="s">
@@ -17600,7 +17601,7 @@
       <c r="A458" s="8">
         <v>13049.0</v>
       </c>
-      <c r="B458" s="9" t="s">
+      <c r="B458" s="10" t="s">
         <v>887</v>
       </c>
       <c r="C458" s="4" t="s">
@@ -17611,7 +17612,7 @@
       <c r="A459" s="8">
         <v>31029.0</v>
       </c>
-      <c r="B459" s="9" t="s">
+      <c r="B459" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C459" s="4" t="s">
@@ -17622,7 +17623,7 @@
       <c r="A460" s="8">
         <v>20017.0</v>
       </c>
-      <c r="B460" s="9" t="s">
+      <c r="B460" s="10" t="s">
         <v>890</v>
       </c>
       <c r="C460" s="4" t="s">
@@ -17633,7 +17634,7 @@
       <c r="A461" s="8">
         <v>13051.0</v>
       </c>
-      <c r="B461" s="9" t="s">
+      <c r="B461" s="10" t="s">
         <v>599</v>
       </c>
       <c r="C461" s="4" t="s">
@@ -17644,7 +17645,7 @@
       <c r="A462" s="8">
         <v>37037.0</v>
       </c>
-      <c r="B462" s="9" t="s">
+      <c r="B462" s="10" t="s">
         <v>893</v>
       </c>
       <c r="C462" s="4" t="s">
@@ -17655,7 +17656,7 @@
       <c r="A463" s="8">
         <v>13053.0</v>
       </c>
-      <c r="B463" s="9" t="s">
+      <c r="B463" s="10" t="s">
         <v>895</v>
       </c>
       <c r="C463" s="4" t="s">
@@ -17666,7 +17667,7 @@
       <c r="A464" s="8">
         <v>13055.0</v>
       </c>
-      <c r="B464" s="9" t="s">
+      <c r="B464" s="10" t="s">
         <v>897</v>
       </c>
       <c r="C464" s="4" t="s">
@@ -17677,7 +17678,7 @@
       <c r="A465" s="8">
         <v>36013.0</v>
       </c>
-      <c r="B465" s="9" t="s">
+      <c r="B465" s="10" t="s">
         <v>601</v>
       </c>
       <c r="C465" s="4" t="s">
@@ -17688,7 +17689,7 @@
       <c r="A466" s="8">
         <v>20019.0</v>
       </c>
-      <c r="B466" s="9" t="s">
+      <c r="B466" s="10" t="s">
         <v>900</v>
       </c>
       <c r="C466" s="4" t="s">
@@ -17699,7 +17700,7 @@
       <c r="A467" s="8">
         <v>35005.0</v>
       </c>
-      <c r="B467" s="9" t="s">
+      <c r="B467" s="10" t="s">
         <v>627</v>
       </c>
       <c r="C467" s="4" t="s">
@@ -17710,7 +17711,7 @@
       <c r="A468" s="8">
         <v>47021.0</v>
       </c>
-      <c r="B468" s="9" t="s">
+      <c r="B468" s="10" t="s">
         <v>903</v>
       </c>
       <c r="C468" s="4" t="s">
@@ -17721,7 +17722,7 @@
       <c r="A469" s="8">
         <v>26031.0</v>
       </c>
-      <c r="B469" s="9" t="s">
+      <c r="B469" s="10" t="s">
         <v>905</v>
       </c>
       <c r="C469" s="4" t="s">
@@ -17732,7 +17733,7 @@
       <c r="A470" s="8">
         <v>53007.0</v>
       </c>
-      <c r="B470" s="9" t="s">
+      <c r="B470" s="10" t="s">
         <v>907</v>
       </c>
       <c r="C470" s="4" t="s">
@@ -17743,7 +17744,7 @@
       <c r="A471" s="8">
         <v>36015.0</v>
       </c>
-      <c r="B471" s="9" t="s">
+      <c r="B471" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C471" s="4" t="s">
@@ -17754,7 +17755,7 @@
       <c r="A472" s="8">
         <v>36017.0</v>
       </c>
-      <c r="B472" s="9" t="s">
+      <c r="B472" s="10" t="s">
         <v>338</v>
       </c>
       <c r="C472" s="4" t="s">
@@ -17765,7 +17766,7 @@
       <c r="A473" s="8">
         <v>19035.0</v>
       </c>
-      <c r="B473" s="9" t="s">
+      <c r="B473" s="10" t="s">
         <v>911</v>
       </c>
       <c r="C473" s="4" t="s">
@@ -17776,7 +17777,7 @@
       <c r="A474" s="8">
         <v>40021.0</v>
       </c>
-      <c r="B474" s="9" t="s">
+      <c r="B474" s="10" t="s">
         <v>162</v>
       </c>
       <c r="C474" s="4" t="s">
@@ -17787,7 +17788,7 @@
       <c r="A475" s="8">
         <v>48073.0</v>
       </c>
-      <c r="B475" s="9" t="s">
+      <c r="B475" s="10" t="s">
         <v>735</v>
       </c>
       <c r="C475" s="4" t="s">
@@ -17798,7 +17799,7 @@
       <c r="A476" s="8">
         <v>37039.0</v>
       </c>
-      <c r="B476" s="9" t="s">
+      <c r="B476" s="10" t="s">
         <v>622</v>
       </c>
       <c r="C476" s="4" t="s">
@@ -17809,7 +17810,7 @@
       <c r="A477" s="8">
         <v>13057.0</v>
       </c>
-      <c r="B477" s="9" t="s">
+      <c r="B477" s="10" t="s">
         <v>845</v>
       </c>
       <c r="C477" s="4" t="s">
@@ -17820,7 +17821,7 @@
       <c r="A478" s="8">
         <v>45021.0</v>
       </c>
-      <c r="B478" s="9" t="s">
+      <c r="B478" s="10" t="s">
         <v>917</v>
       </c>
       <c r="C478" s="4" t="s">
@@ -17831,7 +17832,7 @@
       <c r="A479" s="8">
         <v>1019.0</v>
       </c>
-      <c r="B479" s="9" t="s">
+      <c r="B479" s="10" t="s">
         <v>919</v>
       </c>
       <c r="C479" s="4" t="s">
@@ -17842,7 +17843,7 @@
       <c r="A480" s="8">
         <v>20021.0</v>
       </c>
-      <c r="B480" s="9" t="s">
+      <c r="B480" s="10" t="s">
         <v>304</v>
       </c>
       <c r="C480" s="4" t="s">
@@ -17853,7 +17854,7 @@
       <c r="A481" s="8">
         <v>31031.0</v>
       </c>
-      <c r="B481" s="9" t="s">
+      <c r="B481" s="10" t="s">
         <v>848</v>
       </c>
       <c r="C481" s="4" t="s">
@@ -17864,7 +17865,7 @@
       <c r="A482" s="8">
         <v>51550.0</v>
       </c>
-      <c r="B482" s="9" t="s">
+      <c r="B482" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C482" s="4" t="s">
@@ -17875,7 +17876,7 @@
       <c r="A483" s="8">
         <v>33005.0</v>
       </c>
-      <c r="B483" s="9" t="s">
+      <c r="B483" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C483" s="4" t="s">
@@ -17886,7 +17887,7 @@
       <c r="A484" s="8">
         <v>42029.0</v>
       </c>
-      <c r="B484" s="9" t="s">
+      <c r="B484" s="10" t="s">
         <v>925</v>
       </c>
       <c r="C484" s="4" t="s">
@@ -17897,7 +17898,7 @@
       <c r="A485" s="8">
         <v>47023.0</v>
       </c>
-      <c r="B485" s="9" t="s">
+      <c r="B485" s="10" t="s">
         <v>927</v>
       </c>
       <c r="C485" s="4" t="s">
@@ -17908,7 +17909,7 @@
       <c r="A486" s="8">
         <v>45023.0</v>
       </c>
-      <c r="B486" s="9" t="s">
+      <c r="B486" s="10" t="s">
         <v>929</v>
       </c>
       <c r="C486" s="4" t="s">
@@ -17919,7 +17920,7 @@
       <c r="A487" s="8">
         <v>51041.0</v>
       </c>
-      <c r="B487" s="9" t="s">
+      <c r="B487" s="10" t="s">
         <v>931</v>
       </c>
       <c r="C487" s="4" t="s">
@@ -17930,7 +17931,7 @@
       <c r="A488" s="8">
         <v>45025.0</v>
       </c>
-      <c r="B488" s="9" t="s">
+      <c r="B488" s="10" t="s">
         <v>933</v>
       </c>
       <c r="C488" s="4" t="s">
@@ -17941,7 +17942,7 @@
       <c r="A489" s="8">
         <v>8017.0</v>
       </c>
-      <c r="B489" s="9" t="s">
+      <c r="B489" s="10" t="s">
         <v>935</v>
       </c>
       <c r="C489" s="4" t="s">
@@ -17952,7 +17953,7 @@
       <c r="A490" s="8">
         <v>20023.0</v>
       </c>
-      <c r="B490" s="9" t="s">
+      <c r="B490" s="10" t="s">
         <v>937</v>
       </c>
       <c r="C490" s="4" t="s">
@@ -17963,7 +17964,7 @@
       <c r="A491" s="8">
         <v>31033.0</v>
       </c>
-      <c r="B491" s="9" t="s">
+      <c r="B491" s="10" t="s">
         <v>939</v>
       </c>
       <c r="C491" s="4" t="s">
@@ -17974,7 +17975,7 @@
       <c r="A492" s="8">
         <v>19037.0</v>
       </c>
-      <c r="B492" s="9" t="s">
+      <c r="B492" s="10" t="s">
         <v>444</v>
       </c>
       <c r="C492" s="4" t="s">
@@ -17985,7 +17986,7 @@
       <c r="A493" s="8">
         <v>28017.0</v>
       </c>
-      <c r="B493" s="9" t="s">
+      <c r="B493" s="10" t="s">
         <v>942</v>
       </c>
       <c r="C493" s="4" t="s">
@@ -17996,7 +17997,7 @@
       <c r="A494" s="8">
         <v>5017.0</v>
       </c>
-      <c r="B494" s="9" t="s">
+      <c r="B494" s="10" t="s">
         <v>944</v>
       </c>
       <c r="C494" s="4" t="s">
@@ -18007,7 +18008,7 @@
       <c r="A495" s="8">
         <v>48075.0</v>
       </c>
-      <c r="B495" s="9" t="s">
+      <c r="B495" s="10" t="s">
         <v>535</v>
       </c>
       <c r="C495" s="4" t="s">
@@ -18018,7 +18019,7 @@
       <c r="A496" s="8">
         <v>1021.0</v>
       </c>
-      <c r="B496" s="9" t="s">
+      <c r="B496" s="10" t="s">
         <v>947</v>
       </c>
       <c r="C496" s="4" t="s">
@@ -18029,7 +18030,7 @@
       <c r="A497" s="8">
         <v>27023.0</v>
       </c>
-      <c r="B497" s="9" t="s">
+      <c r="B497" s="10" t="s">
         <v>949</v>
       </c>
       <c r="C497" s="4" t="s">
@@ -18040,7 +18041,7 @@
       <c r="A498" s="8">
         <v>55017.0</v>
       </c>
-      <c r="B498" s="9" t="s">
+      <c r="B498" s="10" t="s">
         <v>951</v>
       </c>
       <c r="C498" s="4" t="s">
@@ -18051,7 +18052,7 @@
       <c r="A499" s="8">
         <v>26033.0</v>
       </c>
-      <c r="B499" s="9" t="s">
+      <c r="B499" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C499" s="4" t="s">
@@ -18062,7 +18063,7 @@
       <c r="A500" s="8">
         <v>27025.0</v>
       </c>
-      <c r="B500" s="9" t="s">
+      <c r="B500" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C500" s="4" t="s">
@@ -18073,7 +18074,7 @@
       <c r="A501" s="8">
         <v>50007.0</v>
       </c>
-      <c r="B501" s="9" t="s">
+      <c r="B501" s="10" t="s">
         <v>955</v>
       </c>
       <c r="C501" s="4" t="s">
@@ -18084,7 +18085,7 @@
       <c r="A502" s="8">
         <v>40023.0</v>
       </c>
-      <c r="B502" s="9" t="s">
+      <c r="B502" s="10" t="s">
         <v>957</v>
       </c>
       <c r="C502" s="4" t="s">
@@ -18095,7 +18096,7 @@
       <c r="A503" s="8">
         <v>28019.0</v>
       </c>
-      <c r="B503" s="9" t="s">
+      <c r="B503" s="10" t="s">
         <v>959</v>
       </c>
       <c r="C503" s="4" t="s">
@@ -18106,7 +18107,7 @@
       <c r="A504" s="8">
         <v>1023.0</v>
       </c>
-      <c r="B504" s="9" t="s">
+      <c r="B504" s="10" t="s">
         <v>961</v>
       </c>
       <c r="C504" s="4" t="s">
@@ -18117,7 +18118,7 @@
       <c r="A505" s="8">
         <v>30015.0</v>
       </c>
-      <c r="B505" s="9" t="s">
+      <c r="B505" s="10" t="s">
         <v>963</v>
       </c>
       <c r="C505" s="4" t="s">
@@ -18128,7 +18129,7 @@
       <c r="A506" s="8">
         <v>37041.0</v>
       </c>
-      <c r="B506" s="9" t="s">
+      <c r="B506" s="10" t="s">
         <v>965</v>
       </c>
       <c r="C506" s="4" t="s">
@@ -18139,7 +18140,7 @@
       <c r="A507" s="8">
         <v>17021.0</v>
       </c>
-      <c r="B507" s="9" t="s">
+      <c r="B507" s="10" t="s">
         <v>967</v>
       </c>
       <c r="C507" s="4" t="s">
@@ -18150,7 +18151,7 @@
       <c r="A508" s="8">
         <v>29043.0</v>
       </c>
-      <c r="B508" s="9" t="s">
+      <c r="B508" s="10" t="s">
         <v>969</v>
       </c>
       <c r="C508" s="4" t="s">
@@ -18161,7 +18162,7 @@
       <c r="A509" s="8">
         <v>21047.0</v>
       </c>
-      <c r="B509" s="9" t="s">
+      <c r="B509" s="10" t="s">
         <v>971</v>
       </c>
       <c r="C509" s="4" t="s">
@@ -18172,7 +18173,7 @@
       <c r="A510" s="8">
         <v>32001.0</v>
       </c>
-      <c r="B510" s="9" t="s">
+      <c r="B510" s="10" t="s">
         <v>973</v>
       </c>
       <c r="C510" s="4" t="s">
@@ -18183,7 +18184,7 @@
       <c r="A511" s="8">
         <v>35006.0</v>
       </c>
-      <c r="B511" s="9" t="s">
+      <c r="B511" s="10" t="s">
         <v>975</v>
       </c>
       <c r="C511" s="4" t="s">
@@ -18194,7 +18195,7 @@
       <c r="A512" s="8">
         <v>40025.0</v>
       </c>
-      <c r="B512" s="9" t="s">
+      <c r="B512" s="10" t="s">
         <v>977</v>
       </c>
       <c r="C512" s="4" t="s">
@@ -18205,7 +18206,7 @@
       <c r="A513" s="8">
         <v>12017.0</v>
       </c>
-      <c r="B513" s="9" t="s">
+      <c r="B513" s="10" t="s">
         <v>979</v>
       </c>
       <c r="C513" s="4" t="s">
@@ -18216,7 +18217,7 @@
       <c r="A514" s="8">
         <v>41005.0</v>
       </c>
-      <c r="B514" s="9" t="s">
+      <c r="B514" s="10" t="s">
         <v>981</v>
       </c>
       <c r="C514" s="4" t="s">
@@ -18227,7 +18228,7 @@
       <c r="A515" s="8">
         <v>28021.0</v>
       </c>
-      <c r="B515" s="9" t="s">
+      <c r="B515" s="10" t="s">
         <v>937</v>
       </c>
       <c r="C515" s="4" t="s">
@@ -18238,7 +18239,7 @@
       <c r="A516" s="8">
         <v>22027.0</v>
       </c>
-      <c r="B516" s="9" t="s">
+      <c r="B516" s="10" t="s">
         <v>984</v>
       </c>
       <c r="C516" s="4" t="s">
@@ -18249,7 +18250,7 @@
       <c r="A517" s="8">
         <v>47025.0</v>
       </c>
-      <c r="B517" s="9" t="s">
+      <c r="B517" s="10" t="s">
         <v>986</v>
       </c>
       <c r="C517" s="4" t="s">
@@ -18260,7 +18261,7 @@
       <c r="A518" s="8">
         <v>53009.0</v>
       </c>
-      <c r="B518" s="9" t="s">
+      <c r="B518" s="10" t="s">
         <v>988</v>
       </c>
       <c r="C518" s="4" t="s">
@@ -18271,7 +18272,7 @@
       <c r="A519" s="8">
         <v>26035.0</v>
       </c>
-      <c r="B519" s="9" t="s">
+      <c r="B519" s="10" t="s">
         <v>400</v>
       </c>
       <c r="C519" s="4" t="s">
@@ -18282,7 +18283,7 @@
       <c r="A520" s="8">
         <v>45027.0</v>
       </c>
-      <c r="B520" s="9" t="s">
+      <c r="B520" s="10" t="s">
         <v>991</v>
       </c>
       <c r="C520" s="4" t="s">
@@ -18293,7 +18294,7 @@
       <c r="A521" s="8">
         <v>42031.0</v>
       </c>
-      <c r="B521" s="9" t="s">
+      <c r="B521" s="10" t="s">
         <v>613</v>
       </c>
       <c r="C521" s="4" t="s">
@@ -18304,7 +18305,7 @@
       <c r="A522" s="8">
         <v>46025.0</v>
       </c>
-      <c r="B522" s="9" t="s">
+      <c r="B522" s="10" t="s">
         <v>994</v>
       </c>
       <c r="C522" s="4" t="s">
@@ -18315,7 +18316,7 @@
       <c r="A523" s="8">
         <v>32003.0</v>
       </c>
-      <c r="B523" s="9" t="s">
+      <c r="B523" s="10" t="s">
         <v>996</v>
       </c>
       <c r="C523" s="4" t="s">
@@ -18326,7 +18327,7 @@
       <c r="A524" s="8">
         <v>53011.0</v>
       </c>
-      <c r="B524" s="9" t="s">
+      <c r="B524" s="10" t="s">
         <v>998</v>
       </c>
       <c r="C524" s="4" t="s">
@@ -18337,7 +18338,7 @@
       <c r="A525" s="8">
         <v>55019.0</v>
       </c>
-      <c r="B525" s="9" t="s">
+      <c r="B525" s="10" t="s">
         <v>1000</v>
       </c>
       <c r="C525" s="4" t="s">
@@ -18348,7 +18349,7 @@
       <c r="A526" s="8">
         <v>20025.0</v>
       </c>
-      <c r="B526" s="9" t="s">
+      <c r="B526" s="10" t="s">
         <v>1002</v>
       </c>
       <c r="C526" s="4" t="s">
@@ -18359,7 +18360,7 @@
       <c r="A527" s="8">
         <v>5019.0</v>
       </c>
-      <c r="B527" s="9" t="s">
+      <c r="B527" s="10" t="s">
         <v>654</v>
       </c>
       <c r="C527" s="4" t="s">
@@ -18370,7 +18371,7 @@
       <c r="A528" s="8">
         <v>29045.0</v>
       </c>
-      <c r="B528" s="9" t="s">
+      <c r="B528" s="10" t="s">
         <v>1005</v>
       </c>
       <c r="C528" s="4" t="s">
@@ -18381,7 +18382,7 @@
       <c r="A529" s="8">
         <v>18019.0</v>
       </c>
-      <c r="B529" s="9" t="s">
+      <c r="B529" s="10" t="s">
         <v>1007</v>
       </c>
       <c r="C529" s="4" t="s">
@@ -18392,7 +18393,7 @@
       <c r="A530" s="8">
         <v>39023.0</v>
       </c>
-      <c r="B530" s="9" t="s">
+      <c r="B530" s="10" t="s">
         <v>1009</v>
       </c>
       <c r="C530" s="4" t="s">
@@ -18403,7 +18404,7 @@
       <c r="A531" s="8">
         <v>17023.0</v>
       </c>
-      <c r="B531" s="9" t="s">
+      <c r="B531" s="10" t="s">
         <v>1011</v>
       </c>
       <c r="C531" s="4" t="s">
@@ -18414,7 +18415,7 @@
       <c r="A532" s="8">
         <v>16033.0</v>
       </c>
-      <c r="B532" s="9" t="s">
+      <c r="B532" s="10" t="s">
         <v>865</v>
       </c>
       <c r="C532" s="4" t="s">
@@ -18425,7 +18426,7 @@
       <c r="A533" s="8">
         <v>21049.0</v>
       </c>
-      <c r="B533" s="9" t="s">
+      <c r="B533" s="10" t="s">
         <v>1014</v>
       </c>
       <c r="C533" s="4" t="s">
@@ -18436,7 +18437,7 @@
       <c r="A534" s="8">
         <v>19039.0</v>
       </c>
-      <c r="B534" s="9" t="s">
+      <c r="B534" s="10" t="s">
         <v>1016</v>
       </c>
       <c r="C534" s="4" t="s">
@@ -18447,7 +18448,7 @@
       <c r="A535" s="8">
         <v>13059.0</v>
       </c>
-      <c r="B535" s="9" t="s">
+      <c r="B535" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="C535" s="4" t="s">
@@ -18458,7 +18459,7 @@
       <c r="A536" s="8">
         <v>28023.0</v>
       </c>
-      <c r="B536" s="9" t="s">
+      <c r="B536" s="10" t="s">
         <v>504</v>
       </c>
       <c r="C536" s="4" t="s">
@@ -18469,7 +18470,7 @@
       <c r="A537" s="8">
         <v>1025.0</v>
       </c>
-      <c r="B537" s="9" t="s">
+      <c r="B537" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="C537" s="4" t="s">
@@ -18480,7 +18481,7 @@
       <c r="A538" s="8">
         <v>51043.0</v>
       </c>
-      <c r="B538" s="9" t="s">
+      <c r="B538" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="C538" s="4" t="s">
@@ -18491,7 +18492,7 @@
       <c r="A539" s="8">
         <v>41007.0</v>
       </c>
-      <c r="B539" s="9" t="s">
+      <c r="B539" s="10" t="s">
         <v>572</v>
       </c>
       <c r="C539" s="4" t="s">
@@ -18502,7 +18503,7 @@
       <c r="A540" s="8">
         <v>27027.0</v>
       </c>
-      <c r="B540" s="9" t="s">
+      <c r="B540" s="10" t="s">
         <v>1026</v>
       </c>
       <c r="C540" s="4" t="s">
@@ -18513,7 +18514,7 @@
       <c r="A541" s="8">
         <v>46027.0</v>
       </c>
-      <c r="B541" s="9" t="s">
+      <c r="B541" s="10" t="s">
         <v>1028</v>
       </c>
       <c r="C541" s="4" t="s">
@@ -18524,7 +18525,7 @@
       <c r="A542" s="8">
         <v>31035.0</v>
       </c>
-      <c r="B542" s="9" t="s">
+      <c r="B542" s="10" t="s">
         <v>1030</v>
       </c>
       <c r="C542" s="4" t="s">
@@ -18535,7 +18536,7 @@
       <c r="A543" s="8">
         <v>19041.0</v>
       </c>
-      <c r="B543" s="9" t="s">
+      <c r="B543" s="10" t="s">
         <v>1032</v>
       </c>
       <c r="C543" s="4" t="s">
@@ -18546,7 +18547,7 @@
       <c r="A544" s="8">
         <v>28025.0</v>
       </c>
-      <c r="B544" s="9" t="s">
+      <c r="B544" s="10" t="s">
         <v>384</v>
       </c>
       <c r="C544" s="4" t="s">
@@ -18557,7 +18558,7 @@
       <c r="A545" s="8">
         <v>13061.0</v>
       </c>
-      <c r="B545" s="9" t="s">
+      <c r="B545" s="10" t="s">
         <v>1035</v>
       </c>
       <c r="C545" s="4" t="s">
@@ -18568,7 +18569,7 @@
       <c r="A546" s="8">
         <v>20027.0</v>
       </c>
-      <c r="B546" s="9" t="s">
+      <c r="B546" s="10" t="s">
         <v>1037</v>
       </c>
       <c r="C546" s="4" t="s">
@@ -18579,7 +18580,7 @@
       <c r="A547" s="8">
         <v>29047.0</v>
       </c>
-      <c r="B547" s="9" t="s">
+      <c r="B547" s="10" t="s">
         <v>1039</v>
       </c>
       <c r="C547" s="4" t="s">
@@ -18590,7 +18591,7 @@
       <c r="A548" s="8">
         <v>12019.0</v>
       </c>
-      <c r="B548" s="9" t="s">
+      <c r="B548" s="10" t="s">
         <v>186</v>
       </c>
       <c r="C548" s="4" t="s">
@@ -18601,7 +18602,7 @@
       <c r="A549" s="8">
         <v>48077.0</v>
       </c>
-      <c r="B549" s="9" t="s">
+      <c r="B549" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="C549" s="4" t="s">
@@ -18612,7 +18613,7 @@
       <c r="A550" s="8">
         <v>54015.0</v>
       </c>
-      <c r="B550" s="9" t="s">
+      <c r="B550" s="10" t="s">
         <v>1044</v>
       </c>
       <c r="C550" s="4" t="s">
@@ -18623,7 +18624,7 @@
       <c r="A551" s="8">
         <v>21051.0</v>
       </c>
-      <c r="B551" s="9" t="s">
+      <c r="B551" s="10" t="s">
         <v>1046</v>
       </c>
       <c r="C551" s="4" t="s">
@@ -18634,7 +18635,7 @@
       <c r="A552" s="8">
         <v>17025.0</v>
       </c>
-      <c r="B552" s="9" t="s">
+      <c r="B552" s="10" t="s">
         <v>1048</v>
       </c>
       <c r="C552" s="4" t="s">
@@ -18645,7 +18646,7 @@
       <c r="A553" s="8">
         <v>18021.0</v>
       </c>
-      <c r="B553" s="9" t="s">
+      <c r="B553" s="10" t="s">
         <v>1050</v>
       </c>
       <c r="C553" s="4" t="s">
@@ -18656,7 +18657,7 @@
       <c r="A554" s="8">
         <v>5021.0</v>
       </c>
-      <c r="B554" s="9" t="s">
+      <c r="B554" s="10" t="s">
         <v>1052</v>
       </c>
       <c r="C554" s="4" t="s">
@@ -18667,7 +18668,7 @@
       <c r="A555" s="8">
         <v>37043.0</v>
       </c>
-      <c r="B555" s="9" t="s">
+      <c r="B555" s="10" t="s">
         <v>1054</v>
       </c>
       <c r="C555" s="4" t="s">
@@ -18678,7 +18679,7 @@
       <c r="A556" s="8">
         <v>1027.0</v>
       </c>
-      <c r="B556" s="9" t="s">
+      <c r="B556" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="C556" s="4" t="s">
@@ -18689,7 +18690,7 @@
       <c r="A557" s="8">
         <v>47027.0</v>
       </c>
-      <c r="B557" s="9" t="s">
+      <c r="B557" s="10" t="s">
         <v>1058</v>
       </c>
       <c r="C557" s="4" t="s">
@@ -18700,7 +18701,7 @@
       <c r="A558" s="8">
         <v>19043.0</v>
       </c>
-      <c r="B558" s="9" t="s">
+      <c r="B558" s="10" t="s">
         <v>1060</v>
       </c>
       <c r="C558" s="4" t="s">
@@ -18711,7 +18712,7 @@
       <c r="A559" s="8">
         <v>13063.0</v>
       </c>
-      <c r="B559" s="9" t="s">
+      <c r="B559" s="10" t="s">
         <v>1062</v>
       </c>
       <c r="C559" s="4" t="s">
@@ -18722,7 +18723,7 @@
       <c r="A560" s="8">
         <v>8019.0</v>
       </c>
-      <c r="B560" s="9" t="s">
+      <c r="B560" s="10" t="s">
         <v>1064</v>
       </c>
       <c r="C560" s="4" t="s">
@@ -18733,7 +18734,7 @@
       <c r="A561" s="8">
         <v>42033.0</v>
       </c>
-      <c r="B561" s="9" t="s">
+      <c r="B561" s="10" t="s">
         <v>1066</v>
       </c>
       <c r="C561" s="4" t="s">
@@ -18744,7 +18745,7 @@
       <c r="A562" s="8">
         <v>16035.0</v>
       </c>
-      <c r="B562" s="9" t="s">
+      <c r="B562" s="10" t="s">
         <v>1068</v>
       </c>
       <c r="C562" s="4" t="s">
@@ -18755,7 +18756,7 @@
       <c r="A563" s="8">
         <v>27029.0</v>
       </c>
-      <c r="B563" s="9" t="s">
+      <c r="B563" s="10" t="s">
         <v>1070</v>
       </c>
       <c r="C563" s="4" t="s">
@@ -18766,7 +18767,7 @@
       <c r="A564" s="8">
         <v>5023.0</v>
       </c>
-      <c r="B564" s="9" t="s">
+      <c r="B564" s="10" t="s">
         <v>1072</v>
       </c>
       <c r="C564" s="4" t="s">
@@ -18777,7 +18778,7 @@
       <c r="A565" s="8">
         <v>1029.0</v>
       </c>
-      <c r="B565" s="9" t="s">
+      <c r="B565" s="10" t="s">
         <v>1074</v>
       </c>
       <c r="C565" s="4" t="s">
@@ -18788,7 +18789,7 @@
       <c r="A566" s="8">
         <v>39025.0</v>
       </c>
-      <c r="B566" s="9" t="s">
+      <c r="B566" s="10" t="s">
         <v>1076</v>
       </c>
       <c r="C566" s="4" t="s">
@@ -18799,7 +18800,7 @@
       <c r="A567" s="8">
         <v>40027.0</v>
       </c>
-      <c r="B567" s="9" t="s">
+      <c r="B567" s="10" t="s">
         <v>1078</v>
       </c>
       <c r="C567" s="4" t="s">
@@ -18810,8 +18811,8 @@
       <c r="A568" s="8">
         <v>5025.0</v>
       </c>
-      <c r="B568" s="9" t="s">
-        <v>51</v>
+      <c r="B568" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C568" s="4" t="s">
         <v>1080</v>
@@ -18821,7 +18822,7 @@
       <c r="A569" s="8">
         <v>37045.0</v>
       </c>
-      <c r="B569" s="9" t="s">
+      <c r="B569" s="10" t="s">
         <v>1081</v>
       </c>
       <c r="C569" s="4" t="s">
@@ -18832,7 +18833,7 @@
       <c r="A570" s="8">
         <v>13065.0</v>
       </c>
-      <c r="B570" s="9" t="s">
+      <c r="B570" s="10" t="s">
         <v>1083</v>
       </c>
       <c r="C570" s="4" t="s">
@@ -18843,7 +18844,7 @@
       <c r="A571" s="8">
         <v>19045.0</v>
       </c>
-      <c r="B571" s="9" t="s">
+      <c r="B571" s="10" t="s">
         <v>1085</v>
       </c>
       <c r="C571" s="4" t="s">
@@ -18854,7 +18855,7 @@
       <c r="A572" s="8">
         <v>26037.0</v>
       </c>
-      <c r="B572" s="9" t="s">
+      <c r="B572" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="C572" s="4" t="s">
@@ -18865,7 +18866,7 @@
       <c r="A573" s="8">
         <v>17027.0</v>
       </c>
-      <c r="B573" s="9" t="s">
+      <c r="B573" s="10" t="s">
         <v>824</v>
       </c>
       <c r="C573" s="4" t="s">
@@ -18876,7 +18877,7 @@
       <c r="A574" s="8">
         <v>42035.0</v>
       </c>
-      <c r="B574" s="9" t="s">
+      <c r="B574" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C574" s="4" t="s">
@@ -18887,7 +18888,7 @@
       <c r="A575" s="8">
         <v>36019.0</v>
       </c>
-      <c r="B575" s="9" t="s">
+      <c r="B575" s="10" t="s">
         <v>1091</v>
       </c>
       <c r="C575" s="4" t="s">
@@ -18898,7 +18899,7 @@
       <c r="A576" s="8">
         <v>18023.0</v>
       </c>
-      <c r="B576" s="9" t="s">
+      <c r="B576" s="10" t="s">
         <v>1093</v>
       </c>
       <c r="C576" s="4" t="s">
@@ -18909,7 +18910,7 @@
       <c r="A577" s="8">
         <v>39027.0</v>
       </c>
-      <c r="B577" s="9" t="s">
+      <c r="B577" s="10" t="s">
         <v>1095</v>
       </c>
       <c r="C577" s="4" t="s">
@@ -18920,7 +18921,7 @@
       <c r="A578" s="8">
         <v>21053.0</v>
       </c>
-      <c r="B578" s="9" t="s">
+      <c r="B578" s="10" t="s">
         <v>1097</v>
       </c>
       <c r="C578" s="4" t="s">
@@ -18931,7 +18932,7 @@
       <c r="A579" s="8">
         <v>29049.0</v>
       </c>
-      <c r="B579" s="9" t="s">
+      <c r="B579" s="10" t="s">
         <v>1074</v>
       </c>
       <c r="C579" s="4" t="s">
@@ -18942,7 +18943,7 @@
       <c r="A580" s="8">
         <v>20029.0</v>
       </c>
-      <c r="B580" s="9" t="s">
+      <c r="B580" s="10" t="s">
         <v>1100</v>
       </c>
       <c r="C580" s="4" t="s">
@@ -18953,7 +18954,7 @@
       <c r="A581" s="8">
         <v>28027.0</v>
       </c>
-      <c r="B581" s="9" t="s">
+      <c r="B581" s="10" t="s">
         <v>1102</v>
       </c>
       <c r="C581" s="4" t="s">
@@ -18964,7 +18965,7 @@
       <c r="A582" s="8">
         <v>40029.0</v>
       </c>
-      <c r="B582" s="9" t="s">
+      <c r="B582" s="10" t="s">
         <v>1104</v>
       </c>
       <c r="C582" s="4" t="s">
@@ -18975,7 +18976,7 @@
       <c r="A583" s="8">
         <v>13067.0</v>
       </c>
-      <c r="B583" s="9" t="s">
+      <c r="B583" s="10" t="s">
         <v>1106</v>
       </c>
       <c r="C583" s="4" t="s">
@@ -18986,7 +18987,7 @@
       <c r="A584" s="8">
         <v>4003.0</v>
       </c>
-      <c r="B584" s="9" t="s">
+      <c r="B584" s="10" t="s">
         <v>1108</v>
       </c>
       <c r="C584" s="4" t="s">
@@ -18997,7 +18998,7 @@
       <c r="A585" s="8">
         <v>48079.0</v>
       </c>
-      <c r="B585" s="9" t="s">
+      <c r="B585" s="10" t="s">
         <v>1110</v>
       </c>
       <c r="C585" s="4" t="s">
@@ -19008,7 +19009,7 @@
       <c r="A586" s="8">
         <v>47029.0</v>
       </c>
-      <c r="B586" s="9" t="s">
+      <c r="B586" s="10" t="s">
         <v>1112</v>
       </c>
       <c r="C586" s="4" t="s">
@@ -19019,7 +19020,7 @@
       <c r="A587" s="8">
         <v>4005.0</v>
       </c>
-      <c r="B587" s="9" t="s">
+      <c r="B587" s="10" t="s">
         <v>336</v>
       </c>
       <c r="C587" s="4" t="s">
@@ -19030,7 +19031,7 @@
       <c r="A588" s="8">
         <v>46029.0</v>
       </c>
-      <c r="B588" s="9" t="s">
+      <c r="B588" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="C588" s="4" t="s">
@@ -19041,7 +19042,7 @@
       <c r="A589" s="8">
         <v>13069.0</v>
       </c>
-      <c r="B589" s="9" t="s">
+      <c r="B589" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="C589" s="4" t="s">
@@ -19052,7 +19053,7 @@
       <c r="A590" s="8">
         <v>1031.0</v>
       </c>
-      <c r="B590" s="9" t="s">
+      <c r="B590" s="10" t="s">
         <v>1119</v>
       </c>
       <c r="C590" s="4" t="s">
@@ -19063,7 +19064,7 @@
       <c r="A591" s="8">
         <v>47031.0</v>
       </c>
-      <c r="B591" s="9" t="s">
+      <c r="B591" s="10" t="s">
         <v>1121</v>
       </c>
       <c r="C591" s="4" t="s">
@@ -19074,7 +19075,7 @@
       <c r="A592" s="8">
         <v>20031.0</v>
       </c>
-      <c r="B592" s="9" t="s">
+      <c r="B592" s="10" t="s">
         <v>1123</v>
       </c>
       <c r="C592" s="4" t="s">
@@ -19085,7 +19086,7 @@
       <c r="A593" s="8">
         <v>48081.0</v>
       </c>
-      <c r="B593" s="9" t="s">
+      <c r="B593" s="10" t="s">
         <v>1125</v>
       </c>
       <c r="C593" s="4" t="s">
@@ -19096,7 +19097,7 @@
       <c r="A594" s="8">
         <v>1033.0</v>
       </c>
-      <c r="B594" s="9" t="s">
+      <c r="B594" s="10" t="s">
         <v>1127</v>
       </c>
       <c r="C594" s="4" t="s">
@@ -19107,7 +19108,7 @@
       <c r="A595" s="8">
         <v>29051.0</v>
       </c>
-      <c r="B595" s="9" t="s">
+      <c r="B595" s="10" t="s">
         <v>1129</v>
       </c>
       <c r="C595" s="4" t="s">
@@ -19118,7 +19119,7 @@
       <c r="A596" s="8">
         <v>48083.0</v>
       </c>
-      <c r="B596" s="9" t="s">
+      <c r="B596" s="10" t="s">
         <v>1131</v>
       </c>
       <c r="C596" s="4" t="s">
@@ -19129,7 +19130,7 @@
       <c r="A597" s="8">
         <v>17029.0</v>
       </c>
-      <c r="B597" s="9" t="s">
+      <c r="B597" s="10" t="s">
         <v>809</v>
       </c>
       <c r="C597" s="4" t="s">
@@ -19140,7 +19141,7 @@
       <c r="A598" s="8">
         <v>35007.0</v>
       </c>
-      <c r="B598" s="9" t="s">
+      <c r="B598" s="10" t="s">
         <v>1134</v>
       </c>
       <c r="C598" s="4" t="s">
@@ -19151,7 +19152,7 @@
       <c r="A599" s="8">
         <v>31037.0</v>
       </c>
-      <c r="B599" s="9" t="s">
+      <c r="B599" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C599" s="4" t="s">
@@ -19162,7 +19163,7 @@
       <c r="A600" s="8">
         <v>45029.0</v>
       </c>
-      <c r="B600" s="9" t="s">
+      <c r="B600" s="10" t="s">
         <v>580</v>
       </c>
       <c r="C600" s="4" t="s">
@@ -19173,7 +19174,7 @@
       <c r="A601" s="8">
         <v>12021.0</v>
       </c>
-      <c r="B601" s="9" t="s">
+      <c r="B601" s="10" t="s">
         <v>1138</v>
       </c>
       <c r="C601" s="4" t="s">
@@ -19184,7 +19185,7 @@
       <c r="A602" s="8">
         <v>48085.0</v>
       </c>
-      <c r="B602" s="9" t="s">
+      <c r="B602" s="10" t="s">
         <v>1070</v>
       </c>
       <c r="C602" s="4" t="s">
@@ -19195,7 +19196,7 @@
       <c r="A603" s="8">
         <v>48087.0</v>
       </c>
-      <c r="B603" s="9" t="s">
+      <c r="B603" s="10" t="s">
         <v>1141</v>
       </c>
       <c r="C603" s="4" t="s">
@@ -19206,7 +19207,7 @@
       <c r="A604" s="8">
         <v>51570.0</v>
       </c>
-      <c r="B604" s="9" t="s">
+      <c r="B604" s="10" t="s">
         <v>212</v>
       </c>
       <c r="C604" s="4" t="s">
@@ -19217,7 +19218,7 @@
       <c r="A605" s="8">
         <v>48089.0</v>
       </c>
-      <c r="B605" s="9" t="s">
+      <c r="B605" s="10" t="s">
         <v>1144</v>
       </c>
       <c r="C605" s="4" t="s">
@@ -19228,7 +19229,7 @@
       <c r="A606" s="8">
         <v>13071.0</v>
       </c>
-      <c r="B606" s="9" t="s">
+      <c r="B606" s="10" t="s">
         <v>807</v>
       </c>
       <c r="C606" s="4" t="s">
@@ -19239,7 +19240,7 @@
       <c r="A607" s="8">
         <v>55021.0</v>
       </c>
-      <c r="B607" s="9" t="s">
+      <c r="B607" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C607" s="4" t="s">
@@ -19250,7 +19251,7 @@
       <c r="A608" s="8">
         <v>41009.0</v>
       </c>
-      <c r="B608" s="9" t="s">
+      <c r="B608" s="10" t="s">
         <v>1148</v>
       </c>
       <c r="C608" s="4" t="s">
@@ -19261,7 +19262,7 @@
       <c r="A609" s="8">
         <v>42037.0</v>
       </c>
-      <c r="B609" s="9" t="s">
+      <c r="B609" s="10" t="s">
         <v>1150</v>
       </c>
       <c r="C609" s="4" t="s">
@@ -19272,7 +19273,7 @@
       <c r="A610" s="8">
         <v>12023.0</v>
       </c>
-      <c r="B610" s="9" t="s">
+      <c r="B610" s="10" t="s">
         <v>1152</v>
       </c>
       <c r="C610" s="4" t="s">
@@ -19283,7 +19284,7 @@
       <c r="A611" s="8">
         <v>36021.0</v>
       </c>
-      <c r="B611" s="9" t="s">
+      <c r="B611" s="10" t="s">
         <v>1154</v>
       </c>
       <c r="C611" s="4" t="s">
@@ -19294,7 +19295,7 @@
       <c r="A612" s="8">
         <v>53013.0</v>
       </c>
-      <c r="B612" s="9" t="s">
+      <c r="B612" s="10" t="s">
         <v>1156</v>
       </c>
       <c r="C612" s="4" t="s">
@@ -19305,7 +19306,7 @@
       <c r="A613" s="8">
         <v>5027.0</v>
       </c>
-      <c r="B613" s="9" t="s">
+      <c r="B613" s="10" t="s">
         <v>1158</v>
       </c>
       <c r="C613" s="4" t="s">
@@ -19316,7 +19317,7 @@
       <c r="A614" s="8">
         <v>13073.0</v>
       </c>
-      <c r="B614" s="9" t="s">
+      <c r="B614" s="10" t="s">
         <v>673</v>
       </c>
       <c r="C614" s="4" t="s">
@@ -19327,7 +19328,7 @@
       <c r="A615" s="8">
         <v>39029.0</v>
       </c>
-      <c r="B615" s="9" t="s">
+      <c r="B615" s="10" t="s">
         <v>1161</v>
       </c>
       <c r="C615" s="4" t="s">
@@ -19338,7 +19339,7 @@
       <c r="A616" s="8">
         <v>37047.0</v>
       </c>
-      <c r="B616" s="9" t="s">
+      <c r="B616" s="10" t="s">
         <v>1163</v>
       </c>
       <c r="C616" s="4" t="s">
@@ -19349,7 +19350,7 @@
       <c r="A617" s="8">
         <v>6011.0</v>
       </c>
-      <c r="B617" s="9" t="s">
+      <c r="B617" s="10" t="s">
         <v>1165</v>
       </c>
       <c r="C617" s="4" t="s">
@@ -19360,7 +19361,7 @@
       <c r="A618" s="8">
         <v>48091.0</v>
       </c>
-      <c r="B618" s="9" t="s">
+      <c r="B618" s="10" t="s">
         <v>1167</v>
       </c>
       <c r="C618" s="4" t="s">
@@ -19371,8 +19372,8 @@
       <c r="A619" s="8">
         <v>20033.0</v>
       </c>
-      <c r="B619" s="9" t="s">
-        <v>29</v>
+      <c r="B619" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C619" s="4" t="s">
         <v>1169</v>
@@ -19382,7 +19383,7 @@
       <c r="A620" s="8">
         <v>40031.0</v>
       </c>
-      <c r="B620" s="9" t="s">
+      <c r="B620" s="10" t="s">
         <v>1170</v>
       </c>
       <c r="C620" s="4" t="s">
@@ -19393,7 +19394,7 @@
       <c r="A621" s="8">
         <v>48093.0</v>
       </c>
-      <c r="B621" s="9" t="s">
+      <c r="B621" s="10" t="s">
         <v>558</v>
       </c>
       <c r="C621" s="4" t="s">
@@ -19404,7 +19405,7 @@
       <c r="A622" s="8">
         <v>48095.0</v>
       </c>
-      <c r="B622" s="9" t="s">
+      <c r="B622" s="10" t="s">
         <v>1095</v>
       </c>
       <c r="C622" s="4" t="s">
@@ -19415,7 +19416,7 @@
       <c r="A623" s="8">
         <v>22029.0</v>
       </c>
-      <c r="B623" s="9" t="s">
+      <c r="B623" s="10" t="s">
         <v>1174</v>
       </c>
       <c r="C623" s="4" t="s">
@@ -19426,7 +19427,7 @@
       <c r="A624" s="8">
         <v>1035.0</v>
       </c>
-      <c r="B624" s="9" t="s">
+      <c r="B624" s="10" t="s">
         <v>1176</v>
       </c>
       <c r="C624" s="4" t="s">
@@ -19437,7 +19438,7 @@
       <c r="A625" s="8">
         <v>8021.0</v>
       </c>
-      <c r="B625" s="9" t="s">
+      <c r="B625" s="10" t="s">
         <v>629</v>
       </c>
       <c r="C625" s="4" t="s">
@@ -19448,7 +19449,7 @@
       <c r="A626" s="8">
         <v>6013.0</v>
       </c>
-      <c r="B626" s="9" t="s">
+      <c r="B626" s="10" t="s">
         <v>1179</v>
       </c>
       <c r="C626" s="4" t="s">
@@ -19459,7 +19460,7 @@
       <c r="A627" s="8">
         <v>56009.0</v>
       </c>
-      <c r="B627" s="9" t="s">
+      <c r="B627" s="10" t="s">
         <v>570</v>
       </c>
       <c r="C627" s="4" t="s">
@@ -19470,7 +19471,7 @@
       <c r="A628" s="8">
         <v>5029.0</v>
       </c>
-      <c r="B628" s="9" t="s">
+      <c r="B628" s="10" t="s">
         <v>1182</v>
       </c>
       <c r="C628" s="4" t="s">
@@ -19481,7 +19482,7 @@
       <c r="A629" s="8">
         <v>27031.0</v>
       </c>
-      <c r="B629" s="9" t="s">
+      <c r="B629" s="10" t="s">
         <v>1184</v>
       </c>
       <c r="C629" s="4" t="s">
@@ -19492,7 +19493,7 @@
       <c r="A630" s="8">
         <v>17031.0</v>
       </c>
-      <c r="B630" s="9" t="s">
+      <c r="B630" s="10" t="s">
         <v>1186</v>
       </c>
       <c r="C630" s="4" t="s">
@@ -19503,7 +19504,7 @@
       <c r="A631" s="8">
         <v>13075.0</v>
       </c>
-      <c r="B631" s="9" t="s">
+      <c r="B631" s="10" t="s">
         <v>1188</v>
       </c>
       <c r="C631" s="4" t="s">
@@ -19514,7 +19515,7 @@
       <c r="A632" s="8">
         <v>48097.0</v>
       </c>
-      <c r="B632" s="9" t="s">
+      <c r="B632" s="10" t="s">
         <v>1190</v>
       </c>
       <c r="C632" s="4" t="s">
@@ -19525,7 +19526,7 @@
       <c r="A633" s="8">
         <v>29053.0</v>
       </c>
-      <c r="B633" s="9" t="s">
+      <c r="B633" s="10" t="s">
         <v>1192</v>
       </c>
       <c r="C633" s="4" t="s">
@@ -19536,7 +19537,7 @@
       <c r="A634" s="8">
         <v>33007.0</v>
       </c>
-      <c r="B634" s="9" t="s">
+      <c r="B634" s="10" t="s">
         <v>1194</v>
       </c>
       <c r="C634" s="4" t="s">
@@ -19547,7 +19548,7 @@
       <c r="A635" s="8">
         <v>41011.0</v>
       </c>
-      <c r="B635" s="9" t="s">
+      <c r="B635" s="10" t="s">
         <v>1196</v>
       </c>
       <c r="C635" s="4" t="s">
@@ -19558,7 +19559,7 @@
       <c r="A636" s="8">
         <v>1037.0</v>
       </c>
-      <c r="B636" s="9" t="s">
+      <c r="B636" s="10" t="s">
         <v>1198</v>
       </c>
       <c r="C636" s="4" t="s">
@@ -19569,7 +19570,7 @@
       <c r="A637" s="8">
         <v>28029.0</v>
       </c>
-      <c r="B637" s="9" t="s">
+      <c r="B637" s="10" t="s">
         <v>1200</v>
       </c>
       <c r="C637" s="4" t="s">
@@ -19580,7 +19581,7 @@
       <c r="A638" s="8">
         <v>46031.0</v>
       </c>
-      <c r="B638" s="9" t="s">
+      <c r="B638" s="10" t="s">
         <v>1202</v>
       </c>
       <c r="C638" s="4" t="s">
@@ -19591,7 +19592,7 @@
       <c r="A639" s="8">
         <v>36023.0</v>
       </c>
-      <c r="B639" s="9" t="s">
+      <c r="B639" s="10" t="s">
         <v>570</v>
       </c>
       <c r="C639" s="4" t="s">
@@ -19602,7 +19603,7 @@
       <c r="A640" s="8">
         <v>48099.0</v>
       </c>
-      <c r="B640" s="9" t="s">
+      <c r="B640" s="10" t="s">
         <v>363</v>
       </c>
       <c r="C640" s="4" t="s">
@@ -19613,7 +19614,7 @@
       <c r="A641" s="8">
         <v>39031.0</v>
       </c>
-      <c r="B641" s="9" t="s">
+      <c r="B641" s="10" t="s">
         <v>1206</v>
       </c>
       <c r="C641" s="4" t="s">
@@ -19624,7 +19625,7 @@
       <c r="A642" s="8">
         <v>8023.0</v>
       </c>
-      <c r="B642" s="9" t="s">
+      <c r="B642" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="C642" s="4" t="s">
@@ -19635,7 +19636,7 @@
       <c r="A643" s="8">
         <v>48101.0</v>
       </c>
-      <c r="B643" s="9" t="s">
+      <c r="B643" s="10" t="s">
         <v>363</v>
       </c>
       <c r="C643" s="4" t="s">
@@ -19646,7 +19647,7 @@
       <c r="A644" s="8">
         <v>40033.0</v>
       </c>
-      <c r="B644" s="9" t="s">
+      <c r="B644" s="10" t="s">
         <v>1211</v>
       </c>
       <c r="C644" s="4" t="s">
@@ -19657,7 +19658,7 @@
       <c r="A645" s="8">
         <v>27033.0</v>
       </c>
-      <c r="B645" s="9" t="s">
+      <c r="B645" s="10" t="s">
         <v>1213</v>
       </c>
       <c r="C645" s="4" t="s">
@@ -19668,7 +19669,7 @@
       <c r="A646" s="8">
         <v>28031.0</v>
       </c>
-      <c r="B646" s="9" t="s">
+      <c r="B646" s="10" t="s">
         <v>424</v>
       </c>
       <c r="C646" s="4" t="s">
@@ -19679,7 +19680,7 @@
       <c r="A647" s="8">
         <v>1039.0</v>
       </c>
-      <c r="B647" s="9" t="s">
+      <c r="B647" s="10" t="s">
         <v>1216</v>
       </c>
       <c r="C647" s="4" t="s">
@@ -19690,7 +19691,7 @@
       <c r="A648" s="8">
         <v>51580.0</v>
       </c>
-      <c r="B648" s="9" t="s">
+      <c r="B648" s="10" t="s">
         <v>1218</v>
       </c>
       <c r="C648" s="4" t="s">
@@ -19701,7 +19702,7 @@
       <c r="A649" s="8">
         <v>13077.0</v>
       </c>
-      <c r="B649" s="9" t="s">
+      <c r="B649" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="C649" s="4" t="s">
@@ -19712,7 +19713,7 @@
       <c r="A650" s="8">
         <v>20035.0</v>
       </c>
-      <c r="B650" s="9" t="s">
+      <c r="B650" s="10" t="s">
         <v>1222</v>
       </c>
       <c r="C650" s="4" t="s">
@@ -19723,7 +19724,7 @@
       <c r="A651" s="8">
         <v>53015.0</v>
       </c>
-      <c r="B651" s="9" t="s">
+      <c r="B651" s="10" t="s">
         <v>795</v>
       </c>
       <c r="C651" s="4" t="s">
@@ -19734,7 +19735,7 @@
       <c r="A652" s="8">
         <v>40035.0</v>
       </c>
-      <c r="B652" s="9" t="s">
+      <c r="B652" s="10" t="s">
         <v>1225</v>
       </c>
       <c r="C652" s="4" t="s">
@@ -19745,7 +19746,7 @@
       <c r="A653" s="8">
         <v>51045.0</v>
       </c>
-      <c r="B653" s="9" t="s">
+      <c r="B653" s="10" t="s">
         <v>1227</v>
       </c>
       <c r="C653" s="4" t="s">
@@ -19756,7 +19757,7 @@
       <c r="A654" s="8">
         <v>5031.0</v>
       </c>
-      <c r="B654" s="9" t="s">
+      <c r="B654" s="10" t="s">
         <v>1229</v>
       </c>
       <c r="C654" s="4" t="s">
@@ -19767,7 +19768,7 @@
       <c r="A655" s="8">
         <v>48103.0</v>
       </c>
-      <c r="B655" s="9" t="s">
+      <c r="B655" s="10" t="s">
         <v>1231</v>
       </c>
       <c r="C655" s="4" t="s">
@@ -19778,7 +19779,7 @@
       <c r="A656" s="8">
         <v>37049.0</v>
       </c>
-      <c r="B656" s="9" t="s">
+      <c r="B656" s="10" t="s">
         <v>731</v>
       </c>
       <c r="C656" s="4" t="s">
@@ -19789,7 +19790,7 @@
       <c r="A657" s="8">
         <v>19047.0</v>
       </c>
-      <c r="B657" s="9" t="s">
+      <c r="B657" s="10" t="s">
         <v>1234</v>
       </c>
       <c r="C657" s="4" t="s">
@@ -19800,7 +19801,7 @@
       <c r="A658" s="8">
         <v>55023.0</v>
       </c>
-      <c r="B658" s="9" t="s">
+      <c r="B658" s="10" t="s">
         <v>1236</v>
       </c>
       <c r="C658" s="4" t="s">
@@ -19811,7 +19812,7 @@
       <c r="A659" s="8">
         <v>42039.0</v>
       </c>
-      <c r="B659" s="9" t="s">
+      <c r="B659" s="10" t="s">
         <v>1238</v>
       </c>
       <c r="C659" s="4" t="s">
@@ -19822,7 +19823,7 @@
       <c r="A660" s="8">
         <v>26039.0</v>
       </c>
-      <c r="B660" s="9" t="s">
+      <c r="B660" s="10" t="s">
         <v>1240</v>
       </c>
       <c r="C660" s="4" t="s">
@@ -19833,7 +19834,7 @@
       <c r="A661" s="8">
         <v>5033.0</v>
       </c>
-      <c r="B661" s="9" t="s">
+      <c r="B661" s="10" t="s">
         <v>1242</v>
       </c>
       <c r="C661" s="4" t="s">
@@ -19844,7 +19845,7 @@
       <c r="A662" s="8">
         <v>29055.0</v>
       </c>
-      <c r="B662" s="9" t="s">
+      <c r="B662" s="10" t="s">
         <v>1244</v>
       </c>
       <c r="C662" s="4" t="s">
@@ -19855,7 +19856,7 @@
       <c r="A663" s="8">
         <v>18025.0</v>
       </c>
-      <c r="B663" s="9" t="s">
+      <c r="B663" s="10" t="s">
         <v>1225</v>
       </c>
       <c r="C663" s="4" t="s">
@@ -19866,7 +19867,7 @@
       <c r="A664" s="8">
         <v>39033.0</v>
       </c>
-      <c r="B664" s="9" t="s">
+      <c r="B664" s="10" t="s">
         <v>1158</v>
       </c>
       <c r="C664" s="4" t="s">
@@ -19877,7 +19878,7 @@
       <c r="A665" s="8">
         <v>17033.0</v>
       </c>
-      <c r="B665" s="9" t="s">
+      <c r="B665" s="10" t="s">
         <v>1248</v>
       </c>
       <c r="C665" s="4" t="s">
@@ -19888,7 +19889,7 @@
       <c r="A666" s="8">
         <v>20037.0</v>
       </c>
-      <c r="B666" s="9" t="s">
+      <c r="B666" s="10" t="s">
         <v>1250</v>
       </c>
       <c r="C666" s="4" t="s">
@@ -19899,7 +19900,7 @@
       <c r="A667" s="8">
         <v>13079.0</v>
       </c>
-      <c r="B667" s="9" t="s">
+      <c r="B667" s="10" t="s">
         <v>1252</v>
       </c>
       <c r="C667" s="4" t="s">
@@ -19910,7 +19911,7 @@
       <c r="A668" s="8">
         <v>40037.0</v>
       </c>
-      <c r="B668" s="9" t="s">
+      <c r="B668" s="10" t="s">
         <v>1131</v>
       </c>
       <c r="C668" s="4" t="s">
@@ -19921,7 +19922,7 @@
       <c r="A669" s="8">
         <v>1041.0</v>
       </c>
-      <c r="B669" s="9" t="s">
+      <c r="B669" s="10" t="s">
         <v>1255</v>
       </c>
       <c r="C669" s="4" t="s">
@@ -19932,7 +19933,7 @@
       <c r="A670" s="8">
         <v>13081.0</v>
       </c>
-      <c r="B670" s="9" t="s">
+      <c r="B670" s="10" t="s">
         <v>1257</v>
       </c>
       <c r="C670" s="4" t="s">
@@ -19943,7 +19944,7 @@
       <c r="A671" s="8">
         <v>5035.0</v>
       </c>
-      <c r="B671" s="9" t="s">
+      <c r="B671" s="10" t="s">
         <v>1259</v>
       </c>
       <c r="C671" s="4" t="s">
@@ -19954,7 +19955,7 @@
       <c r="A672" s="8">
         <v>21055.0</v>
       </c>
-      <c r="B672" s="9" t="s">
+      <c r="B672" s="10" t="s">
         <v>1261</v>
       </c>
       <c r="C672" s="4" t="s">
@@ -19965,7 +19966,7 @@
       <c r="A673" s="8">
         <v>48105.0</v>
       </c>
-      <c r="B673" s="9" t="s">
+      <c r="B673" s="10" t="s">
         <v>1263</v>
       </c>
       <c r="C673" s="4" t="s">
@@ -19976,7 +19977,7 @@
       <c r="A674" s="8">
         <v>47033.0</v>
       </c>
-      <c r="B674" s="9" t="s">
+      <c r="B674" s="10" t="s">
         <v>1265</v>
       </c>
       <c r="C674" s="4" t="s">
@@ -19987,7 +19988,7 @@
       <c r="A675" s="8">
         <v>56011.0</v>
       </c>
-      <c r="B675" s="9" t="s">
+      <c r="B675" s="10" t="s">
         <v>1267</v>
       </c>
       <c r="C675" s="4" t="s">
@@ -19998,7 +19999,7 @@
       <c r="A676" s="8">
         <v>41013.0</v>
       </c>
-      <c r="B676" s="9" t="s">
+      <c r="B676" s="10" t="s">
         <v>1269</v>
       </c>
       <c r="C676" s="4" t="s">
@@ -20009,7 +20010,7 @@
       <c r="A677" s="8">
         <v>48107.0</v>
       </c>
-      <c r="B677" s="9" t="s">
+      <c r="B677" s="10" t="s">
         <v>1271</v>
       </c>
       <c r="C677" s="4" t="s">
@@ -20020,7 +20021,7 @@
       <c r="A678" s="8">
         <v>5037.0</v>
       </c>
-      <c r="B678" s="9" t="s">
+      <c r="B678" s="10" t="s">
         <v>1273</v>
       </c>
       <c r="C678" s="4" t="s">
@@ -20031,7 +20032,7 @@
       <c r="A679" s="8">
         <v>27035.0</v>
       </c>
-      <c r="B679" s="9" t="s">
+      <c r="B679" s="10" t="s">
         <v>607</v>
       </c>
       <c r="C679" s="4" t="s">
@@ -20042,7 +20043,7 @@
       <c r="A680" s="8">
         <v>8025.0</v>
       </c>
-      <c r="B680" s="9" t="s">
+      <c r="B680" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="C680" s="4" t="s">
@@ -20053,7 +20054,7 @@
       <c r="A681" s="8">
         <v>48109.0</v>
       </c>
-      <c r="B681" s="9" t="s">
+      <c r="B681" s="10" t="s">
         <v>1278</v>
       </c>
       <c r="C681" s="4" t="s">
@@ -20064,7 +20065,7 @@
       <c r="A682" s="8">
         <v>1043.0</v>
       </c>
-      <c r="B682" s="9" t="s">
+      <c r="B682" s="10" t="s">
         <v>1280</v>
       </c>
       <c r="C682" s="4" t="s">
@@ -20075,7 +20076,7 @@
       <c r="A683" s="8">
         <v>51047.0</v>
       </c>
-      <c r="B683" s="9" t="s">
+      <c r="B683" s="10" t="s">
         <v>704</v>
       </c>
       <c r="C683" s="4" t="s">
@@ -20086,7 +20087,7 @@
       <c r="A684" s="8">
         <v>34011.0</v>
       </c>
-      <c r="B684" s="9" t="s">
+      <c r="B684" s="10" t="s">
         <v>601</v>
       </c>
       <c r="C684" s="4" t="s">
@@ -20097,7 +20098,7 @@
       <c r="A685" s="8">
         <v>23005.0</v>
       </c>
-      <c r="B685" s="9" t="s">
+      <c r="B685" s="10" t="s">
         <v>1213</v>
       </c>
       <c r="C685" s="4" t="s">
@@ -20108,7 +20109,7 @@
       <c r="A686" s="8">
         <v>37051.0</v>
       </c>
-      <c r="B686" s="9" t="s">
+      <c r="B686" s="10" t="s">
         <v>190</v>
       </c>
       <c r="C686" s="4" t="s">
@@ -20119,7 +20120,7 @@
       <c r="A687" s="8">
         <v>42041.0</v>
       </c>
-      <c r="B687" s="9" t="s">
+      <c r="B687" s="10" t="s">
         <v>1286</v>
       </c>
       <c r="C687" s="4" t="s">
@@ -20130,7 +20131,7 @@
       <c r="A688" s="8">
         <v>17035.0</v>
       </c>
-      <c r="B688" s="9" t="s">
+      <c r="B688" s="10" t="s">
         <v>1288</v>
       </c>
       <c r="C688" s="4" t="s">
@@ -20141,7 +20142,7 @@
       <c r="A689" s="8">
         <v>47035.0</v>
       </c>
-      <c r="B689" s="9" t="s">
+      <c r="B689" s="10" t="s">
         <v>1290</v>
       </c>
       <c r="C689" s="4" t="s">
@@ -20152,7 +20153,7 @@
       <c r="A690" s="8">
         <v>51049.0</v>
       </c>
-      <c r="B690" s="9" t="s">
+      <c r="B690" s="10" t="s">
         <v>1292</v>
       </c>
       <c r="C690" s="4" t="s">
@@ -20163,7 +20164,7 @@
       <c r="A691" s="8">
         <v>21057.0</v>
       </c>
-      <c r="B691" s="9" t="s">
+      <c r="B691" s="10" t="s">
         <v>1294</v>
       </c>
       <c r="C691" s="4" t="s">
@@ -20174,7 +20175,7 @@
       <c r="A692" s="8">
         <v>31039.0</v>
       </c>
-      <c r="B692" s="9" t="s">
+      <c r="B692" s="10" t="s">
         <v>1296</v>
       </c>
       <c r="C692" s="4" t="s">
@@ -20185,7 +20186,7 @@
       <c r="A693" s="8">
         <v>37053.0</v>
       </c>
-      <c r="B693" s="9" t="s">
+      <c r="B693" s="10" t="s">
         <v>1298</v>
       </c>
       <c r="C693" s="4" t="s">
@@ -20196,7 +20197,7 @@
       <c r="A694" s="8">
         <v>41015.0</v>
       </c>
-      <c r="B694" s="9" t="s">
+      <c r="B694" s="10" t="s">
         <v>1300</v>
       </c>
       <c r="C694" s="4" t="s">
@@ -20207,7 +20208,7 @@
       <c r="A695" s="8">
         <v>35009.0</v>
       </c>
-      <c r="B695" s="9" t="s">
+      <c r="B695" s="10" t="s">
         <v>721</v>
       </c>
       <c r="C695" s="4" t="s">
@@ -20218,7 +20219,7 @@
       <c r="A696" s="8">
         <v>8027.0</v>
       </c>
-      <c r="B696" s="9" t="s">
+      <c r="B696" s="10" t="s">
         <v>1303</v>
       </c>
       <c r="C696" s="4" t="s">
@@ -20229,7 +20230,7 @@
       <c r="A697" s="8">
         <v>46033.0</v>
       </c>
-      <c r="B697" s="9" t="s">
+      <c r="B697" s="10" t="s">
         <v>174</v>
       </c>
       <c r="C697" s="4" t="s">
@@ -20240,7 +20241,7 @@
       <c r="A698" s="8">
         <v>16037.0</v>
       </c>
-      <c r="B698" s="9" t="s">
+      <c r="B698" s="10" t="s">
         <v>1306</v>
       </c>
       <c r="C698" s="4" t="s">
@@ -20251,7 +20252,7 @@
       <c r="A699" s="8">
         <v>40039.0</v>
       </c>
-      <c r="B699" s="9" t="s">
+      <c r="B699" s="10" t="s">
         <v>1308</v>
       </c>
       <c r="C699" s="4" t="s">
@@ -20262,7 +20263,7 @@
       <c r="A700" s="8">
         <v>31041.0</v>
       </c>
-      <c r="B700" s="9" t="s">
+      <c r="B700" s="10" t="s">
         <v>1240</v>
       </c>
       <c r="C700" s="4" t="s">
@@ -20273,7 +20274,7 @@
       <c r="A701" s="8">
         <v>30017.0</v>
       </c>
-      <c r="B701" s="9" t="s">
+      <c r="B701" s="10" t="s">
         <v>1311</v>
       </c>
       <c r="C701" s="4" t="s">
@@ -20284,7 +20285,7 @@
       <c r="A702" s="8">
         <v>39035.0</v>
       </c>
-      <c r="B702" s="9" t="s">
+      <c r="B702" s="10" t="s">
         <v>1313</v>
       </c>
       <c r="C702" s="4" t="s">
@@ -20295,7 +20296,7 @@
       <c r="A703" s="8">
         <v>29057.0</v>
       </c>
-      <c r="B703" s="9" t="s">
+      <c r="B703" s="10" t="s">
         <v>646</v>
       </c>
       <c r="C703" s="4" t="s">
@@ -20306,7 +20307,7 @@
       <c r="A704" s="8">
         <v>13083.0</v>
       </c>
-      <c r="B704" s="9" t="s">
+      <c r="B704" s="10" t="s">
         <v>1316</v>
       </c>
       <c r="C704" s="4" t="s">
@@ -20317,7 +20318,7 @@
       <c r="A705" s="8">
         <v>49009.0</v>
       </c>
-      <c r="B705" s="9" t="s">
+      <c r="B705" s="10" t="s">
         <v>1318</v>
       </c>
       <c r="C705" s="4" t="s">
@@ -20328,7 +20329,7 @@
       <c r="A706" s="8">
         <v>27037.0</v>
       </c>
-      <c r="B706" s="9" t="s">
+      <c r="B706" s="10" t="s">
         <v>1064</v>
       </c>
       <c r="C706" s="4" t="s">
@@ -20339,7 +20340,7 @@
       <c r="A707" s="8">
         <v>31043.0</v>
       </c>
-      <c r="B707" s="9" t="s">
+      <c r="B707" s="10" t="s">
         <v>1321</v>
       </c>
       <c r="C707" s="4" t="s">
@@ -20350,7 +20351,7 @@
       <c r="A708" s="8">
         <v>1045.0</v>
       </c>
-      <c r="B708" s="9" t="s">
+      <c r="B708" s="10" t="s">
         <v>1050</v>
       </c>
       <c r="C708" s="4" t="s">
@@ -20361,7 +20362,7 @@
       <c r="A709" s="8">
         <v>48111.0</v>
       </c>
-      <c r="B709" s="9" t="s">
+      <c r="B709" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C709" s="4" t="s">
@@ -20372,7 +20373,7 @@
       <c r="A710" s="8">
         <v>48113.0</v>
       </c>
-      <c r="B710" s="9" t="s">
+      <c r="B710" s="10" t="s">
         <v>568</v>
       </c>
       <c r="C710" s="4" t="s">
@@ -20383,7 +20384,7 @@
       <c r="A711" s="8">
         <v>19049.0</v>
       </c>
-      <c r="B711" s="9" t="s">
+      <c r="B711" s="10" t="s">
         <v>822</v>
       </c>
       <c r="C711" s="4" t="s">
@@ -20394,7 +20395,7 @@
       <c r="A712" s="8">
         <v>1047.0</v>
       </c>
-      <c r="B712" s="9" t="s">
+      <c r="B712" s="10" t="s">
         <v>1327</v>
       </c>
       <c r="C712" s="4" t="s">
@@ -20405,7 +20406,7 @@
       <c r="A713" s="8">
         <v>5039.0</v>
       </c>
-      <c r="B713" s="9" t="s">
+      <c r="B713" s="10" t="s">
         <v>1286</v>
       </c>
       <c r="C713" s="4" t="s">
@@ -20416,7 +20417,7 @@
       <c r="A714" s="8">
         <v>29059.0</v>
       </c>
-      <c r="B714" s="9" t="s">
+      <c r="B714" s="10" t="s">
         <v>1330</v>
       </c>
       <c r="C714" s="4" t="s">
@@ -20427,7 +20428,7 @@
       <c r="A715" s="8">
         <v>55025.0</v>
       </c>
-      <c r="B715" s="9" t="s">
+      <c r="B715" s="10" t="s">
         <v>1332</v>
       </c>
       <c r="C715" s="4" t="s">
@@ -20438,7 +20439,7 @@
       <c r="A716" s="8">
         <v>30019.0</v>
       </c>
-      <c r="B716" s="9" t="s">
+      <c r="B716" s="10" t="s">
         <v>1334</v>
       </c>
       <c r="C716" s="4" t="s">
@@ -20449,7 +20450,7 @@
       <c r="A717" s="8">
         <v>51590.0</v>
       </c>
-      <c r="B717" s="9" t="s">
+      <c r="B717" s="10" t="s">
         <v>1336</v>
       </c>
       <c r="C717" s="4" t="s">
@@ -20460,7 +20461,7 @@
       <c r="A718" s="8">
         <v>37055.0</v>
       </c>
-      <c r="B718" s="9" t="s">
+      <c r="B718" s="10" t="s">
         <v>1338</v>
       </c>
       <c r="C718" s="4" t="s">
@@ -20471,7 +20472,7 @@
       <c r="A719" s="8">
         <v>39037.0</v>
       </c>
-      <c r="B719" s="9" t="s">
+      <c r="B719" s="10" t="s">
         <v>1340</v>
       </c>
       <c r="C719" s="4" t="s">
@@ -20482,7 +20483,7 @@
       <c r="A720" s="8">
         <v>45031.0</v>
       </c>
-      <c r="B720" s="9" t="s">
+      <c r="B720" s="10" t="s">
         <v>1342</v>
       </c>
       <c r="C720" s="4" t="s">
@@ -20493,7 +20494,7 @@
       <c r="A721" s="8">
         <v>42043.0</v>
       </c>
-      <c r="B721" s="9" t="s">
+      <c r="B721" s="10" t="s">
         <v>1318</v>
       </c>
       <c r="C721" s="4" t="s">
@@ -20504,7 +20505,7 @@
       <c r="A722" s="8">
         <v>47037.0</v>
       </c>
-      <c r="B722" s="9" t="s">
+      <c r="B722" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="C722" s="4" t="s">
@@ -20515,7 +20516,7 @@
       <c r="A723" s="8">
         <v>37057.0</v>
       </c>
-      <c r="B723" s="9" t="s">
+      <c r="B723" s="10" t="s">
         <v>1347</v>
       </c>
       <c r="C723" s="4" t="s">
@@ -20526,7 +20527,7 @@
       <c r="A724" s="8">
         <v>37059.0</v>
       </c>
-      <c r="B724" s="9" t="s">
+      <c r="B724" s="10" t="s">
         <v>1349</v>
       </c>
       <c r="C724" s="4" t="s">
@@ -20537,7 +20538,7 @@
       <c r="A725" s="8">
         <v>18027.0</v>
       </c>
-      <c r="B725" s="9" t="s">
+      <c r="B725" s="10" t="s">
         <v>1351</v>
       </c>
       <c r="C725" s="4" t="s">
@@ -20548,7 +20549,7 @@
       <c r="A726" s="8">
         <v>29061.0</v>
       </c>
-      <c r="B726" s="9" t="s">
+      <c r="B726" s="10" t="s">
         <v>1353</v>
       </c>
       <c r="C726" s="4" t="s">
@@ -20559,7 +20560,7 @@
       <c r="A727" s="8">
         <v>21059.0</v>
       </c>
-      <c r="B727" s="9" t="s">
+      <c r="B727" s="10" t="s">
         <v>1355</v>
       </c>
       <c r="C727" s="4" t="s">
@@ -20570,7 +20571,7 @@
       <c r="A728" s="8">
         <v>49011.0</v>
       </c>
-      <c r="B728" s="9" t="s">
+      <c r="B728" s="10" t="s">
         <v>1357</v>
       </c>
       <c r="C728" s="4" t="s">
@@ -20581,7 +20582,7 @@
       <c r="A729" s="8">
         <v>19051.0</v>
       </c>
-      <c r="B729" s="9" t="s">
+      <c r="B729" s="10" t="s">
         <v>1359</v>
       </c>
       <c r="C729" s="4" t="s">
@@ -20592,7 +20593,7 @@
       <c r="A730" s="8">
         <v>46035.0</v>
       </c>
-      <c r="B730" s="9" t="s">
+      <c r="B730" s="10" t="s">
         <v>1361</v>
       </c>
       <c r="C730" s="4" t="s">
@@ -20603,7 +20604,7 @@
       <c r="A731" s="8">
         <v>31045.0</v>
       </c>
-      <c r="B731" s="9" t="s">
+      <c r="B731" s="10" t="s">
         <v>1363</v>
       </c>
       <c r="C731" s="4" t="s">
@@ -20614,7 +20615,7 @@
       <c r="A732" s="8">
         <v>31047.0</v>
       </c>
-      <c r="B732" s="9" t="s">
+      <c r="B732" s="10" t="s">
         <v>1365</v>
       </c>
       <c r="C732" s="4" t="s">
@@ -20625,7 +20626,7 @@
       <c r="A733" s="8">
         <v>48115.0</v>
       </c>
-      <c r="B733" s="9" t="s">
+      <c r="B733" s="10" t="s">
         <v>1060</v>
       </c>
       <c r="C733" s="4" t="s">
@@ -20636,7 +20637,7 @@
       <c r="A734" s="8">
         <v>30021.0</v>
       </c>
-      <c r="B734" s="9" t="s">
+      <c r="B734" s="10" t="s">
         <v>1368</v>
       </c>
       <c r="C734" s="4" t="s">
@@ -20647,7 +20648,7 @@
       <c r="A735" s="8">
         <v>13085.0</v>
       </c>
-      <c r="B735" s="9" t="s">
+      <c r="B735" s="10" t="s">
         <v>1261</v>
       </c>
       <c r="C735" s="4" t="s">
@@ -20658,7 +20659,7 @@
       <c r="A736" s="8">
         <v>46037.0</v>
       </c>
-      <c r="B736" s="9" t="s">
+      <c r="B736" s="10" t="s">
         <v>1363</v>
       </c>
       <c r="C736" s="4" t="s">
@@ -20669,7 +20670,7 @@
       <c r="A737" s="8">
         <v>35011.0</v>
       </c>
-      <c r="B737" s="9" t="s">
+      <c r="B737" s="10" t="s">
         <v>1372</v>
       </c>
       <c r="C737" s="4" t="s">
@@ -20680,7 +20681,7 @@
       <c r="A738" s="8">
         <v>22031.0</v>
       </c>
-      <c r="B738" s="9" t="s">
+      <c r="B738" s="10" t="s">
         <v>1374</v>
       </c>
       <c r="C738" s="4" t="s">
@@ -20691,7 +20692,7 @@
       <c r="A739" s="8">
         <v>17039.0</v>
       </c>
-      <c r="B739" s="9" t="s">
+      <c r="B739" s="10" t="s">
         <v>1261</v>
       </c>
       <c r="C739" s="4" t="s">
@@ -20702,7 +20703,7 @@
       <c r="A740" s="8">
         <v>48117.0</v>
       </c>
-      <c r="B740" s="9" t="s">
+      <c r="B740" s="10" t="s">
         <v>458</v>
       </c>
       <c r="C740" s="4" t="s">
@@ -20713,7 +20714,7 @@
       <c r="A741" s="8">
         <v>18029.0</v>
       </c>
-      <c r="B741" s="9" t="s">
+      <c r="B741" s="10" t="s">
         <v>312</v>
       </c>
       <c r="C741" s="4" t="s">
@@ -20724,7 +20725,7 @@
       <c r="A742" s="8">
         <v>13087.0</v>
       </c>
-      <c r="B742" s="9" t="s">
+      <c r="B742" s="10" t="s">
         <v>338</v>
       </c>
       <c r="C742" s="4" t="s">
@@ -20735,7 +20736,7 @@
       <c r="A743" s="8">
         <v>19053.0</v>
       </c>
-      <c r="B743" s="9" t="s">
+      <c r="B743" s="10" t="s">
         <v>1380</v>
       </c>
       <c r="C743" s="4" t="s">
@@ -20746,7 +20747,7 @@
       <c r="A744" s="8">
         <v>20039.0</v>
       </c>
-      <c r="B744" s="9" t="s">
+      <c r="B744" s="10" t="s">
         <v>1382</v>
       </c>
       <c r="C744" s="4" t="s">
@@ -20757,7 +20758,7 @@
       <c r="A745" s="8">
         <v>47039.0</v>
       </c>
-      <c r="B745" s="9" t="s">
+      <c r="B745" s="10" t="s">
         <v>1384</v>
       </c>
       <c r="C745" s="4" t="s">
@@ -20768,7 +20769,7 @@
       <c r="A746" s="8">
         <v>18031.0</v>
       </c>
-      <c r="B746" s="9" t="s">
+      <c r="B746" s="10" t="s">
         <v>292</v>
       </c>
       <c r="C746" s="4" t="s">
@@ -20779,7 +20780,7 @@
       <c r="A747" s="8">
         <v>30023.0</v>
       </c>
-      <c r="B747" s="9" t="s">
+      <c r="B747" s="10" t="s">
         <v>652</v>
       </c>
       <c r="C747" s="4" t="s">
@@ -20790,7 +20791,7 @@
       <c r="A748" s="8">
         <v>39039.0</v>
       </c>
-      <c r="B748" s="9" t="s">
+      <c r="B748" s="10" t="s">
         <v>1131</v>
       </c>
       <c r="C748" s="4" t="s">
@@ -20801,7 +20802,7 @@
       <c r="A749" s="8">
         <v>13089.0</v>
       </c>
-      <c r="B749" s="9" t="s">
+      <c r="B749" s="10" t="s">
         <v>1389</v>
       </c>
       <c r="C749" s="4" t="s">
@@ -20812,7 +20813,7 @@
       <c r="A750" s="8">
         <v>17037.0</v>
       </c>
-      <c r="B750" s="9" t="s">
+      <c r="B750" s="10" t="s">
         <v>1391</v>
       </c>
       <c r="C750" s="4" t="s">
@@ -20823,7 +20824,7 @@
       <c r="A751" s="8">
         <v>18033.0</v>
       </c>
-      <c r="B751" s="9" t="s">
+      <c r="B751" s="10" t="s">
         <v>1393</v>
       </c>
       <c r="C751" s="4" t="s">
@@ -20834,7 +20835,7 @@
       <c r="A752" s="8">
         <v>29063.0</v>
       </c>
-      <c r="B752" s="9" t="s">
+      <c r="B752" s="10" t="s">
         <v>1395</v>
       </c>
       <c r="C752" s="4" t="s">
@@ -20845,7 +20846,7 @@
       <c r="A753" s="8">
         <v>1049.0</v>
       </c>
-      <c r="B753" s="9" t="s">
+      <c r="B753" s="10" t="s">
         <v>1397</v>
       </c>
       <c r="C753" s="4" t="s">
@@ -20856,7 +20857,7 @@
       <c r="A754" s="8">
         <v>47041.0</v>
       </c>
-      <c r="B754" s="9" t="s">
+      <c r="B754" s="10" t="s">
         <v>1399</v>
       </c>
       <c r="C754" s="4" t="s">
@@ -20867,7 +20868,7 @@
       <c r="A755" s="8">
         <v>6015.0</v>
       </c>
-      <c r="B755" s="9" t="s">
+      <c r="B755" s="10" t="s">
         <v>1401</v>
       </c>
       <c r="C755" s="4" t="s">
@@ -20878,7 +20879,7 @@
       <c r="A756" s="8">
         <v>42045.0</v>
       </c>
-      <c r="B756" s="9" t="s">
+      <c r="B756" s="10" t="s">
         <v>1403</v>
       </c>
       <c r="C756" s="4" t="s">
@@ -20889,7 +20890,7 @@
       <c r="A757" s="8">
         <v>19055.0</v>
       </c>
-      <c r="B757" s="9" t="s">
+      <c r="B757" s="10" t="s">
         <v>1405</v>
       </c>
       <c r="C757" s="4" t="s">
@@ -20900,7 +20901,7 @@
       <c r="A758" s="8">
         <v>36025.0</v>
       </c>
-      <c r="B758" s="9" t="s">
+      <c r="B758" s="10" t="s">
         <v>1407</v>
       </c>
       <c r="C758" s="4" t="s">
@@ -20911,7 +20912,7 @@
       <c r="A759" s="8">
         <v>39041.0</v>
       </c>
-      <c r="B759" s="9" t="s">
+      <c r="B759" s="10" t="s">
         <v>737</v>
       </c>
       <c r="C759" s="4" t="s">
@@ -20922,8 +20923,8 @@
       <c r="A760" s="8">
         <v>18035.0</v>
       </c>
-      <c r="B760" s="9" t="s">
-        <v>60</v>
+      <c r="B760" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C760" s="4" t="s">
         <v>1410</v>
@@ -20933,7 +20934,7 @@
       <c r="A761" s="8">
         <v>40041.0</v>
       </c>
-      <c r="B761" s="9" t="s">
+      <c r="B761" s="10" t="s">
         <v>1411</v>
       </c>
       <c r="C761" s="4" t="s">
@@ -20944,7 +20945,7 @@
       <c r="A762" s="8">
         <v>26041.0</v>
       </c>
-      <c r="B762" s="9" t="s">
+      <c r="B762" s="10" t="s">
         <v>1413</v>
       </c>
       <c r="C762" s="4" t="s">
@@ -20955,7 +20956,7 @@
       <c r="A763" s="8">
         <v>8029.0</v>
       </c>
-      <c r="B763" s="9" t="s">
+      <c r="B763" s="10" t="s">
         <v>1415</v>
       </c>
       <c r="C763" s="4" t="s">
@@ -20966,7 +20967,7 @@
       <c r="A764" s="8">
         <v>48119.0</v>
       </c>
-      <c r="B764" s="9" t="s">
+      <c r="B764" s="10" t="s">
         <v>698</v>
       </c>
       <c r="C764" s="4" t="s">
@@ -20977,7 +20978,7 @@
       <c r="A765" s="8">
         <v>2068.0</v>
       </c>
-      <c r="B765" s="9" t="s">
+      <c r="B765" s="10" t="s">
         <v>1418</v>
       </c>
       <c r="C765" s="4" t="s">
@@ -20988,7 +20989,7 @@
       <c r="A766" s="8">
         <v>29065.0</v>
       </c>
-      <c r="B766" s="9" t="s">
+      <c r="B766" s="10" t="s">
         <v>1420</v>
       </c>
       <c r="C766" s="4" t="s">
@@ -20999,7 +21000,7 @@
       <c r="A767" s="8">
         <v>48121.0</v>
       </c>
-      <c r="B767" s="9" t="s">
+      <c r="B767" s="10" t="s">
         <v>1150</v>
       </c>
       <c r="C767" s="4" t="s">
@@ -21010,7 +21011,7 @@
       <c r="A768" s="8">
         <v>8031.0</v>
       </c>
-      <c r="B768" s="9" t="s">
+      <c r="B768" s="10" t="s">
         <v>206</v>
       </c>
       <c r="C768" s="4" t="s">
@@ -21021,7 +21022,7 @@
       <c r="A769" s="8">
         <v>19057.0</v>
       </c>
-      <c r="B769" s="9" t="s">
+      <c r="B769" s="10" t="s">
         <v>371</v>
       </c>
       <c r="C769" s="4" t="s">
@@ -21032,7 +21033,7 @@
       <c r="A770" s="8">
         <v>41017.0</v>
       </c>
-      <c r="B770" s="9" t="s">
+      <c r="B770" s="10" t="s">
         <v>753</v>
       </c>
       <c r="C770" s="4" t="s">
@@ -21043,7 +21044,7 @@
       <c r="A771" s="8">
         <v>5041.0</v>
       </c>
-      <c r="B771" s="9" t="s">
+      <c r="B771" s="10" t="s">
         <v>684</v>
       </c>
       <c r="C771" s="4" t="s">
@@ -21054,7 +21055,7 @@
       <c r="A772" s="8">
         <v>28033.0</v>
       </c>
-      <c r="B772" s="9" t="s">
+      <c r="B772" s="10" t="s">
         <v>1427</v>
       </c>
       <c r="C772" s="4" t="s">
@@ -21065,7 +21066,7 @@
       <c r="A773" s="8">
         <v>12027.0</v>
       </c>
-      <c r="B773" s="9" t="s">
+      <c r="B773" s="10" t="s">
         <v>1429</v>
       </c>
       <c r="C773" s="4" t="s">
@@ -21076,7 +21077,7 @@
       <c r="A774" s="8">
         <v>31049.0</v>
       </c>
-      <c r="B774" s="9" t="s">
+      <c r="B774" s="10" t="s">
         <v>1431</v>
       </c>
       <c r="C774" s="4" t="s">
@@ -21087,7 +21088,7 @@
       <c r="A775" s="8">
         <v>46039.0</v>
       </c>
-      <c r="B775" s="9" t="s">
+      <c r="B775" s="10" t="s">
         <v>1433</v>
       </c>
       <c r="C775" s="4" t="s">
@@ -21098,7 +21099,7 @@
       <c r="A776" s="8">
         <v>46041.0</v>
       </c>
-      <c r="B776" s="9" t="s">
+      <c r="B776" s="10" t="s">
         <v>1435</v>
       </c>
       <c r="C776" s="4" t="s">
@@ -21109,7 +21110,7 @@
       <c r="A777" s="8">
         <v>40043.0</v>
       </c>
-      <c r="B777" s="9" t="s">
+      <c r="B777" s="10" t="s">
         <v>1437</v>
       </c>
       <c r="C777" s="4" t="s">
@@ -21120,7 +21121,7 @@
       <c r="A778" s="8">
         <v>48123.0</v>
       </c>
-      <c r="B778" s="9" t="s">
+      <c r="B778" s="10" t="s">
         <v>1234</v>
       </c>
       <c r="C778" s="4" t="s">
@@ -21131,7 +21132,7 @@
       <c r="A779" s="8">
         <v>48125.0</v>
       </c>
-      <c r="B779" s="9" t="s">
+      <c r="B779" s="10" t="s">
         <v>1440</v>
       </c>
       <c r="C779" s="4" t="s">
@@ -21142,7 +21143,7 @@
       <c r="A780" s="8">
         <v>51051.0</v>
       </c>
-      <c r="B780" s="9" t="s">
+      <c r="B780" s="10" t="s">
         <v>1442</v>
       </c>
       <c r="C780" s="4" t="s">
@@ -21153,7 +21154,7 @@
       <c r="A781" s="8">
         <v>38021.0</v>
       </c>
-      <c r="B781" s="9" t="s">
+      <c r="B781" s="10" t="s">
         <v>506</v>
       </c>
       <c r="C781" s="4" t="s">
@@ -21164,7 +21165,7 @@
       <c r="A782" s="8">
         <v>26043.0</v>
       </c>
-      <c r="B782" s="9" t="s">
+      <c r="B782" s="10" t="s">
         <v>1445</v>
       </c>
       <c r="C782" s="4" t="s">
@@ -21175,7 +21176,7 @@
       <c r="A783" s="8">
         <v>19059.0</v>
       </c>
-      <c r="B783" s="9" t="s">
+      <c r="B783" s="10" t="s">
         <v>1447</v>
       </c>
       <c r="C783" s="4" t="s">
@@ -21186,7 +21187,7 @@
       <c r="A784" s="8">
         <v>20041.0</v>
       </c>
-      <c r="B784" s="9" t="s">
+      <c r="B784" s="10" t="s">
         <v>1449</v>
       </c>
       <c r="C784" s="4" t="s">
@@ -21197,7 +21198,7 @@
       <c r="A785" s="8">
         <v>47043.0</v>
       </c>
-      <c r="B785" s="9" t="s">
+      <c r="B785" s="10" t="s">
         <v>1451</v>
       </c>
       <c r="C785" s="4" t="s">
@@ -21208,7 +21209,7 @@
       <c r="A786" s="8">
         <v>2070.0</v>
       </c>
-      <c r="B786" s="9" t="s">
+      <c r="B786" s="10" t="s">
         <v>1453</v>
       </c>
       <c r="C786" s="4" t="s">
@@ -21219,7 +21220,7 @@
       <c r="A787" s="8">
         <v>45033.0</v>
       </c>
-      <c r="B787" s="9" t="s">
+      <c r="B787" s="10" t="s">
         <v>1455</v>
       </c>
       <c r="C787" s="4" t="s">
@@ -21230,7 +21231,7 @@
       <c r="A788" s="8">
         <v>48127.0</v>
       </c>
-      <c r="B788" s="9" t="s">
+      <c r="B788" s="10" t="s">
         <v>1457</v>
       </c>
       <c r="C788" s="4" t="s">
@@ -21241,7 +21242,7 @@
       <c r="A789" s="8">
         <v>51053.0</v>
       </c>
-      <c r="B789" s="9" t="s">
+      <c r="B789" s="10" t="s">
         <v>479</v>
       </c>
       <c r="C789" s="4" t="s">
@@ -21252,7 +21253,7 @@
       <c r="A790" s="8">
         <v>11001.0</v>
       </c>
-      <c r="B790" s="9" t="s">
+      <c r="B790" s="10" t="s">
         <v>1460</v>
       </c>
       <c r="C790" s="4" t="s">
@@ -21263,7 +21264,7 @@
       <c r="A791" s="8">
         <v>38023.0</v>
       </c>
-      <c r="B791" s="9" t="s">
+      <c r="B791" s="10" t="s">
         <v>1462</v>
       </c>
       <c r="C791" s="4" t="s">
@@ -21274,7 +21275,7 @@
       <c r="A792" s="8">
         <v>12029.0</v>
       </c>
-      <c r="B792" s="9" t="s">
+      <c r="B792" s="10" t="s">
         <v>1464</v>
       </c>
       <c r="C792" s="4" t="s">
@@ -21285,7 +21286,7 @@
       <c r="A793" s="8">
         <v>31051.0</v>
       </c>
-      <c r="B793" s="9" t="s">
+      <c r="B793" s="10" t="s">
         <v>861</v>
       </c>
       <c r="C793" s="4" t="s">
@@ -21296,7 +21297,7 @@
       <c r="A794" s="8">
         <v>35013.0</v>
       </c>
-      <c r="B794" s="9" t="s">
+      <c r="B794" s="10" t="s">
         <v>1467</v>
       </c>
       <c r="C794" s="4" t="s">
@@ -21307,7 +21308,7 @@
       <c r="A795" s="8">
         <v>54017.0</v>
       </c>
-      <c r="B795" s="9" t="s">
+      <c r="B795" s="10" t="s">
         <v>1469</v>
       </c>
       <c r="C795" s="4" t="s">
@@ -21318,7 +21319,7 @@
       <c r="A796" s="8">
         <v>55027.0</v>
       </c>
-      <c r="B796" s="9" t="s">
+      <c r="B796" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C796" s="4" t="s">
@@ -21329,7 +21330,7 @@
       <c r="A797" s="8">
         <v>27039.0</v>
       </c>
-      <c r="B797" s="9" t="s">
+      <c r="B797" s="10" t="s">
         <v>1472</v>
       </c>
       <c r="C797" s="4" t="s">
@@ -21340,7 +21341,7 @@
       <c r="A798" s="8">
         <v>31053.0</v>
       </c>
-      <c r="B798" s="9" t="s">
+      <c r="B798" s="10" t="s">
         <v>1474</v>
       </c>
       <c r="C798" s="4" t="s">
@@ -21351,7 +21352,7 @@
       <c r="A799" s="8">
         <v>13091.0</v>
       </c>
-      <c r="B799" s="9" t="s">
+      <c r="B799" s="10" t="s">
         <v>1476</v>
       </c>
       <c r="C799" s="4" t="s">
@@ -21362,7 +21363,7 @@
       <c r="A800" s="8">
         <v>8033.0</v>
       </c>
-      <c r="B800" s="9" t="s">
+      <c r="B800" s="10" t="s">
         <v>1478</v>
       </c>
       <c r="C800" s="4" t="s">
@@ -21373,7 +21374,7 @@
       <c r="A801" s="8">
         <v>20043.0</v>
       </c>
-      <c r="B801" s="9" t="s">
+      <c r="B801" s="10" t="s">
         <v>1480</v>
       </c>
       <c r="C801" s="4" t="s">
@@ -21384,7 +21385,7 @@
       <c r="A802" s="8">
         <v>48129.0</v>
       </c>
-      <c r="B802" s="9" t="s">
+      <c r="B802" s="10" t="s">
         <v>601</v>
       </c>
       <c r="C802" s="4" t="s">
@@ -21395,7 +21396,7 @@
       <c r="A803" s="8">
         <v>13093.0</v>
       </c>
-      <c r="B803" s="9" t="s">
+      <c r="B803" s="10" t="s">
         <v>1483</v>
       </c>
       <c r="C803" s="4" t="s">
@@ -21406,8 +21407,8 @@
       <c r="A804" s="8">
         <v>55029.0</v>
       </c>
-      <c r="B804" s="9" t="s">
-        <v>58</v>
+      <c r="B804" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C804" s="4" t="s">
         <v>1485</v>
@@ -21417,7 +21418,7 @@
       <c r="A805" s="8">
         <v>45035.0</v>
       </c>
-      <c r="B805" s="9" t="s">
+      <c r="B805" s="10" t="s">
         <v>275</v>
       </c>
       <c r="C805" s="4" t="s">
@@ -21428,7 +21429,7 @@
       <c r="A806" s="8">
         <v>24019.0</v>
       </c>
-      <c r="B806" s="9" t="s">
+      <c r="B806" s="10" t="s">
         <v>1487</v>
       </c>
       <c r="C806" s="4" t="s">
@@ -21439,7 +21440,7 @@
       <c r="A807" s="8">
         <v>13095.0</v>
       </c>
-      <c r="B807" s="9" t="s">
+      <c r="B807" s="10" t="s">
         <v>799</v>
       </c>
       <c r="C807" s="4" t="s">
@@ -21450,7 +21451,7 @@
       <c r="A808" s="8">
         <v>31055.0</v>
       </c>
-      <c r="B808" s="9" t="s">
+      <c r="B808" s="10" t="s">
         <v>1490</v>
       </c>
       <c r="C808" s="4" t="s">
@@ -21461,7 +21462,7 @@
       <c r="A809" s="8">
         <v>27041.0</v>
       </c>
-      <c r="B809" s="9" t="s">
+      <c r="B809" s="10" t="s">
         <v>1492</v>
       </c>
       <c r="C809" s="4" t="s">
@@ -21472,7 +21473,7 @@
       <c r="A810" s="8">
         <v>55031.0</v>
       </c>
-      <c r="B810" s="9" t="s">
+      <c r="B810" s="10" t="s">
         <v>1494</v>
       </c>
       <c r="C810" s="4" t="s">
@@ -21483,7 +21484,7 @@
       <c r="A811" s="8">
         <v>46043.0</v>
       </c>
-      <c r="B811" s="9" t="s">
+      <c r="B811" s="10" t="s">
         <v>714</v>
       </c>
       <c r="C811" s="4" t="s">
@@ -21494,7 +21495,7 @@
       <c r="A812" s="8">
         <v>8035.0</v>
       </c>
-      <c r="B812" s="9" t="s">
+      <c r="B812" s="10" t="s">
         <v>1497</v>
       </c>
       <c r="C812" s="4" t="s">
@@ -21505,7 +21506,7 @@
       <c r="A813" s="8">
         <v>20045.0</v>
       </c>
-      <c r="B813" s="9" t="s">
+      <c r="B813" s="10" t="s">
         <v>753</v>
       </c>
       <c r="C813" s="4" t="s">
@@ -21516,7 +21517,7 @@
       <c r="A814" s="8">
         <v>53017.0</v>
       </c>
-      <c r="B814" s="9" t="s">
+      <c r="B814" s="10" t="s">
         <v>1500</v>
       </c>
       <c r="C814" s="4" t="s">
@@ -21527,7 +21528,7 @@
       <c r="A815" s="8">
         <v>32005.0</v>
       </c>
-      <c r="B815" s="9" t="s">
+      <c r="B815" s="10" t="s">
         <v>1259</v>
       </c>
       <c r="C815" s="4" t="s">
@@ -21538,7 +21539,7 @@
       <c r="A816" s="8">
         <v>41019.0</v>
       </c>
-      <c r="B816" s="9" t="s">
+      <c r="B816" s="10" t="s">
         <v>955</v>
       </c>
       <c r="C816" s="4" t="s">
@@ -21549,7 +21550,7 @@
       <c r="A817" s="8">
         <v>29067.0</v>
       </c>
-      <c r="B817" s="9" t="s">
+      <c r="B817" s="10" t="s">
         <v>1504</v>
       </c>
       <c r="C817" s="4" t="s">
@@ -21560,7 +21561,7 @@
       <c r="A818" s="8">
         <v>13097.0</v>
       </c>
-      <c r="B818" s="9" t="s">
+      <c r="B818" s="10" t="s">
         <v>1506</v>
       </c>
       <c r="C818" s="4" t="s">
@@ -21571,7 +21572,7 @@
       <c r="A819" s="8">
         <v>17041.0</v>
       </c>
-      <c r="B819" s="9" t="s">
+      <c r="B819" s="10" t="s">
         <v>1225</v>
       </c>
       <c r="C819" s="4" t="s">
@@ -21582,7 +21583,7 @@
       <c r="A820" s="8">
         <v>5043.0</v>
       </c>
-      <c r="B820" s="9" t="s">
+      <c r="B820" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="C820" s="4" t="s">
@@ -21593,7 +21594,7 @@
       <c r="A821" s="8">
         <v>18037.0</v>
       </c>
-      <c r="B821" s="9" t="s">
+      <c r="B821" s="10" t="s">
         <v>1511</v>
       </c>
       <c r="C821" s="4" t="s">
@@ -21604,7 +21605,7 @@
       <c r="A822" s="8">
         <v>19061.0</v>
       </c>
-      <c r="B822" s="9" t="s">
+      <c r="B822" s="10" t="s">
         <v>1513</v>
       </c>
       <c r="C822" s="4" t="s">
@@ -21615,7 +21616,7 @@
       <c r="A823" s="8">
         <v>49013.0</v>
       </c>
-      <c r="B823" s="9" t="s">
+      <c r="B823" s="10" t="s">
         <v>1515</v>
       </c>
       <c r="C823" s="4" t="s">
@@ -21626,7 +21627,7 @@
       <c r="A824" s="8">
         <v>25007.0</v>
       </c>
-      <c r="B824" s="9" t="s">
+      <c r="B824" s="10" t="s">
         <v>1517</v>
       </c>
       <c r="C824" s="4" t="s">
@@ -21637,7 +21638,7 @@
       <c r="A825" s="8">
         <v>31057.0</v>
       </c>
-      <c r="B825" s="9" t="s">
+      <c r="B825" s="10" t="s">
         <v>1519</v>
       </c>
       <c r="C825" s="4" t="s">
@@ -21648,7 +21649,7 @@
       <c r="A826" s="8">
         <v>29069.0</v>
       </c>
-      <c r="B826" s="9" t="s">
+      <c r="B826" s="10" t="s">
         <v>1521</v>
       </c>
       <c r="C826" s="4" t="s">
@@ -21659,7 +21660,7 @@
       <c r="A827" s="8">
         <v>55033.0</v>
       </c>
-      <c r="B827" s="9" t="s">
+      <c r="B827" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C827" s="4" t="s">
@@ -21670,7 +21671,7 @@
       <c r="A828" s="8">
         <v>38025.0</v>
       </c>
-      <c r="B828" s="9" t="s">
+      <c r="B828" s="10" t="s">
         <v>1030</v>
       </c>
       <c r="C828" s="4" t="s">
@@ -21681,7 +21682,7 @@
       <c r="A829" s="8">
         <v>17043.0</v>
       </c>
-      <c r="B829" s="9" t="s">
+      <c r="B829" s="10" t="s">
         <v>1525</v>
       </c>
       <c r="C829" s="4" t="s">
@@ -21692,7 +21693,7 @@
       <c r="A830" s="8">
         <v>37061.0</v>
       </c>
-      <c r="B830" s="9" t="s">
+      <c r="B830" s="10" t="s">
         <v>1527</v>
       </c>
       <c r="C830" s="4" t="s">
@@ -21703,7 +21704,7 @@
       <c r="A831" s="8">
         <v>37063.0</v>
       </c>
-      <c r="B831" s="9" t="s">
+      <c r="B831" s="10" t="s">
         <v>686</v>
       </c>
       <c r="C831" s="4" t="s">
@@ -21714,7 +21715,7 @@
       <c r="A832" s="8">
         <v>36027.0</v>
       </c>
-      <c r="B832" s="9" t="s">
+      <c r="B832" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C832" s="4" t="s">
@@ -21725,7 +21726,7 @@
       <c r="A833" s="8">
         <v>48131.0</v>
       </c>
-      <c r="B833" s="9" t="s">
+      <c r="B833" s="10" t="s">
         <v>1531</v>
       </c>
       <c r="C833" s="4" t="s">
@@ -21736,7 +21737,7 @@
       <c r="A834" s="8">
         <v>12031.0</v>
       </c>
-      <c r="B834" s="9" t="s">
+      <c r="B834" s="10" t="s">
         <v>1533</v>
       </c>
       <c r="C834" s="4" t="s">
@@ -21747,7 +21748,7 @@
       <c r="A835" s="8">
         <v>47045.0</v>
       </c>
-      <c r="B835" s="9" t="s">
+      <c r="B835" s="10" t="s">
         <v>1535</v>
       </c>
       <c r="C835" s="4" t="s">
@@ -21758,7 +21759,7 @@
       <c r="A836" s="8">
         <v>8037.0</v>
       </c>
-      <c r="B836" s="9" t="s">
+      <c r="B836" s="10" t="s">
         <v>1537</v>
       </c>
       <c r="C836" s="4" t="s">
@@ -21769,7 +21770,7 @@
       <c r="A837" s="8">
         <v>13099.0</v>
       </c>
-      <c r="B837" s="9" t="s">
+      <c r="B837" s="10" t="s">
         <v>1539</v>
       </c>
       <c r="C837" s="4" t="s">
@@ -21780,7 +21781,7 @@
       <c r="A838" s="8">
         <v>22033.0</v>
       </c>
-      <c r="B838" s="9" t="s">
+      <c r="B838" s="10" t="s">
         <v>208</v>
       </c>
       <c r="C838" s="4" t="s">
@@ -21791,7 +21792,7 @@
       <c r="A839" s="8">
         <v>22035.0</v>
       </c>
-      <c r="B839" s="9" t="s">
+      <c r="B839" s="10" t="s">
         <v>1542</v>
       </c>
       <c r="C839" s="4" t="s">
@@ -21802,7 +21803,7 @@
       <c r="A840" s="8">
         <v>22037.0</v>
       </c>
-      <c r="B840" s="9" t="s">
+      <c r="B840" s="10" t="s">
         <v>1544</v>
       </c>
       <c r="C840" s="4" t="s">
@@ -21813,7 +21814,7 @@
       <c r="A841" s="8">
         <v>48133.0</v>
       </c>
-      <c r="B841" s="9" t="s">
+      <c r="B841" s="10" t="s">
         <v>1546</v>
       </c>
       <c r="C841" s="4" t="s">
@@ -21824,7 +21825,7 @@
       <c r="A842" s="8">
         <v>26045.0</v>
       </c>
-      <c r="B842" s="9" t="s">
+      <c r="B842" s="10" t="s">
         <v>1548</v>
       </c>
       <c r="C842" s="4" t="s">
@@ -21835,7 +21836,7 @@
       <c r="A843" s="8">
         <v>55035.0</v>
       </c>
-      <c r="B843" s="9" t="s">
+      <c r="B843" s="10" t="s">
         <v>1300</v>
       </c>
       <c r="C843" s="4" t="s">
@@ -21846,7 +21847,7 @@
       <c r="A844" s="8">
         <v>13101.0</v>
       </c>
-      <c r="B844" s="9" t="s">
+      <c r="B844" s="10" t="s">
         <v>1551</v>
       </c>
       <c r="C844" s="4" t="s">
@@ -21857,7 +21858,7 @@
       <c r="A845" s="8">
         <v>48135.0</v>
       </c>
-      <c r="B845" s="9" t="s">
+      <c r="B845" s="10" t="s">
         <v>1060</v>
       </c>
       <c r="C845" s="4" t="s">
@@ -21868,7 +21869,7 @@
       <c r="A846" s="8">
         <v>38027.0</v>
       </c>
-      <c r="B846" s="9" t="s">
+      <c r="B846" s="10" t="s">
         <v>1554</v>
       </c>
       <c r="C846" s="4" t="s">
@@ -21879,7 +21880,7 @@
       <c r="A847" s="8">
         <v>35015.0</v>
       </c>
-      <c r="B847" s="9" t="s">
+      <c r="B847" s="10" t="s">
         <v>1556</v>
       </c>
       <c r="C847" s="4" t="s">
@@ -21890,7 +21891,7 @@
       <c r="A848" s="8">
         <v>17045.0</v>
       </c>
-      <c r="B848" s="9" t="s">
+      <c r="B848" s="10" t="s">
         <v>1558</v>
       </c>
       <c r="C848" s="4" t="s">
@@ -21901,7 +21902,7 @@
       <c r="A849" s="8">
         <v>37065.0</v>
       </c>
-      <c r="B849" s="9" t="s">
+      <c r="B849" s="10" t="s">
         <v>1560</v>
       </c>
       <c r="C849" s="4" t="s">
@@ -21912,7 +21913,7 @@
       <c r="A850" s="8">
         <v>45037.0</v>
       </c>
-      <c r="B850" s="9" t="s">
+      <c r="B850" s="10" t="s">
         <v>760</v>
       </c>
       <c r="C850" s="4" t="s">
@@ -21923,7 +21924,7 @@
       <c r="A851" s="8">
         <v>21061.0</v>
       </c>
-      <c r="B851" s="9" t="s">
+      <c r="B851" s="10" t="s">
         <v>1563</v>
       </c>
       <c r="C851" s="4" t="s">
@@ -21934,7 +21935,7 @@
       <c r="A852" s="8">
         <v>46045.0</v>
       </c>
-      <c r="B852" s="9" t="s">
+      <c r="B852" s="10" t="s">
         <v>489</v>
       </c>
       <c r="C852" s="4" t="s">
@@ -21945,7 +21946,7 @@
       <c r="A853" s="8">
         <v>48137.0</v>
       </c>
-      <c r="B853" s="9" t="s">
+      <c r="B853" s="10" t="s">
         <v>1566</v>
       </c>
       <c r="C853" s="4" t="s">
@@ -21956,7 +21957,7 @@
       <c r="A854" s="8">
         <v>20047.0</v>
       </c>
-      <c r="B854" s="9" t="s">
+      <c r="B854" s="10" t="s">
         <v>1568</v>
       </c>
       <c r="C854" s="4" t="s">
@@ -21967,7 +21968,7 @@
       <c r="A855" s="8">
         <v>17047.0</v>
       </c>
-      <c r="B855" s="9" t="s">
+      <c r="B855" s="10" t="s">
         <v>1570</v>
       </c>
       <c r="C855" s="4" t="s">
@@ -21978,7 +21979,7 @@
       <c r="A856" s="8">
         <v>13103.0</v>
       </c>
-      <c r="B856" s="9" t="s">
+      <c r="B856" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C856" s="4" t="s">
@@ -21989,7 +21990,7 @@
       <c r="A857" s="8">
         <v>17049.0</v>
       </c>
-      <c r="B857" s="9" t="s">
+      <c r="B857" s="10" t="s">
         <v>1573</v>
       </c>
       <c r="C857" s="4" t="s">
@@ -22000,7 +22001,7 @@
       <c r="A858" s="8">
         <v>6017.0</v>
       </c>
-      <c r="B858" s="9" t="s">
+      <c r="B858" s="10" t="s">
         <v>607</v>
       </c>
       <c r="C858" s="4" t="s">
@@ -22011,7 +22012,7 @@
       <c r="A859" s="8">
         <v>48141.0</v>
       </c>
-      <c r="B859" s="9" t="s">
+      <c r="B859" s="10" t="s">
         <v>1490</v>
       </c>
       <c r="C859" s="4" t="s">
@@ -22022,7 +22023,7 @@
       <c r="A860" s="8">
         <v>8041.0</v>
       </c>
-      <c r="B860" s="9" t="s">
+      <c r="B860" s="10" t="s">
         <v>1577</v>
       </c>
       <c r="C860" s="4" t="s">
@@ -22033,7 +22034,7 @@
       <c r="A861" s="8">
         <v>8039.0</v>
       </c>
-      <c r="B861" s="9" t="s">
+      <c r="B861" s="10" t="s">
         <v>1579</v>
       </c>
       <c r="C861" s="4" t="s">
@@ -22044,7 +22045,7 @@
       <c r="A862" s="8">
         <v>13105.0</v>
       </c>
-      <c r="B862" s="9" t="s">
+      <c r="B862" s="10" t="s">
         <v>1581</v>
       </c>
       <c r="C862" s="4" t="s">
@@ -22055,8 +22056,8 @@
       <c r="A863" s="8">
         <v>42047.0</v>
       </c>
-      <c r="B863" s="9" t="s">
-        <v>15</v>
+      <c r="B863" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C863" s="4" t="s">
         <v>1583</v>
@@ -22066,7 +22067,7 @@
       <c r="A864" s="8">
         <v>20049.0</v>
       </c>
-      <c r="B864" s="9" t="s">
+      <c r="B864" s="10" t="s">
         <v>1338</v>
       </c>
       <c r="C864" s="4" t="s">
@@ -22077,7 +22078,7 @@
       <c r="A865" s="8">
         <v>18039.0</v>
       </c>
-      <c r="B865" s="9" t="s">
+      <c r="B865" s="10" t="s">
         <v>558</v>
       </c>
       <c r="C865" s="4" t="s">
@@ -22088,7 +22089,7 @@
       <c r="A866" s="8">
         <v>32007.0</v>
       </c>
-      <c r="B866" s="9" t="s">
+      <c r="B866" s="10" t="s">
         <v>1586</v>
       </c>
       <c r="C866" s="4" t="s">
@@ -22099,7 +22100,7 @@
       <c r="A867" s="8">
         <v>21063.0</v>
       </c>
-      <c r="B867" s="9" t="s">
+      <c r="B867" s="10" t="s">
         <v>1588</v>
       </c>
       <c r="C867" s="4" t="s">
@@ -22110,7 +22111,7 @@
       <c r="A868" s="8">
         <v>20051.0</v>
       </c>
-      <c r="B868" s="9" t="s">
+      <c r="B868" s="10" t="s">
         <v>822</v>
       </c>
       <c r="C868" s="4" t="s">
@@ -22121,7 +22122,7 @@
       <c r="A869" s="8">
         <v>48139.0</v>
       </c>
-      <c r="B869" s="9" t="s">
+      <c r="B869" s="10" t="s">
         <v>1591</v>
       </c>
       <c r="C869" s="4" t="s">
@@ -22132,7 +22133,7 @@
       <c r="A870" s="8">
         <v>40045.0</v>
       </c>
-      <c r="B870" s="9" t="s">
+      <c r="B870" s="10" t="s">
         <v>1593</v>
       </c>
       <c r="C870" s="4" t="s">
@@ -22143,7 +22144,7 @@
       <c r="A871" s="8">
         <v>20053.0</v>
       </c>
-      <c r="B871" s="9" t="s">
+      <c r="B871" s="10" t="s">
         <v>712</v>
       </c>
       <c r="C871" s="4" t="s">
@@ -22154,7 +22155,7 @@
       <c r="A872" s="8">
         <v>16039.0</v>
       </c>
-      <c r="B872" s="9" t="s">
+      <c r="B872" s="10" t="s">
         <v>1596</v>
       </c>
       <c r="C872" s="4" t="s">
@@ -22165,7 +22166,7 @@
       <c r="A873" s="8">
         <v>1051.0</v>
       </c>
-      <c r="B873" s="9" t="s">
+      <c r="B873" s="10" t="s">
         <v>1598</v>
       </c>
       <c r="C873" s="4" t="s">
@@ -22176,7 +22177,7 @@
       <c r="A874" s="8">
         <v>13107.0</v>
       </c>
-      <c r="B874" s="9" t="s">
+      <c r="B874" s="10" t="s">
         <v>1600</v>
       </c>
       <c r="C874" s="4" t="s">
@@ -22187,7 +22188,7 @@
       <c r="A875" s="8">
         <v>49015.0</v>
       </c>
-      <c r="B875" s="9" t="s">
+      <c r="B875" s="10" t="s">
         <v>1602</v>
       </c>
       <c r="C875" s="4" t="s">
@@ -22198,7 +22199,7 @@
       <c r="A876" s="8">
         <v>26047.0</v>
       </c>
-      <c r="B876" s="9" t="s">
+      <c r="B876" s="10" t="s">
         <v>1604</v>
       </c>
       <c r="C876" s="4" t="s">
@@ -22209,7 +22210,7 @@
       <c r="A877" s="8">
         <v>19063.0</v>
       </c>
-      <c r="B877" s="9" t="s">
+      <c r="B877" s="10" t="s">
         <v>349</v>
       </c>
       <c r="C877" s="4" t="s">
@@ -22220,7 +22221,7 @@
       <c r="A878" s="8">
         <v>38029.0</v>
       </c>
-      <c r="B878" s="9" t="s">
+      <c r="B878" s="10" t="s">
         <v>1607</v>
       </c>
       <c r="C878" s="4" t="s">
@@ -22231,7 +22232,7 @@
       <c r="A879" s="8">
         <v>51595.0</v>
       </c>
-      <c r="B879" s="9" t="s">
+      <c r="B879" s="10" t="s">
         <v>1609</v>
       </c>
       <c r="C879" s="4" t="s">
@@ -22242,7 +22243,7 @@
       <c r="A880" s="8">
         <v>48143.0</v>
       </c>
-      <c r="B880" s="9" t="s">
+      <c r="B880" s="10" t="s">
         <v>1611</v>
       </c>
       <c r="C880" s="4" t="s">
@@ -22253,7 +22254,7 @@
       <c r="A881" s="8">
         <v>36029.0</v>
       </c>
-      <c r="B881" s="9" t="s">
+      <c r="B881" s="10" t="s">
         <v>1613</v>
       </c>
       <c r="C881" s="4" t="s">
@@ -22264,7 +22265,7 @@
       <c r="A882" s="8">
         <v>39043.0</v>
       </c>
-      <c r="B882" s="9" t="s">
+      <c r="B882" s="10" t="s">
         <v>1615</v>
       </c>
       <c r="C882" s="4" t="s">
@@ -22275,7 +22276,7 @@
       <c r="A883" s="8">
         <v>42049.0</v>
       </c>
-      <c r="B883" s="9" t="s">
+      <c r="B883" s="10" t="s">
         <v>895</v>
       </c>
       <c r="C883" s="4" t="s">
@@ -22286,7 +22287,7 @@
       <c r="A884" s="8">
         <v>1053.0</v>
       </c>
-      <c r="B884" s="9" t="s">
+      <c r="B884" s="10" t="s">
         <v>1618</v>
       </c>
       <c r="C884" s="4" t="s">
@@ -22297,7 +22298,7 @@
       <c r="A885" s="8">
         <v>12033.0</v>
       </c>
-      <c r="B885" s="9" t="s">
+      <c r="B885" s="10" t="s">
         <v>1620</v>
       </c>
       <c r="C885" s="4" t="s">
@@ -22308,7 +22309,7 @@
       <c r="A886" s="8">
         <v>32009.0</v>
       </c>
-      <c r="B886" s="9" t="s">
+      <c r="B886" s="10" t="s">
         <v>1622</v>
       </c>
       <c r="C886" s="4" t="s">
@@ -22319,7 +22320,7 @@
       <c r="A887" s="8">
         <v>34013.0</v>
       </c>
-      <c r="B887" s="9" t="s">
+      <c r="B887" s="10" t="s">
         <v>1624</v>
       </c>
       <c r="C887" s="4" t="s">
@@ -22330,7 +22331,7 @@
       <c r="A888" s="8">
         <v>25009.0</v>
       </c>
-      <c r="B888" s="9" t="s">
+      <c r="B888" s="10" t="s">
         <v>1318</v>
       </c>
       <c r="C888" s="4" t="s">
@@ -22341,7 +22342,7 @@
       <c r="A889" s="8">
         <v>36031.0</v>
       </c>
-      <c r="B889" s="9" t="s">
+      <c r="B889" s="10" t="s">
         <v>1627</v>
       </c>
       <c r="C889" s="4" t="s">
@@ -22352,7 +22353,7 @@
       <c r="A890" s="8">
         <v>51057.0</v>
       </c>
-      <c r="B890" s="9" t="s">
+      <c r="B890" s="10" t="s">
         <v>184</v>
       </c>
       <c r="C890" s="4" t="s">
@@ -22363,7 +22364,7 @@
       <c r="A891" s="8">
         <v>50009.0</v>
       </c>
-      <c r="B891" s="9" t="s">
+      <c r="B891" s="10" t="s">
         <v>704</v>
       </c>
       <c r="C891" s="4" t="s">
@@ -22374,7 +22375,7 @@
       <c r="A892" s="8">
         <v>21065.0</v>
       </c>
-      <c r="B892" s="9" t="s">
+      <c r="B892" s="10" t="s">
         <v>1631</v>
       </c>
       <c r="C892" s="4" t="s">
@@ -22385,7 +22386,7 @@
       <c r="A893" s="8">
         <v>1055.0</v>
       </c>
-      <c r="B893" s="9" t="s">
+      <c r="B893" s="10" t="s">
         <v>1633</v>
       </c>
       <c r="C893" s="4" t="s">
@@ -22396,7 +22397,7 @@
       <c r="A894" s="8">
         <v>32011.0</v>
       </c>
-      <c r="B894" s="9" t="s">
+      <c r="B894" s="10" t="s">
         <v>1635</v>
       </c>
       <c r="C894" s="4" t="s">
@@ -22407,7 +22408,7 @@
       <c r="A895" s="8">
         <v>22039.0</v>
       </c>
-      <c r="B895" s="9" t="s">
+      <c r="B895" s="10" t="s">
         <v>1637</v>
       </c>
       <c r="C895" s="4" t="s">
@@ -22418,7 +22419,7 @@
       <c r="A896" s="8">
         <v>13109.0</v>
       </c>
-      <c r="B896" s="9" t="s">
+      <c r="B896" s="10" t="s">
         <v>826</v>
       </c>
       <c r="C896" s="4" t="s">
@@ -22429,7 +22430,7 @@
       <c r="A897" s="8">
         <v>2090.0</v>
       </c>
-      <c r="B897" s="9" t="s">
+      <c r="B897" s="10" t="s">
         <v>1640</v>
       </c>
       <c r="C897" s="4" t="s">
@@ -22440,7 +22441,7 @@
       <c r="A898" s="8">
         <v>51059.0</v>
       </c>
-      <c r="B898" s="9" t="s">
+      <c r="B898" s="10" t="s">
         <v>895</v>
       </c>
       <c r="C898" s="4" t="s">
@@ -22451,7 +22452,7 @@
       <c r="A899" s="8">
         <v>51600.0</v>
       </c>
-      <c r="B899" s="9" t="s">
+      <c r="B899" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C899" s="4" t="s">
@@ -22462,7 +22463,7 @@
       <c r="A900" s="8">
         <v>9001.0</v>
       </c>
-      <c r="B900" s="9" t="s">
+      <c r="B900" s="10" t="s">
         <v>682</v>
       </c>
       <c r="C900" s="4" t="s">
@@ -22473,7 +22474,7 @@
       <c r="A901" s="8">
         <v>39045.0</v>
       </c>
-      <c r="B901" s="9" t="s">
+      <c r="B901" s="10" t="s">
         <v>1645</v>
       </c>
       <c r="C901" s="4" t="s">
@@ -22484,7 +22485,7 @@
       <c r="A902" s="8">
         <v>45039.0</v>
       </c>
-      <c r="B902" s="9" t="s">
+      <c r="B902" s="10" t="s">
         <v>1647</v>
       </c>
       <c r="C902" s="4" t="s">
@@ -22495,7 +22496,7 @@
       <c r="A903" s="8">
         <v>46047.0</v>
       </c>
-      <c r="B903" s="9" t="s">
+      <c r="B903" s="10" t="s">
         <v>861</v>
       </c>
       <c r="C903" s="4" t="s">
@@ -22506,7 +22507,7 @@
       <c r="A904" s="8">
         <v>30025.0</v>
       </c>
-      <c r="B904" s="9" t="s">
+      <c r="B904" s="10" t="s">
         <v>1650</v>
       </c>
       <c r="C904" s="4" t="s">
@@ -22517,7 +22518,7 @@
       <c r="A905" s="8">
         <v>48145.0</v>
       </c>
-      <c r="B905" s="9" t="s">
+      <c r="B905" s="10" t="s">
         <v>1652</v>
       </c>
       <c r="C905" s="4" t="s">
@@ -22528,7 +22529,7 @@
       <c r="A906" s="8">
         <v>51610.0</v>
       </c>
-      <c r="B906" s="9" t="s">
+      <c r="B906" s="10" t="s">
         <v>1654</v>
       </c>
       <c r="C906" s="4" t="s">
@@ -22539,7 +22540,7 @@
       <c r="A907" s="8">
         <v>48147.0</v>
       </c>
-      <c r="B907" s="9" t="s">
+      <c r="B907" s="10" t="s">
         <v>308</v>
       </c>
       <c r="C907" s="4" t="s">
@@ -22550,7 +22551,7 @@
       <c r="A908" s="8">
         <v>13111.0</v>
       </c>
-      <c r="B908" s="9" t="s">
+      <c r="B908" s="10" t="s">
         <v>1657</v>
       </c>
       <c r="C908" s="4" t="s">
@@ -22561,7 +22562,7 @@
       <c r="A909" s="8">
         <v>27043.0</v>
       </c>
-      <c r="B909" s="9" t="s">
+      <c r="B909" s="10" t="s">
         <v>1659</v>
       </c>
       <c r="C909" s="4" t="s">
@@ -22572,7 +22573,7 @@
       <c r="A910" s="8">
         <v>46049.0</v>
       </c>
-      <c r="B910" s="9" t="s">
+      <c r="B910" s="10" t="s">
         <v>386</v>
       </c>
       <c r="C910" s="4" t="s">
@@ -22583,7 +22584,7 @@
       <c r="A911" s="8">
         <v>5045.0</v>
       </c>
-      <c r="B911" s="9" t="s">
+      <c r="B911" s="10" t="s">
         <v>1662</v>
       </c>
       <c r="C911" s="4" t="s">
@@ -22594,7 +22595,7 @@
       <c r="A912" s="8">
         <v>51061.0</v>
       </c>
-      <c r="B912" s="9" t="s">
+      <c r="B912" s="10" t="s">
         <v>1664</v>
       </c>
       <c r="C912" s="4" t="s">
@@ -22605,7 +22606,7 @@
       <c r="A913" s="8">
         <v>48149.0</v>
       </c>
-      <c r="B913" s="9" t="s">
+      <c r="B913" s="10" t="s">
         <v>1401</v>
       </c>
       <c r="C913" s="4" t="s">
@@ -22616,7 +22617,7 @@
       <c r="A914" s="8">
         <v>19065.0</v>
       </c>
-      <c r="B914" s="9" t="s">
+      <c r="B914" s="10" t="s">
         <v>1566</v>
       </c>
       <c r="C914" s="4" t="s">
@@ -22627,7 +22628,7 @@
       <c r="A915" s="8">
         <v>42051.0</v>
       </c>
-      <c r="B915" s="9" t="s">
+      <c r="B915" s="10" t="s">
         <v>1596</v>
       </c>
       <c r="C915" s="4" t="s">
@@ -22638,7 +22639,7 @@
       <c r="A916" s="8">
         <v>47047.0</v>
       </c>
-      <c r="B916" s="9" t="s">
+      <c r="B916" s="10" t="s">
         <v>1669</v>
       </c>
       <c r="C916" s="4" t="s">
@@ -22649,7 +22650,7 @@
       <c r="A917" s="8">
         <v>13113.0</v>
       </c>
-      <c r="B917" s="9" t="s">
+      <c r="B917" s="10" t="s">
         <v>1464</v>
       </c>
       <c r="C917" s="4" t="s">
@@ -22660,7 +22661,7 @@
       <c r="A918" s="8">
         <v>54019.0</v>
       </c>
-      <c r="B918" s="9" t="s">
+      <c r="B918" s="10" t="s">
         <v>721</v>
       </c>
       <c r="C918" s="4" t="s">
@@ -22671,7 +22672,7 @@
       <c r="A919" s="8">
         <v>21067.0</v>
       </c>
-      <c r="B919" s="9" t="s">
+      <c r="B919" s="10" t="s">
         <v>1673</v>
       </c>
       <c r="C919" s="4" t="s">
@@ -22682,7 +22683,7 @@
       <c r="A920" s="8">
         <v>39047.0</v>
       </c>
-      <c r="B920" s="9" t="s">
+      <c r="B920" s="10" t="s">
         <v>1675</v>
       </c>
       <c r="C920" s="4" t="s">
@@ -22693,7 +22694,7 @@
       <c r="A921" s="8">
         <v>18041.0</v>
       </c>
-      <c r="B921" s="9" t="s">
+      <c r="B921" s="10" t="s">
         <v>869</v>
       </c>
       <c r="C921" s="4" t="s">
@@ -22704,7 +22705,7 @@
       <c r="A922" s="8">
         <v>17051.0</v>
       </c>
-      <c r="B922" s="9" t="s">
+      <c r="B922" s="10" t="s">
         <v>1678</v>
       </c>
       <c r="C922" s="4" t="s">
@@ -22715,7 +22716,7 @@
       <c r="A923" s="8">
         <v>1057.0</v>
       </c>
-      <c r="B923" s="9" t="s">
+      <c r="B923" s="10" t="s">
         <v>1680</v>
       </c>
       <c r="C923" s="4" t="s">
@@ -22726,7 +22727,7 @@
       <c r="A924" s="8">
         <v>47049.0</v>
       </c>
-      <c r="B924" s="9" t="s">
+      <c r="B924" s="10" t="s">
         <v>1682</v>
       </c>
       <c r="C924" s="4" t="s">
@@ -22737,7 +22738,7 @@
       <c r="A925" s="8">
         <v>30027.0</v>
       </c>
-      <c r="B925" s="9" t="s">
+      <c r="B925" s="10" t="s">
         <v>1395</v>
       </c>
       <c r="C925" s="4" t="s">
@@ -22748,7 +22749,7 @@
       <c r="A926" s="8">
         <v>53019.0</v>
       </c>
-      <c r="B926" s="9" t="s">
+      <c r="B926" s="10" t="s">
         <v>1685</v>
       </c>
       <c r="C926" s="4" t="s">
@@ -22759,7 +22760,7 @@
       <c r="A927" s="8">
         <v>27045.0</v>
       </c>
-      <c r="B927" s="9" t="s">
+      <c r="B927" s="10" t="s">
         <v>996</v>
       </c>
       <c r="C927" s="4" t="s">
@@ -22770,7 +22771,7 @@
       <c r="A928" s="8">
         <v>31059.0</v>
       </c>
-      <c r="B928" s="9" t="s">
+      <c r="B928" s="10" t="s">
         <v>797</v>
       </c>
       <c r="C928" s="4" t="s">
@@ -22781,7 +22782,7 @@
       <c r="A929" s="8">
         <v>20055.0</v>
       </c>
-      <c r="B929" s="9" t="s">
+      <c r="B929" s="10" t="s">
         <v>977</v>
       </c>
       <c r="C929" s="4" t="s">
@@ -22792,7 +22793,7 @@
       <c r="A930" s="8">
         <v>48151.0</v>
       </c>
-      <c r="B930" s="9" t="s">
+      <c r="B930" s="10" t="s">
         <v>1690</v>
       </c>
       <c r="C930" s="4" t="s">
@@ -22803,7 +22804,7 @@
       <c r="A931" s="8">
         <v>12035.0</v>
       </c>
-      <c r="B931" s="9" t="s">
+      <c r="B931" s="10" t="s">
         <v>1692</v>
       </c>
       <c r="C931" s="4" t="s">
@@ -22814,7 +22815,7 @@
       <c r="A932" s="8">
         <v>30029.0</v>
       </c>
-      <c r="B932" s="9" t="s">
+      <c r="B932" s="10" t="s">
         <v>1234</v>
       </c>
       <c r="C932" s="4" t="s">
@@ -22825,7 +22826,7 @@
       <c r="A933" s="8">
         <v>21069.0</v>
       </c>
-      <c r="B933" s="9" t="s">
+      <c r="B933" s="10" t="s">
         <v>1695</v>
       </c>
       <c r="C933" s="4" t="s">
@@ -22836,7 +22837,7 @@
       <c r="A934" s="8">
         <v>55037.0</v>
       </c>
-      <c r="B934" s="9" t="s">
+      <c r="B934" s="10" t="s">
         <v>1697</v>
       </c>
       <c r="C934" s="4" t="s">
@@ -22847,7 +22848,7 @@
       <c r="A935" s="8">
         <v>45041.0</v>
       </c>
-      <c r="B935" s="9" t="s">
+      <c r="B935" s="10" t="s">
         <v>288</v>
       </c>
       <c r="C935" s="4" t="s">
@@ -22858,7 +22859,7 @@
       <c r="A936" s="8">
         <v>48153.0</v>
       </c>
-      <c r="B936" s="9" t="s">
+      <c r="B936" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C936" s="4" t="s">
@@ -22869,7 +22870,7 @@
       <c r="A937" s="8">
         <v>19067.0</v>
       </c>
-      <c r="B937" s="9" t="s">
+      <c r="B937" s="10" t="s">
         <v>1701</v>
       </c>
       <c r="C937" s="4" t="s">
@@ -22880,7 +22881,7 @@
       <c r="A938" s="8">
         <v>18043.0</v>
       </c>
-      <c r="B938" s="9" t="s">
+      <c r="B938" s="10" t="s">
         <v>1703</v>
       </c>
       <c r="C938" s="4" t="s">
@@ -22891,7 +22892,7 @@
       <c r="A939" s="8">
         <v>51063.0</v>
       </c>
-      <c r="B939" s="9" t="s">
+      <c r="B939" s="10" t="s">
         <v>646</v>
       </c>
       <c r="C939" s="4" t="s">
@@ -22902,7 +22903,7 @@
       <c r="A940" s="8">
         <v>13115.0</v>
       </c>
-      <c r="B940" s="9" t="s">
+      <c r="B940" s="10" t="s">
         <v>1706</v>
       </c>
       <c r="C940" s="4" t="s">
@@ -22913,7 +22914,7 @@
       <c r="A941" s="8">
         <v>21071.0</v>
       </c>
-      <c r="B941" s="9" t="s">
+      <c r="B941" s="10" t="s">
         <v>1708</v>
       </c>
       <c r="C941" s="4" t="s">
@@ -22924,7 +22925,7 @@
       <c r="A942" s="8">
         <v>51065.0</v>
       </c>
-      <c r="B942" s="9" t="s">
+      <c r="B942" s="10" t="s">
         <v>1710</v>
       </c>
       <c r="C942" s="4" t="s">
@@ -22935,7 +22936,7 @@
       <c r="A943" s="8">
         <v>48155.0</v>
       </c>
-      <c r="B943" s="9" t="s">
+      <c r="B943" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C943" s="4" t="s">
@@ -22946,7 +22947,7 @@
       <c r="A944" s="8">
         <v>55039.0</v>
       </c>
-      <c r="B944" s="9" t="s">
+      <c r="B944" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C944" s="4" t="s">
@@ -22957,7 +22958,7 @@
       <c r="A945" s="8">
         <v>20057.0</v>
       </c>
-      <c r="B945" s="9" t="s">
+      <c r="B945" s="10" t="s">
         <v>1714</v>
       </c>
       <c r="C945" s="4" t="s">
@@ -22968,7 +22969,7 @@
       <c r="A946" s="8">
         <v>17053.0</v>
       </c>
-      <c r="B946" s="9" t="s">
+      <c r="B946" s="10" t="s">
         <v>1104</v>
       </c>
       <c r="C946" s="4" t="s">
@@ -22979,7 +22980,7 @@
       <c r="A947" s="8">
         <v>55041.0</v>
       </c>
-      <c r="B947" s="9" t="s">
+      <c r="B947" s="10" t="s">
         <v>1165</v>
       </c>
       <c r="C947" s="4" t="s">
@@ -22990,7 +22991,7 @@
       <c r="A948" s="8">
         <v>42053.0</v>
       </c>
-      <c r="B948" s="9" t="s">
+      <c r="B948" s="10" t="s">
         <v>1531</v>
       </c>
       <c r="C948" s="4" t="s">
@@ -23001,7 +23002,7 @@
       <c r="A949" s="8">
         <v>28035.0</v>
       </c>
-      <c r="B949" s="9" t="s">
+      <c r="B949" s="10" t="s">
         <v>279</v>
       </c>
       <c r="C949" s="4" t="s">
@@ -23012,7 +23013,7 @@
       <c r="A950" s="8">
         <v>37067.0</v>
       </c>
-      <c r="B950" s="9" t="s">
+      <c r="B950" s="10" t="s">
         <v>514</v>
       </c>
       <c r="C950" s="4" t="s">
@@ -23023,7 +23024,7 @@
       <c r="A951" s="8">
         <v>13117.0</v>
       </c>
-      <c r="B951" s="9" t="s">
+      <c r="B951" s="10" t="s">
         <v>1721</v>
       </c>
       <c r="C951" s="4" t="s">
@@ -23034,7 +23035,7 @@
       <c r="A952" s="8">
         <v>48157.0</v>
       </c>
-      <c r="B952" s="9" t="s">
+      <c r="B952" s="10" t="s">
         <v>1723</v>
       </c>
       <c r="C952" s="4" t="s">
@@ -23045,7 +23046,7 @@
       <c r="A953" s="8">
         <v>38031.0</v>
       </c>
-      <c r="B953" s="9" t="s">
+      <c r="B953" s="10" t="s">
         <v>599</v>
       </c>
       <c r="C953" s="4" t="s">
@@ -23056,7 +23057,7 @@
       <c r="A954" s="8">
         <v>18045.0</v>
       </c>
-      <c r="B954" s="9" t="s">
+      <c r="B954" s="10" t="s">
         <v>1726</v>
       </c>
       <c r="C954" s="4" t="s">
@@ -23067,7 +23068,7 @@
       <c r="A955" s="8">
         <v>25011.0</v>
       </c>
-      <c r="B955" s="9" t="s">
+      <c r="B955" s="10" t="s">
         <v>1728</v>
       </c>
       <c r="C955" s="4" t="s">
@@ -23078,7 +23079,7 @@
       <c r="A956" s="8">
         <v>31061.0</v>
       </c>
-      <c r="B956" s="9" t="s">
+      <c r="B956" s="10" t="s">
         <v>925</v>
       </c>
       <c r="C956" s="4" t="s">
@@ -23089,7 +23090,7 @@
       <c r="A957" s="8">
         <v>36033.0</v>
       </c>
-      <c r="B957" s="9" t="s">
+      <c r="B957" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C957" s="4" t="s">
@@ -23100,7 +23101,7 @@
       <c r="A958" s="8">
         <v>39049.0</v>
       </c>
-      <c r="B958" s="9" t="s">
+      <c r="B958" s="10" t="s">
         <v>462</v>
       </c>
       <c r="C958" s="4" t="s">
@@ -23111,8 +23112,8 @@
       <c r="A959" s="8">
         <v>19069.0</v>
       </c>
-      <c r="B959" s="9" t="s">
-        <v>58</v>
+      <c r="B959" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C959" s="4" t="s">
         <v>1733</v>
@@ -23122,7 +23123,7 @@
       <c r="A960" s="8">
         <v>53021.0</v>
       </c>
-      <c r="B960" s="9" t="s">
+      <c r="B960" s="10" t="s">
         <v>1734</v>
       </c>
       <c r="C960" s="4" t="s">
@@ -23133,7 +23134,7 @@
       <c r="A961" s="8">
         <v>16041.0</v>
       </c>
-      <c r="B961" s="9" t="s">
+      <c r="B961" s="10" t="s">
         <v>1736</v>
       </c>
       <c r="C961" s="4" t="s">
@@ -23144,7 +23145,7 @@
       <c r="A962" s="8">
         <v>23007.0</v>
       </c>
-      <c r="B962" s="9" t="s">
+      <c r="B962" s="10" t="s">
         <v>208</v>
       </c>
       <c r="C962" s="4" t="s">
@@ -23155,7 +23156,7 @@
       <c r="A963" s="8">
         <v>20059.0</v>
       </c>
-      <c r="B963" s="9" t="s">
+      <c r="B963" s="10" t="s">
         <v>931</v>
       </c>
       <c r="C963" s="4" t="s">
@@ -23166,7 +23167,7 @@
       <c r="A964" s="8">
         <v>12037.0</v>
       </c>
-      <c r="B964" s="9" t="s">
+      <c r="B964" s="10" t="s">
         <v>1740</v>
       </c>
       <c r="C964" s="4" t="s">
@@ -23177,7 +23178,7 @@
       <c r="A965" s="8">
         <v>28037.0</v>
       </c>
-      <c r="B965" s="9" t="s">
+      <c r="B965" s="10" t="s">
         <v>1511</v>
       </c>
       <c r="C965" s="4" t="s">
@@ -23188,7 +23189,7 @@
       <c r="A966" s="8">
         <v>17055.0</v>
       </c>
-      <c r="B966" s="9" t="s">
+      <c r="B966" s="10" t="s">
         <v>1743</v>
       </c>
       <c r="C966" s="4" t="s">
@@ -23199,7 +23200,7 @@
       <c r="A967" s="8">
         <v>48159.0</v>
       </c>
-      <c r="B967" s="9" t="s">
+      <c r="B967" s="10" t="s">
         <v>1560</v>
       </c>
       <c r="C967" s="4" t="s">
@@ -23210,7 +23211,7 @@
       <c r="A968" s="8">
         <v>5047.0</v>
       </c>
-      <c r="B968" s="9" t="s">
+      <c r="B968" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C968" s="4" t="s">
@@ -23221,7 +23222,7 @@
       <c r="A969" s="8">
         <v>42055.0</v>
       </c>
-      <c r="B969" s="9" t="s">
+      <c r="B969" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="C969" s="4" t="s">
@@ -23232,7 +23233,7 @@
       <c r="A970" s="8">
         <v>50011.0</v>
       </c>
-      <c r="B970" s="9" t="s">
+      <c r="B970" s="10" t="s">
         <v>1748</v>
       </c>
       <c r="C970" s="4" t="s">
@@ -23243,7 +23244,7 @@
       <c r="A971" s="8">
         <v>51067.0</v>
       </c>
-      <c r="B971" s="9" t="s">
+      <c r="B971" s="10" t="s">
         <v>1750</v>
       </c>
       <c r="C971" s="4" t="s">
@@ -23254,7 +23255,7 @@
       <c r="A972" s="8">
         <v>18047.0</v>
       </c>
-      <c r="B972" s="9" t="s">
+      <c r="B972" s="10" t="s">
         <v>783</v>
       </c>
       <c r="C972" s="4" t="s">
@@ -23265,7 +23266,7 @@
       <c r="A973" s="8">
         <v>37069.0</v>
       </c>
-      <c r="B973" s="9" t="s">
+      <c r="B973" s="10" t="s">
         <v>1753</v>
       </c>
       <c r="C973" s="4" t="s">
@@ -23276,7 +23277,7 @@
       <c r="A974" s="8">
         <v>13119.0</v>
       </c>
-      <c r="B974" s="9" t="s">
+      <c r="B974" s="10" t="s">
         <v>1755</v>
       </c>
       <c r="C974" s="4" t="s">
@@ -23287,7 +23288,7 @@
       <c r="A975" s="8">
         <v>22041.0</v>
       </c>
-      <c r="B975" s="9" t="s">
+      <c r="B975" s="10" t="s">
         <v>1757</v>
       </c>
       <c r="C975" s="4" t="s">
@@ -23298,7 +23299,7 @@
       <c r="A976" s="8">
         <v>47051.0</v>
       </c>
-      <c r="B976" s="9" t="s">
+      <c r="B976" s="10" t="s">
         <v>1759</v>
       </c>
       <c r="C976" s="4" t="s">
@@ -23309,7 +23310,7 @@
       <c r="A977" s="8">
         <v>21073.0</v>
       </c>
-      <c r="B977" s="9" t="s">
+      <c r="B977" s="10" t="s">
         <v>1761</v>
       </c>
       <c r="C977" s="4" t="s">
@@ -23320,7 +23321,7 @@
       <c r="A978" s="8">
         <v>1059.0</v>
       </c>
-      <c r="B978" s="9" t="s">
+      <c r="B978" s="10" t="s">
         <v>1763</v>
       </c>
       <c r="C978" s="4" t="s">
@@ -23331,7 +23332,7 @@
       <c r="A979" s="8">
         <v>29071.0</v>
       </c>
-      <c r="B979" s="9" t="s">
+      <c r="B979" s="10" t="s">
         <v>1765</v>
       </c>
       <c r="C979" s="4" t="s">
@@ -23342,7 +23343,7 @@
       <c r="A980" s="8">
         <v>51620.0</v>
       </c>
-      <c r="B980" s="9" t="s">
+      <c r="B980" s="10" t="s">
         <v>1338</v>
       </c>
       <c r="C980" s="4" t="s">
@@ -23353,7 +23354,7 @@
       <c r="A981" s="8">
         <v>24021.0</v>
       </c>
-      <c r="B981" s="9" t="s">
+      <c r="B981" s="10" t="s">
         <v>1768</v>
       </c>
       <c r="C981" s="4" t="s">
@@ -23364,7 +23365,7 @@
       <c r="A982" s="8">
         <v>51069.0</v>
       </c>
-      <c r="B982" s="9" t="s">
+      <c r="B982" s="10" t="s">
         <v>1770</v>
       </c>
       <c r="C982" s="4" t="s">
@@ -23375,7 +23376,7 @@
       <c r="A983" s="8">
         <v>51630.0</v>
       </c>
-      <c r="B983" s="9" t="s">
+      <c r="B983" s="10" t="s">
         <v>1627</v>
       </c>
       <c r="C983" s="4" t="s">
@@ -23386,7 +23387,7 @@
       <c r="A984" s="8">
         <v>27047.0</v>
       </c>
-      <c r="B984" s="9" t="s">
+      <c r="B984" s="10" t="s">
         <v>206</v>
       </c>
       <c r="C984" s="4" t="s">
@@ -23397,7 +23398,7 @@
       <c r="A985" s="8">
         <v>48161.0</v>
       </c>
-      <c r="B985" s="9" t="s">
+      <c r="B985" s="10" t="s">
         <v>1774</v>
       </c>
       <c r="C985" s="4" t="s">
@@ -23408,7 +23409,7 @@
       <c r="A986" s="8">
         <v>56013.0</v>
       </c>
-      <c r="B986" s="9" t="s">
+      <c r="B986" s="10" t="s">
         <v>1776</v>
       </c>
       <c r="C986" s="4" t="s">
@@ -23419,7 +23420,7 @@
       <c r="A987" s="8">
         <v>8043.0</v>
       </c>
-      <c r="B987" s="9" t="s">
+      <c r="B987" s="10" t="s">
         <v>861</v>
       </c>
       <c r="C987" s="4" t="s">
@@ -23430,7 +23431,7 @@
       <c r="A988" s="8">
         <v>19071.0</v>
       </c>
-      <c r="B988" s="9" t="s">
+      <c r="B988" s="10" t="s">
         <v>1779</v>
       </c>
       <c r="C988" s="4" t="s">
@@ -23441,7 +23442,7 @@
       <c r="A989" s="8">
         <v>16043.0</v>
       </c>
-      <c r="B989" s="9" t="s">
+      <c r="B989" s="10" t="s">
         <v>308</v>
       </c>
       <c r="C989" s="4" t="s">
@@ -23452,7 +23453,7 @@
       <c r="A990" s="8">
         <v>6019.0</v>
       </c>
-      <c r="B990" s="9" t="s">
+      <c r="B990" s="10" t="s">
         <v>1782</v>
       </c>
       <c r="C990" s="4" t="s">
@@ -23463,7 +23464,7 @@
       <c r="A991" s="8">
         <v>48163.0</v>
       </c>
-      <c r="B991" s="9" t="s">
+      <c r="B991" s="10" t="s">
         <v>1784</v>
       </c>
       <c r="C991" s="4" t="s">
@@ -23474,7 +23475,7 @@
       <c r="A992" s="8">
         <v>31063.0</v>
       </c>
-      <c r="B992" s="9" t="s">
+      <c r="B992" s="10" t="s">
         <v>753</v>
       </c>
       <c r="C992" s="4" t="s">
@@ -23485,7 +23486,7 @@
       <c r="A993" s="8">
         <v>39051.0</v>
       </c>
-      <c r="B993" s="9" t="s">
+      <c r="B993" s="10" t="s">
         <v>981</v>
       </c>
       <c r="C993" s="4" t="s">
@@ -23496,7 +23497,7 @@
       <c r="A994" s="8">
         <v>13121.0</v>
       </c>
-      <c r="B994" s="9" t="s">
+      <c r="B994" s="10" t="s">
         <v>1002</v>
       </c>
       <c r="C994" s="4" t="s">
@@ -23507,7 +23508,7 @@
       <c r="A995" s="8">
         <v>36035.0</v>
       </c>
-      <c r="B995" s="9" t="s">
+      <c r="B995" s="10" t="s">
         <v>1743</v>
       </c>
       <c r="C995" s="4" t="s">
@@ -23518,7 +23519,7 @@
       <c r="A996" s="8">
         <v>42057.0</v>
       </c>
-      <c r="B996" s="9" t="s">
+      <c r="B996" s="10" t="s">
         <v>1790</v>
       </c>
       <c r="C996" s="4" t="s">
@@ -23529,7 +23530,7 @@
       <c r="A997" s="8">
         <v>5049.0</v>
       </c>
-      <c r="B997" s="9" t="s">
+      <c r="B997" s="10" t="s">
         <v>1792</v>
       </c>
       <c r="C997" s="4" t="s">
@@ -23540,7 +23541,7 @@
       <c r="A998" s="8">
         <v>17057.0</v>
       </c>
-      <c r="B998" s="9" t="s">
+      <c r="B998" s="10" t="s">
         <v>1794</v>
       </c>
       <c r="C998" s="4" t="s">
@@ -23551,7 +23552,7 @@
       <c r="A999" s="8">
         <v>18049.0</v>
       </c>
-      <c r="B999" s="9" t="s">
+      <c r="B999" s="10" t="s">
         <v>481</v>
       </c>
       <c r="C999" s="4" t="s">
@@ -23562,7 +23563,7 @@
       <c r="A1000" s="8">
         <v>21075.0</v>
       </c>
-      <c r="B1000" s="9" t="s">
+      <c r="B1000" s="10" t="s">
         <v>787</v>
       </c>
       <c r="C1000" s="4" t="s">
